--- a/2024/OAS 2024.xlsx
+++ b/2024/OAS 2024.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnbar\Dropbox\OAS\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71C8080-8F93-4A49-A46D-2002D6D01D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F859F80-2D4E-47A1-BA82-C685DDD1CF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="3" activeTab="7" xr2:uid="{E6A7689A-682B-425D-92A3-B87F804748A5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="6" activeTab="8" xr2:uid="{E6A7689A-682B-425D-92A3-B87F804748A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="8" r:id="rId1"/>
@@ -29,14 +29,14 @@
     <sheet name="Open Exhibition" sheetId="6" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Current account'!$A$1:$I$308</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Current account'!$A$1:$I$309</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Stripe!$A$1:$P$481</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId15"/>
     <pivotCache cacheId="1" r:id="rId16"/>
-    <pivotCache cacheId="2" r:id="rId17"/>
+    <pivotCache cacheId="6" r:id="rId17"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4740" uniqueCount="2214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4746" uniqueCount="2216">
   <si>
     <t>Subs</t>
   </si>
@@ -6698,6 +6698,12 @@
   </si>
   <si>
     <t>403535 41336819 INTERNET TRANSFER</t>
+  </si>
+  <si>
+    <t>Honoraria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reimbursement </t>
   </si>
 </sst>
 </file>
@@ -6845,7 +6851,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -6885,6 +6891,7 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -7016,13 +7023,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45554.487439467594" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="304" xr:uid="{133830F7-3A79-4A2B-AFB2-D11D3864E8D7}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45560.662846064813" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="309" xr:uid="{133830F7-3A79-4A2B-AFB2-D11D3864E8D7}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H500" sheet="Current account"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-01-01T00:00:00" maxDate="2024-09-20T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-01-01T00:00:00" maxDate="2024-09-26T00:00:00"/>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -7031,7 +7038,7 @@
       <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="101412" maxValue="101416"/>
     </cacheField>
     <cacheField name="Expenditure" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5" maxValue="1500"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5" maxValue="6000"/>
     </cacheField>
     <cacheField name="Income" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.98" maxValue="2097.8000000000002"/>
@@ -7040,7 +7047,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5059.6099999999997" maxValue="17759.57"/>
     </cacheField>
     <cacheField name="Category" numFmtId="0">
-      <sharedItems containsBlank="1" count="20">
+      <sharedItems containsBlank="1" count="24">
         <s v="Subs"/>
         <s v="Admin"/>
         <s v="Submissions"/>
@@ -7048,6 +7055,7 @@
         <s v="Donations cr"/>
         <s v="Sales cr"/>
         <s v="Prizes"/>
+        <s v="Honoraria"/>
         <s v="Publicity"/>
         <s v="Exhibition organisers fees"/>
         <s v="Refunds"/>
@@ -7060,6 +7068,9 @@
         <s v="Insurance"/>
         <s v="Other income"/>
         <s v="Exhibitions db"/>
+        <s v="Other expenses"/>
+        <s v="Bar sales"/>
+        <s v="Transfer Out"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -12329,7 +12340,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="304">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="309">
   <r>
     <d v="2024-01-01T00:00:00"/>
     <s v="CR"/>
@@ -14497,7 +14508,7 @@
     <n v="1500"/>
     <m/>
     <n v="16195.59"/>
-    <x v="3"/>
+    <x v="7"/>
     <m/>
   </r>
   <r>
@@ -14507,7 +14518,7 @@
     <n v="175"/>
     <m/>
     <n v="16020.59"/>
-    <x v="7"/>
+    <x v="8"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14517,7 +14528,7 @@
     <n v="1500"/>
     <m/>
     <n v="14520.59"/>
-    <x v="8"/>
+    <x v="9"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14547,7 +14558,7 @@
     <n v="175"/>
     <m/>
     <n v="14815.79"/>
-    <x v="9"/>
+    <x v="10"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14587,7 +14598,7 @@
     <n v="916.6"/>
     <m/>
     <n v="13694.19"/>
-    <x v="10"/>
+    <x v="11"/>
     <m/>
   </r>
   <r>
@@ -14607,7 +14618,7 @@
     <n v="375"/>
     <m/>
     <n v="12929.19"/>
-    <x v="7"/>
+    <x v="8"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14617,7 +14628,7 @@
     <n v="262.5"/>
     <m/>
     <n v="12666.69"/>
-    <x v="11"/>
+    <x v="12"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14627,7 +14638,7 @@
     <n v="232.5"/>
     <m/>
     <n v="12434.19"/>
-    <x v="11"/>
+    <x v="12"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14637,7 +14648,7 @@
     <n v="131.25"/>
     <m/>
     <n v="12302.94"/>
-    <x v="11"/>
+    <x v="12"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14647,7 +14658,7 @@
     <n v="187.5"/>
     <m/>
     <n v="12115.44"/>
-    <x v="11"/>
+    <x v="12"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14657,7 +14668,7 @@
     <n v="221.25"/>
     <m/>
     <n v="11894.19"/>
-    <x v="11"/>
+    <x v="12"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14667,7 +14678,7 @@
     <n v="221.25"/>
     <m/>
     <n v="11672.94"/>
-    <x v="11"/>
+    <x v="12"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14677,7 +14688,7 @@
     <n v="247.5"/>
     <m/>
     <n v="11425.44"/>
-    <x v="11"/>
+    <x v="12"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14687,7 +14698,7 @@
     <n v="435"/>
     <m/>
     <n v="10990.44"/>
-    <x v="11"/>
+    <x v="12"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14697,7 +14708,7 @@
     <n v="318.75"/>
     <m/>
     <n v="10671.69"/>
-    <x v="11"/>
+    <x v="12"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14707,7 +14718,7 @@
     <n v="285"/>
     <m/>
     <n v="10386.69"/>
-    <x v="11"/>
+    <x v="12"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14717,7 +14728,7 @@
     <n v="90"/>
     <m/>
     <n v="10296.69"/>
-    <x v="11"/>
+    <x v="12"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14797,7 +14808,7 @@
     <n v="156.19999999999999"/>
     <m/>
     <n v="10337.239999999996"/>
-    <x v="12"/>
+    <x v="13"/>
     <m/>
   </r>
   <r>
@@ -14807,7 +14818,7 @@
     <n v="30"/>
     <m/>
     <n v="10307.239999999996"/>
-    <x v="9"/>
+    <x v="10"/>
     <m/>
   </r>
   <r>
@@ -14817,7 +14828,7 @@
     <n v="30"/>
     <m/>
     <n v="10277.239999999996"/>
-    <x v="9"/>
+    <x v="10"/>
     <m/>
   </r>
   <r>
@@ -14847,7 +14858,7 @@
     <n v="50"/>
     <m/>
     <n v="10049.739999999996"/>
-    <x v="13"/>
+    <x v="14"/>
     <m/>
   </r>
   <r>
@@ -14857,7 +14868,7 @@
     <n v="400"/>
     <m/>
     <n v="9649.7399999999961"/>
-    <x v="13"/>
+    <x v="14"/>
     <m/>
   </r>
   <r>
@@ -14897,7 +14908,7 @@
     <n v="1261.68"/>
     <m/>
     <n v="8312.1099999999951"/>
-    <x v="14"/>
+    <x v="15"/>
     <s v="Members"/>
   </r>
   <r>
@@ -15017,7 +15028,7 @@
     <n v="18.5"/>
     <m/>
     <n v="9078.7499999999945"/>
-    <x v="15"/>
+    <x v="16"/>
     <m/>
   </r>
   <r>
@@ -15067,7 +15078,7 @@
     <n v="614.34"/>
     <m/>
     <n v="8837.389999999994"/>
-    <x v="16"/>
+    <x v="17"/>
     <m/>
   </r>
   <r>
@@ -15197,7 +15208,7 @@
     <n v="223"/>
     <m/>
     <n v="11045.379999999994"/>
-    <x v="7"/>
+    <x v="8"/>
     <s v="Open"/>
   </r>
   <r>
@@ -15317,7 +15328,7 @@
     <n v="108"/>
     <m/>
     <n v="15320.369999999995"/>
-    <x v="9"/>
+    <x v="10"/>
     <s v="Open"/>
   </r>
   <r>
@@ -15337,7 +15348,7 @@
     <m/>
     <n v="0.98"/>
     <n v="15351.349999999995"/>
-    <x v="17"/>
+    <x v="18"/>
     <m/>
   </r>
   <r>
@@ -15347,7 +15358,7 @@
     <n v="66"/>
     <m/>
     <n v="15285.349999999995"/>
-    <x v="18"/>
+    <x v="19"/>
     <s v="Open"/>
   </r>
   <r>
@@ -15357,17 +15368,67 @@
     <n v="165"/>
     <m/>
     <n v="15120.349999999995"/>
-    <x v="18"/>
+    <x v="19"/>
     <s v="Open"/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="19"/>
+    <d v="2024-09-20T00:00:00"/>
+    <s v="CR"/>
+    <s v="WHITEHOUSE F PBM 1FIONA WHITEHOUSE"/>
+    <m/>
+    <n v="90"/>
+    <n v="15210.349999999995"/>
+    <x v="5"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-21T00:00:00"/>
+    <s v="CHG"/>
+    <s v="TOTAL CHARGES TO 30AUG2024"/>
+    <n v="5"/>
+    <m/>
+    <n v="15205.349999999995"/>
+    <x v="20"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-23T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments AccMDD PID724802"/>
+    <m/>
+    <n v="116.57"/>
+    <n v="15321.919999999995"/>
+    <x v="21"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-23T00:00:00"/>
+    <m/>
+    <s v="SumUp payment split"/>
+    <m/>
+    <n v="1558.21"/>
+    <n v="16880.129999999994"/>
+    <x v="5"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-25T00:00:00"/>
+    <s v="TFR"/>
+    <s v="403535 41336827 INTERNET TRANSFER"/>
+    <n v="6000"/>
+    <m/>
+    <n v="10880.129999999994"/>
+    <x v="22"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="23"/>
     <m/>
   </r>
 </pivotCacheRecords>
@@ -15445,138 +15506,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE04C0F0-9A61-4F80-8276-3D04382D746D}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField numFmtId="15" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="21">
-        <item x="1"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="11"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="13"/>
-        <item x="19"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="12"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="14"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="21">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Expenditure" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A5C2633A-7AD5-4920-9B01-65373321B481}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E4:G8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
@@ -15641,10 +15570,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FE7C9AF-75EF-4873-8F1B-0F70A39EEC38}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A19:C24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="9">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE04C0F0-9A61-4F80-8276-3D04382D746D}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
     <pivotField numFmtId="15" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -15652,35 +15581,31 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="21">
+      <items count="25">
         <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="5"/>
         <item x="12"/>
-        <item x="4"/>
-        <item x="13"/>
-        <item x="8"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="11"/>
-        <item x="2"/>
         <item x="0"/>
         <item x="3"/>
         <item x="14"/>
+        <item x="23"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="13"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="15"/>
+        <item x="18"/>
         <item x="19"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
+        <item x="7"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -15689,7 +15614,34 @@
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="25">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
     <i>
       <x v="9"/>
     </i>
@@ -15697,10 +15649,43 @@
       <x v="10"/>
     </i>
     <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
       <x v="13"/>
     </i>
     <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
       <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
     </i>
     <i t="grand">
       <x/>
@@ -15717,9 +15702,6 @@
       <x v="1"/>
     </i>
   </colItems>
-  <pageFields count="1">
-    <pageField fld="7" item="1" hier="-1"/>
-  </pageFields>
   <dataFields count="2">
     <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
     <dataField name="Sum of Expenditure" fld="3" baseField="0" baseItem="0"/>
@@ -15736,7 +15718,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88CC6FF2-D2D5-4EC7-9086-AAE36B3B0E13}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
@@ -15829,6 +15811,101 @@
   </colItems>
   <pageFields count="1">
     <pageField fld="7" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Expenditure" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FE7C9AF-75EF-4873-8F1B-0F70A39EEC38}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A19:C24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField numFmtId="15" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="21">
+        <item x="1"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item x="13"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="14"/>
+        <item x="19"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="7" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="2">
     <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
@@ -17455,8 +17532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5956F534-76F9-4C2C-AE0C-5DBCF3D7B234}">
   <dimension ref="A1:I309"/>
   <sheetViews>
-    <sheetView topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="G309" sqref="G309"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I218" sqref="I218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -21773,6 +21850,9 @@
       <c r="G203" t="s">
         <v>7</v>
       </c>
+      <c r="I203" t="s">
+        <v>2215</v>
+      </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="31">
@@ -22125,7 +22205,7 @@
         <v>16195.59</v>
       </c>
       <c r="G218" t="s">
-        <v>7</v>
+        <v>2214</v>
       </c>
       <c r="I218" t="s">
         <v>866</v>
@@ -24253,7 +24333,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I308" xr:uid="{5956F534-76F9-4C2C-AE0C-5DBCF3D7B234}"/>
+  <autoFilter ref="A1:I309" xr:uid="{5956F534-76F9-4C2C-AE0C-5DBCF3D7B234}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -42535,7 +42615,7 @@
   <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -43229,7 +43309,7 @@
   <dimension ref="A1:AH14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -43307,11 +43387,11 @@
         <v>60</v>
       </c>
       <c r="D3" s="35">
-        <f t="shared" ref="D3:D6" si="0">C3*0.25</f>
+        <f t="shared" ref="D3:D7" si="0">C3*0.25</f>
         <v>15</v>
       </c>
       <c r="E3" s="35">
-        <f t="shared" ref="E3:E6" si="1">C3-D3</f>
+        <f t="shared" ref="E3:E7" si="1">C3-D3</f>
         <v>45</v>
       </c>
       <c r="F3"/>
@@ -43373,9 +43453,17 @@
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
+      <c r="C7" s="35">
+        <v>350</v>
+      </c>
+      <c r="D7" s="35">
+        <f t="shared" si="0"/>
+        <v>87.5</v>
+      </c>
+      <c r="E7" s="35">
+        <f t="shared" si="1"/>
+        <v>262.5</v>
+      </c>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
@@ -43445,10 +43533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0167813-1C3C-42CC-A5D8-7CCC1B587009}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -43598,6 +43686,11 @@
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>931</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>2214</v>
       </c>
     </row>
   </sheetData>
@@ -47967,7 +48060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A8BED0-6F25-4951-9707-565F124E30A4}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -48235,10 +48328,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEAEDB9-0FE6-48E6-8096-45942EADC73F}">
-  <dimension ref="A3:G24"/>
+  <dimension ref="A3:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -48473,7 +48566,8 @@
       <c r="A4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37">
         <v>495.98</v>
       </c>
       <c r="E4" s="33" t="s">
@@ -48490,9 +48584,10 @@
       <c r="A5" s="34" t="s">
         <v>813</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="37">
         <v>100.98</v>
       </c>
+      <c r="C5" s="37"/>
       <c r="E5" s="34" t="s">
         <v>870</v>
       </c>
@@ -48507,7 +48602,8 @@
       <c r="A6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37">
         <v>500</v>
       </c>
       <c r="E6" s="34" t="s">
@@ -48524,7 +48620,8 @@
       <c r="A7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37">
         <v>916.6</v>
       </c>
       <c r="E7" s="34" t="s">
@@ -48541,7 +48638,8 @@
       <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37">
         <v>343</v>
       </c>
       <c r="E8" s="34" t="s">
@@ -48558,15 +48656,17 @@
       <c r="A9" s="34" t="s">
         <v>809</v>
       </c>
-      <c r="B9">
-        <v>3802.67</v>
-      </c>
+      <c r="B9" s="37">
+        <v>5450.88</v>
+      </c>
+      <c r="C9" s="37"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>810</v>
       </c>
-      <c r="C10">
+      <c r="B10" s="37"/>
+      <c r="C10" s="37">
         <v>2632.5</v>
       </c>
     </row>
@@ -48574,23 +48674,26 @@
       <c r="A11" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="37">
         <v>7447.9500000000016</v>
       </c>
+      <c r="C11" s="37"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C12">
-        <v>1981.52</v>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37">
+        <v>481.52</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>811</v>
       </c>
-      <c r="C13">
+      <c r="B13" s="37"/>
+      <c r="C13" s="37">
         <v>450</v>
       </c>
     </row>
@@ -48598,20 +48701,24 @@
       <c r="A14" s="34" t="s">
         <v>575</v>
       </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="37">
         <v>10612.48</v>
       </c>
+      <c r="C15" s="37"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="C16">
+      <c r="B16" s="37"/>
+      <c r="C16" s="37">
         <v>773</v>
       </c>
     </row>
@@ -48619,7 +48726,8 @@
       <c r="A17" s="34" t="s">
         <v>865</v>
       </c>
-      <c r="C17">
+      <c r="B17" s="37"/>
+      <c r="C17" s="37">
         <v>1500</v>
       </c>
     </row>
@@ -48627,7 +48735,8 @@
       <c r="A18" s="34" t="s">
         <v>862</v>
       </c>
-      <c r="C18">
+      <c r="B18" s="37"/>
+      <c r="C18" s="37">
         <v>156.19999999999999</v>
       </c>
     </row>
@@ -48635,7 +48744,8 @@
       <c r="A19" s="34" t="s">
         <v>863</v>
       </c>
-      <c r="C19">
+      <c r="B19" s="37"/>
+      <c r="C19" s="37">
         <v>18.5</v>
       </c>
     </row>
@@ -48643,7 +48753,8 @@
       <c r="A20" s="34" t="s">
         <v>859</v>
       </c>
-      <c r="C20">
+      <c r="B20" s="37"/>
+      <c r="C20" s="37">
         <v>614.34</v>
       </c>
     </row>
@@ -48651,7 +48762,8 @@
       <c r="A21" s="34" t="s">
         <v>864</v>
       </c>
-      <c r="C21">
+      <c r="B21" s="37"/>
+      <c r="C21" s="37">
         <v>1261.68</v>
       </c>
     </row>
@@ -48659,27 +48771,65 @@
       <c r="A22" s="34" t="s">
         <v>930</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="37">
         <v>0.98</v>
       </c>
+      <c r="C22" s="37"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>812</v>
       </c>
-      <c r="C23">
+      <c r="B23" s="37"/>
+      <c r="C23" s="37">
         <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
+        <v>931</v>
+      </c>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B26" s="37">
+        <v>116.57</v>
+      </c>
+      <c r="C26" s="37"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
         <v>574</v>
       </c>
-      <c r="B24">
-        <v>21965.06</v>
-      </c>
-      <c r="C24">
-        <v>11874.320000000002</v>
+      <c r="B28" s="37">
+        <v>23729.84</v>
+      </c>
+      <c r="C28" s="37">
+        <v>17879.32</v>
       </c>
     </row>
   </sheetData>

--- a/2024/OAS 2024.xlsx
+++ b/2024/OAS 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnbar\Dropbox\OAS\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331BAC63-074D-4975-A306-EC879CB93DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86880FFB-0569-4D8C-BA13-69DD543AF1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="9" activeTab="10" xr2:uid="{E6A7689A-682B-425D-92A3-B87F804748A5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="7" activeTab="8" xr2:uid="{E6A7689A-682B-425D-92A3-B87F804748A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="8" r:id="rId1"/>
@@ -35,8 +35,8 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId15"/>
-    <pivotCache cacheId="1" r:id="rId16"/>
-    <pivotCache cacheId="2" r:id="rId17"/>
+    <pivotCache cacheId="7" r:id="rId16"/>
+    <pivotCache cacheId="11" r:id="rId17"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4793" uniqueCount="2231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4813" uniqueCount="2235">
   <si>
     <t>Subs</t>
   </si>
@@ -6673,9 +6673,6 @@
     <t>Stripe fees (including fees paid on refunds)</t>
   </si>
   <si>
-    <t>aa</t>
-  </si>
-  <si>
     <t>SumUp Payments AccMDD PID724802</t>
   </si>
   <si>
@@ -6749,6 +6746,21 @@
   </si>
   <si>
     <t>SumUp Payments AccMDD PID731586</t>
+  </si>
+  <si>
+    <t>Two sales?</t>
+  </si>
+  <si>
+    <t>SumUp Payments AccMDD PID736355</t>
+  </si>
+  <si>
+    <t>Martyn Burdon OAS prize</t>
+  </si>
+  <si>
+    <t>SumUp Payments AccMDD PID737882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prizewinner forgot to cash cheque </t>
   </si>
 </sst>
 </file>
@@ -6903,7 +6915,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -6948,6 +6960,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -7012,13 +7025,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45562.842416087966" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="316" xr:uid="{52AA0CD4-A3EB-4892-953B-4445B6BC29AB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45567.394030324074" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="320" xr:uid="{52AA0CD4-A3EB-4892-953B-4445B6BC29AB}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I502" sheet="Current account"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-01-01T00:00:00" maxDate="2024-09-28T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-01-01T00:00:00" maxDate="2024-10-02T00:00:00"/>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -7083,13 +7096,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45562.842449999996" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="316" xr:uid="{133830F7-3A79-4A2B-AFB2-D11D3864E8D7}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45567.394124768522" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="320" xr:uid="{133830F7-3A79-4A2B-AFB2-D11D3864E8D7}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H501" sheet="Current account"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-01-01T00:00:00" maxDate="2024-09-28T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-01-01T00:00:00" maxDate="2024-10-02T00:00:00"/>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -9051,7 +9064,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="316">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="320">
   <r>
     <d v="2024-01-01T00:00:00"/>
     <s v="CR"/>
@@ -12518,6 +12531,50 @@
     <m/>
   </r>
   <r>
+    <d v="2024-09-30T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="344.55"/>
+    <n v="10989.799999999992"/>
+    <x v="6"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-30T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments AccMDD PID736355"/>
+    <m/>
+    <n v="742.24"/>
+    <n v="11732.039999999992"/>
+    <x v="6"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <s v="BP"/>
+    <s v="Martyn Burdon OAS prize"/>
+    <n v="100"/>
+    <m/>
+    <n v="11632.039999999992"/>
+    <x v="7"/>
+    <x v="1"/>
+    <s v="Prizewinner forgot to cash cheque "/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments AccMDD PID737882"/>
+    <m/>
+    <n v="221.2"/>
+    <n v="11853.239999999993"/>
+    <x v="6"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
     <m/>
     <m/>
     <m/>
@@ -12532,7 +12589,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="316">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="320">
   <r>
     <d v="2024-01-01T00:00:00"/>
     <s v="CR"/>
@@ -15680,6 +15737,46 @@
     <m/>
     <n v="294.93"/>
     <n v="10645.249999999993"/>
+    <x v="6"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-30T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="344.55"/>
+    <n v="10989.799999999992"/>
+    <x v="6"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-30T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments AccMDD PID736355"/>
+    <m/>
+    <n v="742.24"/>
+    <n v="11732.039999999992"/>
+    <x v="6"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <s v="BP"/>
+    <s v="Martyn Burdon OAS prize"/>
+    <n v="100"/>
+    <m/>
+    <n v="11632.039999999992"/>
+    <x v="7"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments AccMDD PID737882"/>
+    <m/>
+    <n v="221.2"/>
+    <n v="11853.239999999993"/>
     <x v="6"/>
     <s v="Open"/>
   </r>
@@ -15768,7 +15865,72 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE04C0F0-9A61-4F80-8276-3D04382D746D}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A5C2633A-7AD5-4920-9B01-65373321B481}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E4:G8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField numFmtId="15" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Expenditure" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE04C0F0-9A61-4F80-8276-3D04382D746D}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="15" showAll="0"/>
@@ -15915,181 +16077,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A5C2633A-7AD5-4920-9B01-65373321B481}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E4:G8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField numFmtId="15" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Expenditure" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FE7C9AF-75EF-4873-8F1B-0F70A39EEC38}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A19:C27" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField numFmtId="15" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="25">
-        <item x="1"/>
-        <item x="14"/>
-        <item x="4"/>
-        <item x="15"/>
-        <item x="10"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="7"/>
-        <item x="12"/>
-        <item x="9"/>
-        <item x="11"/>
-        <item x="6"/>
-        <item x="13"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="16"/>
-        <item x="23"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="8"/>
-        <item x="21"/>
-        <item x="5"/>
-        <item x="22"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="7" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Expenditure" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88CC6FF2-D2D5-4EC7-9086-AAE36B3B0E13}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88CC6FF2-D2D5-4EC7-9086-AAE36B3B0E13}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="15" showAll="0"/>
@@ -16188,6 +16177,114 @@
   </colItems>
   <pageFields count="1">
     <pageField fld="7" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Expenditure" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FE7C9AF-75EF-4873-8F1B-0F70A39EEC38}" name="PivotTable5" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A19:C27" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField numFmtId="15" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="25">
+        <item x="1"/>
+        <item x="14"/>
+        <item x="4"/>
+        <item x="15"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="7"/>
+        <item x="12"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="6"/>
+        <item x="13"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="16"/>
+        <item x="23"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="8"/>
+        <item x="21"/>
+        <item x="5"/>
+        <item x="22"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="7" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="2">
     <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
@@ -16639,7 +16736,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="C5" s="19">
         <f>'Members Exhibition'!C14</f>
@@ -16651,7 +16748,7 @@
       </c>
       <c r="F5" s="19">
         <f>GETPIVOTDATA("Sum of Expenditure",Exhibitions!$A$3,"Category","Prizes")</f>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
@@ -16873,7 +16970,7 @@
       <c r="E11" s="19"/>
       <c r="F11" s="19">
         <f>SUM(F5:F10)</f>
-        <v>3925.3600000000006</v>
+        <v>4025.3600000000006</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -16883,7 +16980,7 @@
       <c r="J11" s="19"/>
       <c r="K11" s="19">
         <f>F33</f>
-        <v>1060.4399999999994</v>
+        <v>960.43999999999937</v>
       </c>
       <c r="L11" s="19"/>
       <c r="M11" s="19" t="s">
@@ -16945,7 +17042,7 @@
       </c>
       <c r="F13" s="19">
         <f>C15-F11</f>
-        <v>-617.88000000000056</v>
+        <v>-717.88000000000056</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
@@ -17024,7 +17121,7 @@
       <c r="J15" s="19"/>
       <c r="K15" s="19">
         <f>SUM(K4:K11)</f>
-        <v>1345.3299999999995</v>
+        <v>1245.3299999999995</v>
       </c>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
@@ -17084,7 +17181,7 @@
       <c r="N17" s="19"/>
       <c r="O17" s="19">
         <f>K15-O15</f>
-        <v>1345.3299999999995</v>
+        <v>1245.3299999999995</v>
       </c>
       <c r="P17" s="28"/>
       <c r="R17" s="5" t="s">
@@ -17146,14 +17243,14 @@
       <c r="J19" s="19"/>
       <c r="K19" s="22">
         <f>K15</f>
-        <v>1345.3299999999995</v>
+        <v>1245.3299999999995</v>
       </c>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
       <c r="O19" s="22">
         <f>K19</f>
-        <v>1345.3299999999995</v>
+        <v>1245.3299999999995</v>
       </c>
       <c r="R19" s="5" t="s">
         <v>10</v>
@@ -17164,7 +17261,7 @@
       </c>
       <c r="T19" s="28">
         <f>F5+F20</f>
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -17230,15 +17327,15 @@
       </c>
       <c r="T21" s="5">
         <f>SUM(T10:T19)</f>
-        <v>2247.0400000000009</v>
+        <v>2347.0400000000009</v>
       </c>
       <c r="U21" s="28">
         <f>O15+F11+F26</f>
-        <v>2247.0400000000009</v>
+        <v>2347.0400000000009</v>
       </c>
       <c r="V21" s="28">
         <f>S21-U21</f>
-        <v>-2247.0400000000009</v>
+        <v>-2347.0400000000009</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
@@ -17307,11 +17404,11 @@
       </c>
       <c r="T23" s="13">
         <f>SUM(T4:T6)-SUM(T10:T19)</f>
-        <v>1210.4399999999991</v>
+        <v>1110.4399999999991</v>
       </c>
       <c r="U23" s="13">
         <f>S23-T23</f>
-        <v>-1210.4399999999991</v>
+        <v>-1110.4399999999991</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
@@ -17522,7 +17619,7 @@
       <c r="E33" s="19"/>
       <c r="F33" s="24">
         <f>F28+F13</f>
-        <v>1060.4399999999994</v>
+        <v>960.43999999999937</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
@@ -17572,7 +17669,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -17605,15 +17702,17 @@
       <c r="A4" s="34" t="s">
         <v>812</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="40">
         <v>100</v>
       </c>
+      <c r="C4" s="40"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>864</v>
       </c>
-      <c r="C5">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40">
         <v>1500</v>
       </c>
     </row>
@@ -17621,15 +17720,17 @@
       <c r="A6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>500</v>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40">
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="C7">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40">
         <v>550</v>
       </c>
     </row>
@@ -17637,7 +17738,8 @@
       <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40">
         <v>175</v>
       </c>
     </row>
@@ -17645,15 +17747,17 @@
       <c r="A9" s="34" t="s">
         <v>808</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="40">
         <v>3623.6800000000003</v>
       </c>
+      <c r="C9" s="40"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>809</v>
       </c>
-      <c r="C10">
+      <c r="B10" s="40"/>
+      <c r="C10" s="40">
         <v>2632.5</v>
       </c>
     </row>
@@ -17661,15 +17765,17 @@
       <c r="A11" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="40">
         <v>2604.98</v>
       </c>
+      <c r="C11" s="40"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>863</v>
       </c>
-      <c r="C12">
+      <c r="B12" s="40"/>
+      <c r="C12" s="40">
         <v>1261.68</v>
       </c>
       <c r="I12">
@@ -17679,21 +17785,22 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>2208</v>
-      </c>
-      <c r="B13">
+        <v>2207</v>
+      </c>
+      <c r="B13" s="40">
         <v>178.99</v>
       </c>
+      <c r="C13" s="40"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>573</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="40">
         <v>6507.65</v>
       </c>
-      <c r="C14">
-        <v>6619.18</v>
+      <c r="C14" s="40">
+        <v>6719.18</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -17736,7 +17843,8 @@
       <c r="A20" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C20">
+      <c r="B20" s="40"/>
+      <c r="C20" s="40">
         <v>200</v>
       </c>
       <c r="E20" t="s">
@@ -17756,7 +17864,8 @@
       <c r="A21" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="C21">
+      <c r="B21" s="40"/>
+      <c r="C21" s="40">
         <v>223</v>
       </c>
       <c r="E21" t="s">
@@ -17767,16 +17876,14 @@
       </c>
       <c r="H21">
         <v>312</v>
-      </c>
-      <c r="I21" t="s">
-        <v>2205</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C22">
+      <c r="B22" s="40"/>
+      <c r="C22" s="40">
         <v>126</v>
       </c>
       <c r="E22" t="s">
@@ -17795,42 +17902,46 @@
       <c r="A23" s="34" t="s">
         <v>808</v>
       </c>
-      <c r="B23">
-        <v>2400.2799999999997</v>
-      </c>
+      <c r="B23" s="40">
+        <v>3708.27</v>
+      </c>
+      <c r="C23" s="40"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="40">
         <v>8007.4999999999991</v>
       </c>
+      <c r="C24" s="40"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
         <v>811</v>
       </c>
-      <c r="C25">
+      <c r="B25" s="40"/>
+      <c r="C25" s="40">
         <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
-        <v>2208</v>
-      </c>
-      <c r="B26">
+        <v>2207</v>
+      </c>
+      <c r="B26" s="40">
         <v>116.57</v>
       </c>
+      <c r="C26" s="40"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
         <v>573</v>
       </c>
-      <c r="B27">
-        <v>10524.349999999999</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="40">
+        <v>11832.339999999998</v>
+      </c>
+      <c r="C27" s="40">
         <v>780</v>
       </c>
     </row>
@@ -17841,10 +17952,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5956F534-76F9-4C2C-AE0C-5DBCF3D7B234}">
-  <dimension ref="A1:I316"/>
+  <dimension ref="A1:I320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
-      <selection activeCell="G306" sqref="G306"/>
+    <sheetView topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="I319" sqref="I319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -22162,7 +22273,7 @@
         <v>7</v>
       </c>
       <c r="I203" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -22300,7 +22411,7 @@
         <v>14806.09</v>
       </c>
       <c r="G209" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="H209" t="s">
         <v>869</v>
@@ -22314,7 +22425,7 @@
         <v>396</v>
       </c>
       <c r="C210" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="E210">
         <v>663.59</v>
@@ -22540,7 +22651,7 @@
         <v>16195.59</v>
       </c>
       <c r="G219" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="I219" t="s">
         <v>865</v>
@@ -23499,7 +23610,7 @@
         <v>18</v>
       </c>
       <c r="F261" s="32">
-        <f t="shared" ref="F261:F316" si="4">F260+E261-D261</f>
+        <f t="shared" ref="F261:F320" si="4">F260+E261-D261</f>
         <v>8348.1099999999951</v>
       </c>
       <c r="G261" t="s">
@@ -24609,7 +24720,7 @@
         <v>396</v>
       </c>
       <c r="C308" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="E308">
         <v>116.57</v>
@@ -24619,7 +24730,7 @@
         <v>15321.919999999995</v>
       </c>
       <c r="G308" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="H308" t="s">
         <v>870</v>
@@ -24630,7 +24741,7 @@
         <v>45558</v>
       </c>
       <c r="C309" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="E309">
         <v>1558.21</v>
@@ -24651,10 +24762,10 @@
         <v>45560</v>
       </c>
       <c r="B310" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C310" t="s">
         <v>2209</v>
-      </c>
-      <c r="C310" t="s">
-        <v>2210</v>
       </c>
       <c r="D310">
         <v>6000</v>
@@ -24675,7 +24786,7 @@
         <v>541</v>
       </c>
       <c r="C311" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="D311">
         <v>18</v>
@@ -24699,7 +24810,7 @@
         <v>541</v>
       </c>
       <c r="C312" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="D312">
         <v>118.95</v>
@@ -24720,7 +24831,7 @@
         <v>396</v>
       </c>
       <c r="C313" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="E313">
         <v>457.14</v>
@@ -24744,7 +24855,7 @@
         <v>541</v>
       </c>
       <c r="C314" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="D314">
         <v>650</v>
@@ -24781,7 +24892,7 @@
         <v>870</v>
       </c>
       <c r="I315" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -24792,7 +24903,7 @@
         <v>396</v>
       </c>
       <c r="C316" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="E316">
         <v>294.93</v>
@@ -24805,6 +24916,105 @@
         <v>808</v>
       </c>
       <c r="H316" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A317" s="31">
+        <v>45565</v>
+      </c>
+      <c r="B317" t="s">
+        <v>396</v>
+      </c>
+      <c r="C317" t="s">
+        <v>828</v>
+      </c>
+      <c r="E317">
+        <v>344.55</v>
+      </c>
+      <c r="F317" s="32">
+        <f t="shared" si="4"/>
+        <v>10989.799999999992</v>
+      </c>
+      <c r="G317" t="s">
+        <v>808</v>
+      </c>
+      <c r="H317" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A318" s="31">
+        <v>45565</v>
+      </c>
+      <c r="B318" t="s">
+        <v>396</v>
+      </c>
+      <c r="C318" t="s">
+        <v>2231</v>
+      </c>
+      <c r="E318">
+        <v>742.24</v>
+      </c>
+      <c r="F318" s="32">
+        <f t="shared" si="4"/>
+        <v>11732.039999999992</v>
+      </c>
+      <c r="G318" t="s">
+        <v>808</v>
+      </c>
+      <c r="H318" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A319" s="31">
+        <v>45566</v>
+      </c>
+      <c r="B319" t="s">
+        <v>541</v>
+      </c>
+      <c r="C319" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D319">
+        <v>100</v>
+      </c>
+      <c r="F319" s="32">
+        <f t="shared" si="4"/>
+        <v>11632.039999999992</v>
+      </c>
+      <c r="G319" t="s">
+        <v>10</v>
+      </c>
+      <c r="H319" t="s">
+        <v>869</v>
+      </c>
+      <c r="I319" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A320" s="31">
+        <v>45566</v>
+      </c>
+      <c r="B320" t="s">
+        <v>396</v>
+      </c>
+      <c r="C320" t="s">
+        <v>2233</v>
+      </c>
+      <c r="E320">
+        <v>221.2</v>
+      </c>
+      <c r="F320" s="32">
+        <f t="shared" si="4"/>
+        <v>11853.239999999993</v>
+      </c>
+      <c r="G320" t="s">
+        <v>808</v>
+      </c>
+      <c r="H320" t="s">
         <v>870</v>
       </c>
     </row>
@@ -24830,8 +25040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAEFBAE9-58F4-4427-A222-4B6D8D551056}">
   <dimension ref="A1:P696"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A469" workbookViewId="0">
+      <selection activeCell="A482" sqref="A482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -43785,7 +43995,7 @@
   <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="J10" sqref="J10:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -43822,10 +44032,10 @@
       </c>
       <c r="F1"/>
       <c r="G1" s="5" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="Y1"/>
       <c r="Z1"/>
@@ -43858,7 +44068,7 @@
         <v>4.2249999999999996</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="I2" s="38">
         <v>1.6899999999999998E-2</v>
@@ -43885,23 +44095,23 @@
         <v>60</v>
       </c>
       <c r="D3" s="35">
-        <f t="shared" ref="D3:D11" si="0">C3*0.25</f>
+        <f t="shared" ref="D3:D14" si="0">C3*0.25</f>
         <v>15</v>
       </c>
       <c r="E3" s="35">
-        <f t="shared" ref="E3:E11" si="1">C3-D3</f>
+        <f t="shared" ref="E3:E14" si="1">C3-D3</f>
         <v>45</v>
       </c>
       <c r="F3"/>
       <c r="G3" s="37">
-        <f t="shared" ref="G3:G11" si="2">0.0169*C3</f>
+        <f t="shared" ref="G3:G14" si="2">0.0169*C3</f>
         <v>1.0139999999999998</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="J3" s="37">
-        <f t="shared" ref="J3:J11" si="3">C3-G3</f>
+        <f t="shared" ref="J3:J14" si="3">C3-G3</f>
         <v>58.985999999999997</v>
       </c>
       <c r="AG3" s="2"/>
@@ -43927,7 +44137,7 @@
         <v>1.3519999999999999</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="J4" s="37">
         <f t="shared" si="3"/>
@@ -43955,7 +44165,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="J5" s="37">
         <f t="shared" si="3"/>
@@ -43983,7 +44193,7 @@
         <v>20.195499999999999</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="J6" s="37">
         <f t="shared" si="3"/>
@@ -44011,10 +44221,10 @@
         <v>5.45</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="J7" s="37">
         <f t="shared" si="3"/>
@@ -44041,11 +44251,14 @@
         <v>7.8584999999999994</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="J8" s="37">
         <f t="shared" si="3"/>
         <v>457.14150000000001</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>2230</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
@@ -44068,7 +44281,7 @@
         <v>5.0699999999999994</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="J9" s="37">
         <f t="shared" si="3"/>
@@ -44095,7 +44308,7 @@
         <v>7.3514999999999997</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="J10" s="37">
         <f t="shared" si="3"/>
@@ -44122,7 +44335,7 @@
         <v>2.1124999999999998</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="J11" s="37">
         <f t="shared" si="3"/>
@@ -44132,72 +44345,133 @@
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
+      <c r="C12" s="35">
+        <v>130</v>
+      </c>
+      <c r="D12" s="35">
+        <f t="shared" si="0"/>
+        <v>32.5</v>
+      </c>
+      <c r="E12" s="35">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
       <c r="F12"/>
+      <c r="G12" s="37">
+        <f t="shared" si="2"/>
+        <v>2.1969999999999996</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>2224</v>
+      </c>
+      <c r="J12" s="37">
+        <f t="shared" si="3"/>
+        <v>127.803</v>
+      </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
+      <c r="C13" s="35">
+        <v>65</v>
+      </c>
+      <c r="D13" s="35">
+        <f t="shared" si="0"/>
+        <v>16.25</v>
+      </c>
+      <c r="E13" s="35">
+        <f t="shared" si="1"/>
+        <v>48.75</v>
+      </c>
       <c r="F13"/>
+      <c r="G13" s="37">
+        <f t="shared" si="2"/>
+        <v>1.0984999999999998</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>2224</v>
+      </c>
+      <c r="J13" s="37">
+        <f t="shared" si="3"/>
+        <v>63.901499999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
+      <c r="C14" s="35">
+        <v>225</v>
+      </c>
+      <c r="D14" s="35">
+        <f t="shared" si="0"/>
+        <v>56.25</v>
+      </c>
+      <c r="E14" s="35">
+        <f t="shared" si="1"/>
+        <v>168.75</v>
+      </c>
       <c r="F14"/>
+      <c r="G14" s="37">
+        <f t="shared" si="2"/>
+        <v>3.8024999999999998</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>2224</v>
+      </c>
+      <c r="J14" s="37">
+        <f t="shared" si="3"/>
+        <v>221.19749999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="G15" s="37"/>
+      <c r="J15" s="37"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="C18" s="37">
         <f>SUM(C2:C17)</f>
-        <v>3350</v>
+        <v>3770</v>
       </c>
       <c r="D18" s="37">
         <f t="shared" ref="D18:E18" si="4">SUM(D2:D17)</f>
-        <v>837.5</v>
+        <v>942.5</v>
       </c>
       <c r="E18" s="37">
         <f t="shared" si="4"/>
-        <v>2512.5</v>
+        <v>2827.5</v>
       </c>
       <c r="G18" s="37">
         <f>SUM(G2:G17)</f>
-        <v>54.628999999999998</v>
+        <v>61.727000000000004</v>
       </c>
       <c r="J18" s="37">
         <f>SUM(J2:J17)</f>
-        <v>3295.3709999999992</v>
+        <v>3708.2729999999992</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="C19" s="5">
         <f>COUNT(C2:C17)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="J19" s="37">
         <f>E18</f>
-        <v>2512.5</v>
+        <v>2827.5</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J20" s="39">
         <f>J18-J19</f>
-        <v>782.87099999999919</v>
+        <v>880.77299999999923</v>
       </c>
     </row>
   </sheetData>
@@ -44276,7 +44550,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -44371,7 +44645,7 @@
     </row>
     <row r="28" spans="1:1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
   </sheetData>
@@ -48956,7 +49230,7 @@
         <v>825</v>
       </c>
       <c r="C11" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="E11">
         <v>27.26</v>
@@ -48974,10 +49248,10 @@
         <v>45560</v>
       </c>
       <c r="B12" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="C12" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="E12">
         <v>6000</v>
@@ -49011,7 +49285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEAEDB9-0FE6-48E6-8096-45942EADC73F}">
   <dimension ref="A3:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -49251,7 +49525,8 @@
       <c r="A4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40">
         <v>495.98</v>
       </c>
       <c r="E4" s="33" t="s">
@@ -49268,33 +49543,35 @@
       <c r="A5" s="34" t="s">
         <v>812</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="40">
         <v>100.98</v>
       </c>
+      <c r="C5" s="40"/>
       <c r="E5" s="34" t="s">
         <v>869</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="40">
         <v>6507.65</v>
       </c>
-      <c r="G5">
-        <v>6619.18</v>
+      <c r="G5" s="40">
+        <v>6719.18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>700</v>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40">
+        <v>800</v>
       </c>
       <c r="E6" s="34" t="s">
         <v>870</v>
       </c>
-      <c r="F6">
-        <v>10524.350000000002</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="40">
+        <v>11832.340000000002</v>
+      </c>
+      <c r="G6" s="40">
         <v>780</v>
       </c>
     </row>
@@ -49302,16 +49579,17 @@
       <c r="A7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40">
         <v>916.6</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>574</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="40">
         <v>7449.9100000000008</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="40">
         <v>11467.09</v>
       </c>
     </row>
@@ -49319,32 +49597,35 @@
       <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40">
         <v>361</v>
       </c>
       <c r="E8" s="34" t="s">
         <v>573</v>
       </c>
-      <c r="F8">
-        <v>24481.91</v>
-      </c>
-      <c r="G8">
-        <v>18866.27</v>
+      <c r="F8" s="40">
+        <v>25789.9</v>
+      </c>
+      <c r="G8" s="40">
+        <v>18966.27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>808</v>
       </c>
-      <c r="B9">
-        <v>6023.96</v>
-      </c>
+      <c r="B9" s="40">
+        <v>7331.95</v>
+      </c>
+      <c r="C9" s="40"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>809</v>
       </c>
-      <c r="C10">
+      <c r="B10" s="40"/>
+      <c r="C10" s="40">
         <v>2632.5</v>
       </c>
     </row>
@@ -49352,15 +49633,17 @@
       <c r="A11" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="40">
         <v>7447.9500000000016</v>
       </c>
+      <c r="C11" s="40"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C12">
+      <c r="B12" s="40"/>
+      <c r="C12" s="40">
         <v>481.52</v>
       </c>
     </row>
@@ -49368,7 +49651,8 @@
       <c r="A13" s="34" t="s">
         <v>810</v>
       </c>
-      <c r="C13">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40">
         <v>1100</v>
       </c>
     </row>
@@ -49376,20 +49660,24 @@
       <c r="A14" s="34" t="s">
         <v>574</v>
       </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="40">
         <v>10612.48</v>
       </c>
+      <c r="C15" s="40"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="C16">
+      <c r="B16" s="40"/>
+      <c r="C16" s="40">
         <v>773</v>
       </c>
     </row>
@@ -49397,7 +49685,8 @@
       <c r="A17" s="34" t="s">
         <v>864</v>
       </c>
-      <c r="C17">
+      <c r="B17" s="40"/>
+      <c r="C17" s="40">
         <v>1500</v>
       </c>
     </row>
@@ -49405,7 +49694,8 @@
       <c r="A18" s="34" t="s">
         <v>861</v>
       </c>
-      <c r="C18">
+      <c r="B18" s="40"/>
+      <c r="C18" s="40">
         <v>156.19999999999999</v>
       </c>
     </row>
@@ -49413,7 +49703,8 @@
       <c r="A19" s="34" t="s">
         <v>862</v>
       </c>
-      <c r="C19">
+      <c r="B19" s="40"/>
+      <c r="C19" s="40">
         <v>137.44999999999999</v>
       </c>
     </row>
@@ -49421,7 +49712,8 @@
       <c r="A20" s="34" t="s">
         <v>858</v>
       </c>
-      <c r="C20">
+      <c r="B20" s="40"/>
+      <c r="C20" s="40">
         <v>614.34</v>
       </c>
     </row>
@@ -49429,7 +49721,8 @@
       <c r="A21" s="34" t="s">
         <v>863</v>
       </c>
-      <c r="C21">
+      <c r="B21" s="40"/>
+      <c r="C21" s="40">
         <v>1261.68</v>
       </c>
     </row>
@@ -49437,23 +49730,26 @@
       <c r="A22" s="34" t="s">
         <v>929</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="40">
         <v>0.98</v>
       </c>
+      <c r="C22" s="40"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>811</v>
       </c>
-      <c r="C23">
+      <c r="B23" s="40"/>
+      <c r="C23" s="40">
         <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
-        <v>2213</v>
-      </c>
-      <c r="C24">
+        <v>2212</v>
+      </c>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40">
         <v>1500</v>
       </c>
     </row>
@@ -49461,23 +49757,26 @@
       <c r="A25" s="34" t="s">
         <v>930</v>
       </c>
-      <c r="C25">
+      <c r="B25" s="40"/>
+      <c r="C25" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
-        <v>2208</v>
-      </c>
-      <c r="B26">
+        <v>2207</v>
+      </c>
+      <c r="B26" s="40">
         <v>295.56</v>
       </c>
+      <c r="C26" s="40"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C27">
+      <c r="B27" s="40"/>
+      <c r="C27" s="40">
         <v>6000</v>
       </c>
     </row>
@@ -49485,11 +49784,11 @@
       <c r="A28" s="34" t="s">
         <v>573</v>
       </c>
-      <c r="B28">
-        <v>24481.910000000003</v>
-      </c>
-      <c r="C28">
-        <v>18866.270000000004</v>
+      <c r="B28" s="40">
+        <v>25789.9</v>
+      </c>
+      <c r="C28" s="40">
+        <v>18966.270000000004</v>
       </c>
     </row>
   </sheetData>

--- a/2024/OAS 2024.xlsx
+++ b/2024/OAS 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnbar\Dropbox\OAS\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86880FFB-0569-4D8C-BA13-69DD543AF1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8966A7-26FF-4D69-A0B5-D4123500F4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="7" activeTab="8" xr2:uid="{E6A7689A-682B-425D-92A3-B87F804748A5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" firstSheet="8" activeTab="8" xr2:uid="{E6A7689A-682B-425D-92A3-B87F804748A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="8" r:id="rId1"/>
@@ -29,10 +29,10 @@
     <sheet name="Open Exhibition" sheetId="6" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Current account'!$A$1:$I$313</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Current account'!$A$1:$I$323</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Stripe!$A$1:$P$481</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId15"/>
     <pivotCache cacheId="7" r:id="rId16"/>
@@ -49,6 +49,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4813" uniqueCount="2235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4900" uniqueCount="2254">
   <si>
     <t>Subs</t>
   </si>
@@ -6761,6 +6763,63 @@
   </si>
   <si>
     <t xml:space="preserve">Prizewinner forgot to cash cheque </t>
+  </si>
+  <si>
+    <t>SumUp Payments AccMDD PID741362</t>
+  </si>
+  <si>
+    <t>SumUp Payments AccMDD PID743225</t>
+  </si>
+  <si>
+    <t>SumUp Payments AccMDD PID748134</t>
+  </si>
+  <si>
+    <t>Vivian Shelton OAS</t>
+  </si>
+  <si>
+    <t>Mrs C E Hopton OAS</t>
+  </si>
+  <si>
+    <t>Miranda Miller OAS</t>
+  </si>
+  <si>
+    <t>Anna Kolos OAS</t>
+  </si>
+  <si>
+    <t>Peter Collins OAS</t>
+  </si>
+  <si>
+    <t>Melinda Kenneway OAS</t>
+  </si>
+  <si>
+    <t>Claire Drinkwater OAS</t>
+  </si>
+  <si>
+    <t>John Day OAS</t>
+  </si>
+  <si>
+    <t>Hannah Farncombe OAS</t>
+  </si>
+  <si>
+    <t>Harriet Calfo OAS</t>
+  </si>
+  <si>
+    <t>June Dent OAS</t>
+  </si>
+  <si>
+    <t>Gerry Coles PrintsOAS</t>
+  </si>
+  <si>
+    <t>Eirian Griffiths OAS</t>
+  </si>
+  <si>
+    <t>Rod Craig OAS</t>
+  </si>
+  <si>
+    <t>Tereza Horacek OAS</t>
+  </si>
+  <si>
+    <t>Lizzie Wheeler OAS</t>
   </si>
 </sst>
 </file>
@@ -7025,13 +7084,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45567.394030324074" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="320" xr:uid="{52AA0CD4-A3EB-4892-953B-4445B6BC29AB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45575.635887037039" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="340" xr:uid="{52AA0CD4-A3EB-4892-953B-4445B6BC29AB}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I502" sheet="Current account"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-01-01T00:00:00" maxDate="2024-10-02T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-01-01T00:00:00" maxDate="2024-10-11T00:00:00"/>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -7043,7 +7102,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5" maxValue="6000"/>
     </cacheField>
     <cacheField name="Income" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.98" maxValue="2097.8000000000002"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.98" maxValue="2949.3"/>
     </cacheField>
     <cacheField name="Balance" numFmtId="164">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5059.6099999999997" maxValue="17759.57"/>
@@ -7055,6 +7114,7 @@
         <s v="Submissions"/>
         <s v="Website"/>
         <s v="Donations cr"/>
+        <s v="Other income"/>
         <s v="Bar sales"/>
         <s v="Sales cr"/>
         <s v="Prizes"/>
@@ -7069,7 +7129,6 @@
         <s v="Venue hire"/>
         <s v="Gifts"/>
         <s v="Insurance"/>
-        <s v="Other income"/>
         <s v="Exhibitions db"/>
         <s v="Other expenses"/>
         <s v="Transfer Out"/>
@@ -7096,13 +7155,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45567.394124768522" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="320" xr:uid="{133830F7-3A79-4A2B-AFB2-D11D3864E8D7}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45575.635936921295" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="340" xr:uid="{133830F7-3A79-4A2B-AFB2-D11D3864E8D7}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H501" sheet="Current account"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-01-01T00:00:00" maxDate="2024-10-02T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-01-01T00:00:00" maxDate="2024-10-11T00:00:00"/>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -7114,7 +7173,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5" maxValue="6000"/>
     </cacheField>
     <cacheField name="Income" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.98" maxValue="2097.8000000000002"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.98" maxValue="2949.3"/>
     </cacheField>
     <cacheField name="Balance" numFmtId="164">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5059.6099999999997" maxValue="17759.57"/>
@@ -7126,6 +7185,7 @@
         <s v="Submissions"/>
         <s v="Website"/>
         <s v="Donations cr"/>
+        <s v="Other income"/>
         <s v="Bar sales"/>
         <s v="Sales cr"/>
         <s v="Prizes"/>
@@ -7140,7 +7200,6 @@
         <s v="Venue hire"/>
         <s v="Gifts"/>
         <s v="Insurance"/>
-        <s v="Other income"/>
         <s v="Exhibitions db"/>
         <s v="Other expenses"/>
         <s v="Transfer Out"/>
@@ -9064,7 +9123,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="320">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="340">
   <r>
     <d v="2024-01-01T00:00:00"/>
     <s v="CR"/>
@@ -11338,7 +11397,7 @@
     <m/>
     <n v="0.98"/>
     <n v="14627.1"/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="0"/>
     <m/>
   </r>
@@ -11349,7 +11408,7 @@
     <m/>
     <n v="178.99"/>
     <n v="14806.09"/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <m/>
   </r>
@@ -11360,7 +11419,7 @@
     <m/>
     <n v="663.59"/>
     <n v="15469.68"/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <m/>
   </r>
@@ -11371,7 +11430,7 @@
     <m/>
     <n v="324.42"/>
     <n v="15794.1"/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <m/>
   </r>
@@ -11382,7 +11441,7 @@
     <m/>
     <n v="344.4"/>
     <n v="16138.5"/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <m/>
   </r>
@@ -11393,7 +11452,7 @@
     <m/>
     <n v="580.02"/>
     <n v="16718.52"/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <m/>
   </r>
@@ -11404,7 +11463,7 @@
     <m/>
     <n v="663.59"/>
     <n v="17382.11"/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <m/>
   </r>
@@ -11415,7 +11474,7 @@
     <m/>
     <n v="304.76"/>
     <n v="17686.87"/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <m/>
   </r>
@@ -11426,7 +11485,7 @@
     <n v="100"/>
     <m/>
     <n v="17586.87"/>
-    <x v="7"/>
+    <x v="8"/>
     <x v="1"/>
     <m/>
   </r>
@@ -11437,7 +11496,7 @@
     <m/>
     <n v="172.7"/>
     <n v="17759.57"/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <m/>
   </r>
@@ -11459,7 +11518,7 @@
     <n v="1500"/>
     <m/>
     <n v="16195.59"/>
-    <x v="8"/>
+    <x v="9"/>
     <x v="0"/>
     <s v="Payment to web manager"/>
   </r>
@@ -11470,7 +11529,7 @@
     <n v="175"/>
     <m/>
     <n v="16020.59"/>
-    <x v="9"/>
+    <x v="10"/>
     <x v="1"/>
     <m/>
   </r>
@@ -11481,7 +11540,7 @@
     <n v="1500"/>
     <m/>
     <n v="14520.59"/>
-    <x v="10"/>
+    <x v="11"/>
     <x v="1"/>
     <m/>
   </r>
@@ -11492,7 +11551,7 @@
     <m/>
     <n v="570.20000000000005"/>
     <n v="15090.79"/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <m/>
   </r>
@@ -11503,7 +11562,7 @@
     <n v="100"/>
     <m/>
     <n v="14990.79"/>
-    <x v="7"/>
+    <x v="8"/>
     <x v="1"/>
     <m/>
   </r>
@@ -11514,7 +11573,7 @@
     <n v="175"/>
     <m/>
     <n v="14815.79"/>
-    <x v="11"/>
+    <x v="12"/>
     <x v="1"/>
     <s v="Painting sold twice!"/>
   </r>
@@ -11525,7 +11584,7 @@
     <n v="100"/>
     <m/>
     <n v="14715.79"/>
-    <x v="7"/>
+    <x v="8"/>
     <x v="1"/>
     <m/>
   </r>
@@ -11536,7 +11595,7 @@
     <n v="100"/>
     <m/>
     <n v="14615.79"/>
-    <x v="7"/>
+    <x v="8"/>
     <x v="1"/>
     <m/>
   </r>
@@ -11558,7 +11617,7 @@
     <n v="916.6"/>
     <m/>
     <n v="13694.19"/>
-    <x v="12"/>
+    <x v="13"/>
     <x v="0"/>
     <m/>
   </r>
@@ -11580,7 +11639,7 @@
     <n v="375"/>
     <m/>
     <n v="12929.19"/>
-    <x v="9"/>
+    <x v="10"/>
     <x v="1"/>
     <m/>
   </r>
@@ -11591,7 +11650,7 @@
     <n v="262.5"/>
     <m/>
     <n v="12666.69"/>
-    <x v="13"/>
+    <x v="14"/>
     <x v="1"/>
     <m/>
   </r>
@@ -11602,7 +11661,7 @@
     <n v="232.5"/>
     <m/>
     <n v="12434.19"/>
-    <x v="13"/>
+    <x v="14"/>
     <x v="1"/>
     <m/>
   </r>
@@ -11613,7 +11672,7 @@
     <n v="131.25"/>
     <m/>
     <n v="12302.94"/>
-    <x v="13"/>
+    <x v="14"/>
     <x v="1"/>
     <m/>
   </r>
@@ -11624,7 +11683,7 @@
     <n v="187.5"/>
     <m/>
     <n v="12115.44"/>
-    <x v="13"/>
+    <x v="14"/>
     <x v="1"/>
     <m/>
   </r>
@@ -11635,7 +11694,7 @@
     <n v="221.25"/>
     <m/>
     <n v="11894.19"/>
-    <x v="13"/>
+    <x v="14"/>
     <x v="1"/>
     <m/>
   </r>
@@ -11646,7 +11705,7 @@
     <n v="221.25"/>
     <m/>
     <n v="11672.94"/>
-    <x v="13"/>
+    <x v="14"/>
     <x v="1"/>
     <m/>
   </r>
@@ -11657,7 +11716,7 @@
     <n v="247.5"/>
     <m/>
     <n v="11425.44"/>
-    <x v="13"/>
+    <x v="14"/>
     <x v="1"/>
     <m/>
   </r>
@@ -11668,7 +11727,7 @@
     <n v="435"/>
     <m/>
     <n v="10990.44"/>
-    <x v="13"/>
+    <x v="14"/>
     <x v="1"/>
     <m/>
   </r>
@@ -11679,7 +11738,7 @@
     <n v="318.75"/>
     <m/>
     <n v="10671.69"/>
-    <x v="13"/>
+    <x v="14"/>
     <x v="1"/>
     <m/>
   </r>
@@ -11690,7 +11749,7 @@
     <n v="285"/>
     <m/>
     <n v="10386.69"/>
-    <x v="13"/>
+    <x v="14"/>
     <x v="1"/>
     <m/>
   </r>
@@ -11701,7 +11760,7 @@
     <n v="90"/>
     <m/>
     <n v="10296.69"/>
-    <x v="13"/>
+    <x v="14"/>
     <x v="1"/>
     <m/>
   </r>
@@ -11789,7 +11848,7 @@
     <n v="156.19999999999999"/>
     <m/>
     <n v="10337.239999999996"/>
-    <x v="14"/>
+    <x v="15"/>
     <x v="0"/>
     <s v="AGM drinks"/>
   </r>
@@ -11800,7 +11859,7 @@
     <n v="30"/>
     <m/>
     <n v="10307.239999999996"/>
-    <x v="11"/>
+    <x v="12"/>
     <x v="0"/>
     <m/>
   </r>
@@ -11811,7 +11870,7 @@
     <n v="30"/>
     <m/>
     <n v="10277.239999999996"/>
-    <x v="11"/>
+    <x v="12"/>
     <x v="0"/>
     <m/>
   </r>
@@ -11844,7 +11903,7 @@
     <n v="50"/>
     <m/>
     <n v="10049.739999999996"/>
-    <x v="15"/>
+    <x v="16"/>
     <x v="0"/>
     <m/>
   </r>
@@ -11855,7 +11914,7 @@
     <n v="400"/>
     <m/>
     <n v="9649.7399999999961"/>
-    <x v="15"/>
+    <x v="16"/>
     <x v="0"/>
     <m/>
   </r>
@@ -11877,7 +11936,7 @@
     <n v="100"/>
     <m/>
     <n v="9578.7899999999954"/>
-    <x v="7"/>
+    <x v="8"/>
     <x v="1"/>
     <m/>
   </r>
@@ -11899,7 +11958,7 @@
     <n v="1261.68"/>
     <m/>
     <n v="8312.1099999999951"/>
-    <x v="16"/>
+    <x v="17"/>
     <x v="1"/>
     <s v="Includes catering"/>
   </r>
@@ -12031,7 +12090,7 @@
     <n v="18.5"/>
     <m/>
     <n v="9078.7499999999945"/>
-    <x v="17"/>
+    <x v="18"/>
     <x v="0"/>
     <s v="Gift to John"/>
   </r>
@@ -12086,7 +12145,7 @@
     <n v="614.34"/>
     <m/>
     <n v="8837.389999999994"/>
-    <x v="18"/>
+    <x v="19"/>
     <x v="0"/>
     <m/>
   </r>
@@ -12229,7 +12288,7 @@
     <n v="223"/>
     <m/>
     <n v="11045.379999999994"/>
-    <x v="9"/>
+    <x v="10"/>
     <x v="2"/>
     <m/>
   </r>
@@ -12361,7 +12420,7 @@
     <n v="108"/>
     <m/>
     <n v="15320.369999999995"/>
-    <x v="11"/>
+    <x v="12"/>
     <x v="2"/>
     <m/>
   </r>
@@ -12383,7 +12442,7 @@
     <m/>
     <n v="0.98"/>
     <n v="15351.349999999995"/>
-    <x v="19"/>
+    <x v="5"/>
     <x v="0"/>
     <m/>
   </r>
@@ -12416,7 +12475,7 @@
     <m/>
     <n v="90"/>
     <n v="15210.349999999995"/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="2"/>
     <m/>
   </r>
@@ -12438,7 +12497,7 @@
     <m/>
     <n v="116.57"/>
     <n v="15321.919999999995"/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="2"/>
     <m/>
   </r>
@@ -12449,7 +12508,7 @@
     <m/>
     <n v="1558.21"/>
     <n v="16880.129999999994"/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="2"/>
     <m/>
   </r>
@@ -12471,7 +12530,7 @@
     <n v="18"/>
     <m/>
     <n v="10862.129999999994"/>
-    <x v="11"/>
+    <x v="12"/>
     <x v="2"/>
     <m/>
   </r>
@@ -12482,7 +12541,7 @@
     <n v="118.95"/>
     <m/>
     <n v="10743.179999999993"/>
-    <x v="17"/>
+    <x v="18"/>
     <x v="0"/>
     <m/>
   </r>
@@ -12493,7 +12552,7 @@
     <m/>
     <n v="457.14"/>
     <n v="11200.319999999992"/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="2"/>
     <m/>
   </r>
@@ -12504,7 +12563,7 @@
     <n v="650"/>
     <m/>
     <n v="10550.319999999992"/>
-    <x v="15"/>
+    <x v="16"/>
     <x v="0"/>
     <m/>
   </r>
@@ -12515,19 +12574,19 @@
     <n v="200"/>
     <m/>
     <n v="10350.319999999992"/>
+    <x v="8"/>
+    <x v="2"/>
+    <s v="Reimbursement "/>
+  </r>
+  <r>
+    <d v="2024-09-27T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments AccMDD PID731586"/>
+    <m/>
+    <n v="294.93"/>
+    <n v="10645.249999999993"/>
     <x v="7"/>
     <x v="2"/>
-    <s v="Reimbursement "/>
-  </r>
-  <r>
-    <d v="2024-09-27T00:00:00"/>
-    <s v="CR"/>
-    <s v="SumUp Payments AccMDD PID731586"/>
-    <m/>
-    <n v="294.93"/>
-    <n v="10645.249999999993"/>
-    <x v="6"/>
-    <x v="2"/>
     <m/>
   </r>
   <r>
@@ -12537,7 +12596,7 @@
     <m/>
     <n v="344.55"/>
     <n v="10989.799999999992"/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="2"/>
     <m/>
   </r>
@@ -12548,7 +12607,7 @@
     <m/>
     <n v="742.24"/>
     <n v="11732.039999999992"/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="2"/>
     <m/>
   </r>
@@ -12559,7 +12618,7 @@
     <n v="100"/>
     <m/>
     <n v="11632.039999999992"/>
-    <x v="7"/>
+    <x v="8"/>
     <x v="1"/>
     <s v="Prizewinner forgot to cash cheque "/>
   </r>
@@ -12570,8 +12629,228 @@
     <m/>
     <n v="221.2"/>
     <n v="11853.239999999993"/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-03T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments AccMDD PID741362"/>
+    <m/>
+    <n v="879.87"/>
+    <n v="12733.109999999993"/>
+    <x v="7"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-04T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments AccMDD PID743225"/>
+    <m/>
+    <n v="2949.3"/>
+    <n v="15682.409999999993"/>
+    <x v="7"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-07T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments AccMDD PID748134"/>
+    <m/>
+    <n v="1327.17"/>
+    <n v="17009.579999999994"/>
+    <x v="7"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-08T00:00:00"/>
+    <s v="BP"/>
+    <s v="Vivian Shelton OAS"/>
+    <n v="112.87"/>
+    <m/>
+    <n v="16896.709999999995"/>
+    <x v="20"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Mrs C E Hopton OAS"/>
+    <n v="45"/>
+    <m/>
+    <n v="16851.709999999995"/>
+    <x v="14"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Miranda Miller OAS"/>
+    <n v="60"/>
+    <m/>
+    <n v="16791.709999999995"/>
+    <x v="14"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Anna Kolos OAS"/>
+    <n v="262.5"/>
+    <m/>
+    <n v="16529.209999999995"/>
+    <x v="14"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Peter Collins OAS"/>
+    <n v="67.5"/>
+    <m/>
+    <n v="16461.709999999995"/>
+    <x v="14"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Melinda Kenneway OAS"/>
+    <n v="896.25"/>
+    <m/>
+    <n v="15565.459999999995"/>
+    <x v="14"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Claire Drinkwater OAS"/>
+    <n v="93.75"/>
+    <m/>
+    <n v="15471.709999999995"/>
+    <x v="14"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="John Day OAS"/>
+    <n v="108.75"/>
+    <m/>
+    <n v="15362.959999999995"/>
+    <x v="14"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Hannah Farncombe OAS"/>
+    <n v="168.75"/>
+    <m/>
+    <n v="15194.209999999995"/>
+    <x v="14"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Harriet Calfo OAS"/>
+    <n v="262.5"/>
+    <m/>
+    <n v="14931.709999999995"/>
+    <x v="14"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="June Dent OAS"/>
+    <n v="221.25"/>
+    <m/>
+    <n v="14710.459999999995"/>
+    <x v="14"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Gerry Coles PrintsOAS"/>
+    <n v="48.75"/>
+    <m/>
+    <n v="14661.709999999995"/>
+    <x v="14"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Eirian Griffiths OAS"/>
+    <n v="172.5"/>
+    <m/>
+    <n v="14489.209999999995"/>
+    <x v="14"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Rod Craig OAS"/>
+    <n v="671.25"/>
+    <m/>
+    <n v="13817.959999999995"/>
+    <x v="14"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-10T00:00:00"/>
+    <s v="BP"/>
+    <s v="Tereza Horacek OAS"/>
+    <n v="187.5"/>
+    <m/>
+    <n v="13630.459999999995"/>
+    <x v="14"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-10T00:00:00"/>
+    <s v="BP"/>
+    <s v="Lizzie Wheeler OAS"/>
+    <n v="240"/>
+    <m/>
+    <n v="13390.459999999995"/>
+    <x v="14"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-10T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="29.2"/>
+    <n v="13419.659999999996"/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
   </r>
   <r>
@@ -12589,7 +12868,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="320">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="340">
   <r>
     <d v="2024-01-01T00:00:00"/>
     <s v="CR"/>
@@ -14657,7 +14936,7 @@
     <m/>
     <n v="0.98"/>
     <n v="14627.1"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
   </r>
   <r>
@@ -14667,7 +14946,7 @@
     <m/>
     <n v="178.99"/>
     <n v="14806.09"/>
-    <x v="5"/>
+    <x v="6"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14677,7 +14956,7 @@
     <m/>
     <n v="663.59"/>
     <n v="15469.68"/>
-    <x v="6"/>
+    <x v="7"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14687,7 +14966,7 @@
     <m/>
     <n v="324.42"/>
     <n v="15794.1"/>
-    <x v="6"/>
+    <x v="7"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14697,7 +14976,7 @@
     <m/>
     <n v="344.4"/>
     <n v="16138.5"/>
-    <x v="6"/>
+    <x v="7"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14707,7 +14986,7 @@
     <m/>
     <n v="580.02"/>
     <n v="16718.52"/>
-    <x v="6"/>
+    <x v="7"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14717,7 +14996,7 @@
     <m/>
     <n v="663.59"/>
     <n v="17382.11"/>
-    <x v="6"/>
+    <x v="7"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14727,7 +15006,7 @@
     <m/>
     <n v="304.76"/>
     <n v="17686.87"/>
-    <x v="6"/>
+    <x v="7"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14737,7 +15016,7 @@
     <n v="100"/>
     <m/>
     <n v="17586.87"/>
-    <x v="7"/>
+    <x v="8"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14747,7 +15026,7 @@
     <m/>
     <n v="172.7"/>
     <n v="17759.57"/>
-    <x v="6"/>
+    <x v="7"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14767,7 +15046,7 @@
     <n v="1500"/>
     <m/>
     <n v="16195.59"/>
-    <x v="8"/>
+    <x v="9"/>
     <m/>
   </r>
   <r>
@@ -14777,7 +15056,7 @@
     <n v="175"/>
     <m/>
     <n v="16020.59"/>
-    <x v="9"/>
+    <x v="10"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14787,7 +15066,7 @@
     <n v="1500"/>
     <m/>
     <n v="14520.59"/>
-    <x v="10"/>
+    <x v="11"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14797,7 +15076,7 @@
     <m/>
     <n v="570.20000000000005"/>
     <n v="15090.79"/>
-    <x v="6"/>
+    <x v="7"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14807,7 +15086,7 @@
     <n v="100"/>
     <m/>
     <n v="14990.79"/>
-    <x v="7"/>
+    <x v="8"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14817,7 +15096,7 @@
     <n v="175"/>
     <m/>
     <n v="14815.79"/>
-    <x v="11"/>
+    <x v="12"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14827,7 +15106,7 @@
     <n v="100"/>
     <m/>
     <n v="14715.79"/>
-    <x v="7"/>
+    <x v="8"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14837,7 +15116,7 @@
     <n v="100"/>
     <m/>
     <n v="14615.79"/>
-    <x v="7"/>
+    <x v="8"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14857,7 +15136,7 @@
     <n v="916.6"/>
     <m/>
     <n v="13694.19"/>
-    <x v="12"/>
+    <x v="13"/>
     <m/>
   </r>
   <r>
@@ -14877,7 +15156,7 @@
     <n v="375"/>
     <m/>
     <n v="12929.19"/>
-    <x v="9"/>
+    <x v="10"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14887,7 +15166,7 @@
     <n v="262.5"/>
     <m/>
     <n v="12666.69"/>
-    <x v="13"/>
+    <x v="14"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14897,7 +15176,7 @@
     <n v="232.5"/>
     <m/>
     <n v="12434.19"/>
-    <x v="13"/>
+    <x v="14"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14907,7 +15186,7 @@
     <n v="131.25"/>
     <m/>
     <n v="12302.94"/>
-    <x v="13"/>
+    <x v="14"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14917,7 +15196,7 @@
     <n v="187.5"/>
     <m/>
     <n v="12115.44"/>
-    <x v="13"/>
+    <x v="14"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14927,7 +15206,7 @@
     <n v="221.25"/>
     <m/>
     <n v="11894.19"/>
-    <x v="13"/>
+    <x v="14"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14937,7 +15216,7 @@
     <n v="221.25"/>
     <m/>
     <n v="11672.94"/>
-    <x v="13"/>
+    <x v="14"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14947,7 +15226,7 @@
     <n v="247.5"/>
     <m/>
     <n v="11425.44"/>
-    <x v="13"/>
+    <x v="14"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14957,7 +15236,7 @@
     <n v="435"/>
     <m/>
     <n v="10990.44"/>
-    <x v="13"/>
+    <x v="14"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14967,7 +15246,7 @@
     <n v="318.75"/>
     <m/>
     <n v="10671.69"/>
-    <x v="13"/>
+    <x v="14"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14977,7 +15256,7 @@
     <n v="285"/>
     <m/>
     <n v="10386.69"/>
-    <x v="13"/>
+    <x v="14"/>
     <s v="Members"/>
   </r>
   <r>
@@ -14987,7 +15266,7 @@
     <n v="90"/>
     <m/>
     <n v="10296.69"/>
-    <x v="13"/>
+    <x v="14"/>
     <s v="Members"/>
   </r>
   <r>
@@ -15067,7 +15346,7 @@
     <n v="156.19999999999999"/>
     <m/>
     <n v="10337.239999999996"/>
-    <x v="14"/>
+    <x v="15"/>
     <m/>
   </r>
   <r>
@@ -15077,7 +15356,7 @@
     <n v="30"/>
     <m/>
     <n v="10307.239999999996"/>
-    <x v="11"/>
+    <x v="12"/>
     <m/>
   </r>
   <r>
@@ -15087,7 +15366,7 @@
     <n v="30"/>
     <m/>
     <n v="10277.239999999996"/>
-    <x v="11"/>
+    <x v="12"/>
     <m/>
   </r>
   <r>
@@ -15117,7 +15396,7 @@
     <n v="50"/>
     <m/>
     <n v="10049.739999999996"/>
-    <x v="15"/>
+    <x v="16"/>
     <m/>
   </r>
   <r>
@@ -15127,7 +15406,7 @@
     <n v="400"/>
     <m/>
     <n v="9649.7399999999961"/>
-    <x v="15"/>
+    <x v="16"/>
     <m/>
   </r>
   <r>
@@ -15147,7 +15426,7 @@
     <n v="100"/>
     <m/>
     <n v="9578.7899999999954"/>
-    <x v="7"/>
+    <x v="8"/>
     <s v="Members"/>
   </r>
   <r>
@@ -15167,7 +15446,7 @@
     <n v="1261.68"/>
     <m/>
     <n v="8312.1099999999951"/>
-    <x v="16"/>
+    <x v="17"/>
     <s v="Members"/>
   </r>
   <r>
@@ -15287,7 +15566,7 @@
     <n v="18.5"/>
     <m/>
     <n v="9078.7499999999945"/>
-    <x v="17"/>
+    <x v="18"/>
     <m/>
   </r>
   <r>
@@ -15337,7 +15616,7 @@
     <n v="614.34"/>
     <m/>
     <n v="8837.389999999994"/>
-    <x v="18"/>
+    <x v="19"/>
     <m/>
   </r>
   <r>
@@ -15467,7 +15746,7 @@
     <n v="223"/>
     <m/>
     <n v="11045.379999999994"/>
-    <x v="9"/>
+    <x v="10"/>
     <s v="Open"/>
   </r>
   <r>
@@ -15587,7 +15866,7 @@
     <n v="108"/>
     <m/>
     <n v="15320.369999999995"/>
-    <x v="11"/>
+    <x v="12"/>
     <s v="Open"/>
   </r>
   <r>
@@ -15607,7 +15886,7 @@
     <m/>
     <n v="0.98"/>
     <n v="15351.349999999995"/>
-    <x v="19"/>
+    <x v="5"/>
     <m/>
   </r>
   <r>
@@ -15637,7 +15916,7 @@
     <m/>
     <n v="90"/>
     <n v="15210.349999999995"/>
-    <x v="6"/>
+    <x v="7"/>
     <s v="Open"/>
   </r>
   <r>
@@ -15657,7 +15936,7 @@
     <m/>
     <n v="116.57"/>
     <n v="15321.919999999995"/>
-    <x v="5"/>
+    <x v="6"/>
     <s v="Open"/>
   </r>
   <r>
@@ -15667,7 +15946,7 @@
     <m/>
     <n v="1558.21"/>
     <n v="16880.129999999994"/>
-    <x v="6"/>
+    <x v="7"/>
     <s v="Open"/>
   </r>
   <r>
@@ -15687,7 +15966,7 @@
     <n v="18"/>
     <m/>
     <n v="10862.129999999994"/>
-    <x v="11"/>
+    <x v="12"/>
     <s v="Open"/>
   </r>
   <r>
@@ -15697,7 +15976,7 @@
     <n v="118.95"/>
     <m/>
     <n v="10743.179999999993"/>
-    <x v="17"/>
+    <x v="18"/>
     <m/>
   </r>
   <r>
@@ -15707,7 +15986,7 @@
     <m/>
     <n v="457.14"/>
     <n v="11200.319999999992"/>
-    <x v="6"/>
+    <x v="7"/>
     <s v="Open"/>
   </r>
   <r>
@@ -15717,7 +15996,7 @@
     <n v="650"/>
     <m/>
     <n v="10550.319999999992"/>
-    <x v="15"/>
+    <x v="16"/>
     <m/>
   </r>
   <r>
@@ -15727,27 +16006,27 @@
     <n v="200"/>
     <m/>
     <n v="10350.319999999992"/>
+    <x v="8"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-27T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments AccMDD PID731586"/>
+    <m/>
+    <n v="294.93"/>
+    <n v="10645.249999999993"/>
     <x v="7"/>
     <s v="Open"/>
   </r>
   <r>
-    <d v="2024-09-27T00:00:00"/>
-    <s v="CR"/>
-    <s v="SumUp Payments AccMDD PID731586"/>
-    <m/>
-    <n v="294.93"/>
-    <n v="10645.249999999993"/>
-    <x v="6"/>
-    <s v="Open"/>
-  </r>
-  <r>
     <d v="2024-09-30T00:00:00"/>
     <s v="CR"/>
     <s v="Stripe Payments UKSTRIPE"/>
     <m/>
     <n v="344.55"/>
     <n v="10989.799999999992"/>
-    <x v="6"/>
+    <x v="7"/>
     <s v="Open"/>
   </r>
   <r>
@@ -15757,7 +16036,7 @@
     <m/>
     <n v="742.24"/>
     <n v="11732.039999999992"/>
-    <x v="6"/>
+    <x v="7"/>
     <s v="Open"/>
   </r>
   <r>
@@ -15767,7 +16046,7 @@
     <n v="100"/>
     <m/>
     <n v="11632.039999999992"/>
-    <x v="7"/>
+    <x v="8"/>
     <s v="Members"/>
   </r>
   <r>
@@ -15777,8 +16056,208 @@
     <m/>
     <n v="221.2"/>
     <n v="11853.239999999993"/>
-    <x v="6"/>
+    <x v="7"/>
     <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-03T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments AccMDD PID741362"/>
+    <m/>
+    <n v="879.87"/>
+    <n v="12733.109999999993"/>
+    <x v="7"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-04T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments AccMDD PID743225"/>
+    <m/>
+    <n v="2949.3"/>
+    <n v="15682.409999999993"/>
+    <x v="7"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-07T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments AccMDD PID748134"/>
+    <m/>
+    <n v="1327.17"/>
+    <n v="17009.579999999994"/>
+    <x v="7"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-08T00:00:00"/>
+    <s v="BP"/>
+    <s v="Vivian Shelton OAS"/>
+    <n v="112.87"/>
+    <m/>
+    <n v="16896.709999999995"/>
+    <x v="20"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Mrs C E Hopton OAS"/>
+    <n v="45"/>
+    <m/>
+    <n v="16851.709999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Miranda Miller OAS"/>
+    <n v="60"/>
+    <m/>
+    <n v="16791.709999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Anna Kolos OAS"/>
+    <n v="262.5"/>
+    <m/>
+    <n v="16529.209999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Peter Collins OAS"/>
+    <n v="67.5"/>
+    <m/>
+    <n v="16461.709999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Melinda Kenneway OAS"/>
+    <n v="896.25"/>
+    <m/>
+    <n v="15565.459999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Claire Drinkwater OAS"/>
+    <n v="93.75"/>
+    <m/>
+    <n v="15471.709999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="John Day OAS"/>
+    <n v="108.75"/>
+    <m/>
+    <n v="15362.959999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Hannah Farncombe OAS"/>
+    <n v="168.75"/>
+    <m/>
+    <n v="15194.209999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Harriet Calfo OAS"/>
+    <n v="262.5"/>
+    <m/>
+    <n v="14931.709999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="June Dent OAS"/>
+    <n v="221.25"/>
+    <m/>
+    <n v="14710.459999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Gerry Coles PrintsOAS"/>
+    <n v="48.75"/>
+    <m/>
+    <n v="14661.709999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Eirian Griffiths OAS"/>
+    <n v="172.5"/>
+    <m/>
+    <n v="14489.209999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Rod Craig OAS"/>
+    <n v="671.25"/>
+    <m/>
+    <n v="13817.959999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-10T00:00:00"/>
+    <s v="BP"/>
+    <s v="Tereza Horacek OAS"/>
+    <n v="187.5"/>
+    <m/>
+    <n v="13630.459999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-10T00:00:00"/>
+    <s v="BP"/>
+    <s v="Lizzie Wheeler OAS"/>
+    <n v="240"/>
+    <m/>
+    <n v="13390.459999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-10T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="29.2"/>
+    <n v="13419.659999999996"/>
+    <x v="0"/>
+    <m/>
   </r>
   <r>
     <m/>
@@ -15865,71 +16344,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A5C2633A-7AD5-4920-9B01-65373321B481}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E4:G8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField numFmtId="15" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Expenditure" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE04C0F0-9A61-4F80-8276-3D04382D746D}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -15943,27 +16357,27 @@
       <items count="25">
         <item x="1"/>
         <item x="4"/>
+        <item x="8"/>
+        <item x="13"/>
+        <item x="12"/>
         <item x="7"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="6"/>
-        <item x="13"/>
+        <item x="14"/>
         <item x="0"/>
         <item x="3"/>
-        <item x="15"/>
+        <item x="16"/>
         <item x="23"/>
         <item x="2"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="17"/>
+        <item x="5"/>
+        <item x="20"/>
         <item x="9"/>
-        <item x="10"/>
-        <item x="14"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="8"/>
         <item x="21"/>
-        <item x="5"/>
+        <item x="6"/>
         <item x="22"/>
         <item t="default"/>
       </items>
@@ -16077,6 +16491,71 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A5C2633A-7AD5-4920-9B01-65373321B481}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E4:G8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField numFmtId="15" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Expenditure" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88CC6FF2-D2D5-4EC7-9086-AAE36B3B0E13}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
@@ -16090,28 +16569,28 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="25">
         <item x="1"/>
+        <item x="15"/>
+        <item x="4"/>
+        <item x="16"/>
+        <item x="11"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="8"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="7"/>
         <item x="14"/>
-        <item x="4"/>
-        <item x="15"/>
-        <item x="10"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="7"/>
-        <item x="12"/>
-        <item x="9"/>
-        <item x="11"/>
-        <item x="6"/>
-        <item x="13"/>
         <item x="2"/>
         <item x="0"/>
         <item x="3"/>
-        <item x="16"/>
+        <item x="17"/>
         <item x="23"/>
-        <item x="19"/>
+        <item x="5"/>
         <item x="20"/>
-        <item x="8"/>
+        <item x="9"/>
         <item x="21"/>
-        <item x="5"/>
+        <item x="6"/>
         <item x="22"/>
         <item t="default"/>
       </items>
@@ -16196,7 +16675,7 @@
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FE7C9AF-75EF-4873-8F1B-0F70A39EEC38}" name="PivotTable5" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A19:C27" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A19:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="15" showAll="0"/>
     <pivotField showAll="0"/>
@@ -16207,28 +16686,28 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="25">
         <item x="1"/>
+        <item x="15"/>
+        <item x="4"/>
+        <item x="16"/>
+        <item x="11"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="8"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="7"/>
         <item x="14"/>
-        <item x="4"/>
-        <item x="15"/>
-        <item x="10"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="7"/>
-        <item x="12"/>
-        <item x="9"/>
-        <item x="11"/>
-        <item x="6"/>
-        <item x="13"/>
         <item x="2"/>
         <item x="0"/>
         <item x="3"/>
-        <item x="16"/>
+        <item x="17"/>
         <item x="23"/>
-        <item x="19"/>
+        <item x="5"/>
         <item x="20"/>
-        <item x="8"/>
+        <item x="9"/>
         <item x="21"/>
-        <item x="5"/>
+        <item x="6"/>
         <item x="22"/>
         <item t="default"/>
       </items>
@@ -16246,7 +16725,7 @@
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="9">
     <i>
       <x v="7"/>
     </i>
@@ -16258,6 +16737,9 @@
     </i>
     <i>
       <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
     </i>
     <i>
       <x v="13"/>
@@ -16607,18 +17089,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="14.1796875" style="5" customWidth="1"/>
     <col min="3" max="4" width="8.1796875" style="5"/>
     <col min="5" max="5" width="16.54296875" style="5" customWidth="1"/>
     <col min="6" max="8" width="8.1796875" style="5"/>
     <col min="9" max="9" width="24.81640625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.36328125" style="5" customWidth="1"/>
     <col min="11" max="12" width="8.1796875" style="5"/>
-    <col min="13" max="13" width="22.453125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="22.36328125" style="5" customWidth="1"/>
     <col min="14" max="18" width="8.1796875" style="5"/>
     <col min="19" max="19" width="9.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.6328125" style="5" customWidth="1"/>
+    <col min="20" max="20" width="9.54296875" style="5" customWidth="1"/>
     <col min="21" max="16384" width="8.1796875" style="5"/>
   </cols>
   <sheetData>
@@ -17666,10 +18148,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FA1291-B9CE-4F7D-8600-2336ADED0E75}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -17903,46 +18385,55 @@
         <v>808</v>
       </c>
       <c r="B23" s="40">
-        <v>3708.27</v>
+        <v>8864.61</v>
       </c>
       <c r="C23" s="40"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="40">
-        <v>8007.4999999999991</v>
-      </c>
-      <c r="C24" s="40"/>
+        <v>809</v>
+      </c>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40">
+        <v>3506.25</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
-        <v>811</v>
-      </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40">
-        <v>231</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B25" s="40">
+        <v>8007.4999999999991</v>
+      </c>
+      <c r="C25" s="40"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
-        <v>2207</v>
-      </c>
-      <c r="B26" s="40">
-        <v>116.57</v>
-      </c>
-      <c r="C26" s="40"/>
+        <v>811</v>
+      </c>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40">
+        <v>343.87</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B27" s="40">
+        <v>116.57</v>
+      </c>
+      <c r="C27" s="40"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
         <v>573</v>
       </c>
-      <c r="B27" s="40">
-        <v>11832.339999999998</v>
-      </c>
-      <c r="C27" s="40">
-        <v>780</v>
+      <c r="B28" s="40">
+        <v>16988.68</v>
+      </c>
+      <c r="C28" s="40">
+        <v>4399.12</v>
       </c>
     </row>
   </sheetData>
@@ -17952,10 +18443,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5956F534-76F9-4C2C-AE0C-5DBCF3D7B234}">
-  <dimension ref="A1:I320"/>
+  <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="I319" sqref="I319"/>
+    <sheetView topLeftCell="A317" workbookViewId="0">
+      <selection activeCell="H340" sqref="H340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -22390,7 +22881,7 @@
         <v>14627.1</v>
       </c>
       <c r="G208" t="s">
-        <v>812</v>
+        <v>929</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -23610,7 +24101,7 @@
         <v>18</v>
       </c>
       <c r="F261" s="32">
-        <f t="shared" ref="F261:F320" si="4">F260+E261-D261</f>
+        <f t="shared" ref="F261:F325" si="4">F260+E261-D261</f>
         <v>8348.1099999999951</v>
       </c>
       <c r="G261" t="s">
@@ -25018,8 +25509,485 @@
         <v>870</v>
       </c>
     </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A321" s="31">
+        <v>45568</v>
+      </c>
+      <c r="B321" t="s">
+        <v>396</v>
+      </c>
+      <c r="C321" t="s">
+        <v>2235</v>
+      </c>
+      <c r="E321">
+        <v>879.87</v>
+      </c>
+      <c r="F321" s="32">
+        <f t="shared" si="4"/>
+        <v>12733.109999999993</v>
+      </c>
+      <c r="G321" t="s">
+        <v>808</v>
+      </c>
+      <c r="H321" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A322" s="31">
+        <v>45569</v>
+      </c>
+      <c r="B322" t="s">
+        <v>396</v>
+      </c>
+      <c r="C322" t="s">
+        <v>2236</v>
+      </c>
+      <c r="E322">
+        <v>2949.3</v>
+      </c>
+      <c r="F322" s="32">
+        <f t="shared" si="4"/>
+        <v>15682.409999999993</v>
+      </c>
+      <c r="G322" t="s">
+        <v>808</v>
+      </c>
+      <c r="H322" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A323" s="31">
+        <v>45572</v>
+      </c>
+      <c r="B323" t="s">
+        <v>396</v>
+      </c>
+      <c r="C323" t="s">
+        <v>2237</v>
+      </c>
+      <c r="E323">
+        <v>1327.17</v>
+      </c>
+      <c r="F323" s="32">
+        <f t="shared" si="4"/>
+        <v>17009.579999999994</v>
+      </c>
+      <c r="G323" t="s">
+        <v>808</v>
+      </c>
+      <c r="H323" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A324" s="31">
+        <v>45573</v>
+      </c>
+      <c r="B324" t="s">
+        <v>541</v>
+      </c>
+      <c r="C324" t="s">
+        <v>2238</v>
+      </c>
+      <c r="D324">
+        <v>112.87</v>
+      </c>
+      <c r="F324" s="32">
+        <f t="shared" si="4"/>
+        <v>16896.709999999995</v>
+      </c>
+      <c r="G324" t="s">
+        <v>811</v>
+      </c>
+      <c r="H324" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A325" s="31">
+        <v>45574</v>
+      </c>
+      <c r="B325" t="s">
+        <v>541</v>
+      </c>
+      <c r="C325" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D325">
+        <v>45</v>
+      </c>
+      <c r="F325" s="32">
+        <f t="shared" si="4"/>
+        <v>16851.709999999995</v>
+      </c>
+      <c r="G325" t="s">
+        <v>809</v>
+      </c>
+      <c r="H325" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A326" s="31">
+        <v>45574</v>
+      </c>
+      <c r="B326" t="s">
+        <v>541</v>
+      </c>
+      <c r="C326" t="s">
+        <v>2240</v>
+      </c>
+      <c r="D326">
+        <v>60</v>
+      </c>
+      <c r="F326" s="32">
+        <f t="shared" ref="F326:F340" si="5">F325+E326-D326</f>
+        <v>16791.709999999995</v>
+      </c>
+      <c r="G326" t="s">
+        <v>809</v>
+      </c>
+      <c r="H326" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A327" s="31">
+        <v>45574</v>
+      </c>
+      <c r="B327" t="s">
+        <v>541</v>
+      </c>
+      <c r="C327" t="s">
+        <v>2241</v>
+      </c>
+      <c r="D327">
+        <v>262.5</v>
+      </c>
+      <c r="F327" s="32">
+        <f t="shared" si="5"/>
+        <v>16529.209999999995</v>
+      </c>
+      <c r="G327" t="s">
+        <v>809</v>
+      </c>
+      <c r="H327" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A328" s="31">
+        <v>45574</v>
+      </c>
+      <c r="B328" t="s">
+        <v>541</v>
+      </c>
+      <c r="C328" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D328">
+        <v>67.5</v>
+      </c>
+      <c r="F328" s="32">
+        <f t="shared" si="5"/>
+        <v>16461.709999999995</v>
+      </c>
+      <c r="G328" t="s">
+        <v>809</v>
+      </c>
+      <c r="H328" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A329" s="31">
+        <v>45574</v>
+      </c>
+      <c r="B329" t="s">
+        <v>541</v>
+      </c>
+      <c r="C329" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D329">
+        <v>896.25</v>
+      </c>
+      <c r="F329" s="32">
+        <f t="shared" si="5"/>
+        <v>15565.459999999995</v>
+      </c>
+      <c r="G329" t="s">
+        <v>809</v>
+      </c>
+      <c r="H329" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A330" s="31">
+        <v>45574</v>
+      </c>
+      <c r="B330" t="s">
+        <v>541</v>
+      </c>
+      <c r="C330" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D330">
+        <v>93.75</v>
+      </c>
+      <c r="F330" s="32">
+        <f t="shared" si="5"/>
+        <v>15471.709999999995</v>
+      </c>
+      <c r="G330" t="s">
+        <v>809</v>
+      </c>
+      <c r="H330" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A331" s="31">
+        <v>45574</v>
+      </c>
+      <c r="B331" t="s">
+        <v>541</v>
+      </c>
+      <c r="C331" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D331">
+        <v>108.75</v>
+      </c>
+      <c r="F331" s="32">
+        <f t="shared" si="5"/>
+        <v>15362.959999999995</v>
+      </c>
+      <c r="G331" t="s">
+        <v>809</v>
+      </c>
+      <c r="H331" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A332" s="31">
+        <v>45574</v>
+      </c>
+      <c r="B332" t="s">
+        <v>541</v>
+      </c>
+      <c r="C332" t="s">
+        <v>2246</v>
+      </c>
+      <c r="D332">
+        <v>168.75</v>
+      </c>
+      <c r="F332" s="32">
+        <f t="shared" si="5"/>
+        <v>15194.209999999995</v>
+      </c>
+      <c r="G332" t="s">
+        <v>809</v>
+      </c>
+      <c r="H332" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A333" s="31">
+        <v>45574</v>
+      </c>
+      <c r="B333" t="s">
+        <v>541</v>
+      </c>
+      <c r="C333" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D333">
+        <v>262.5</v>
+      </c>
+      <c r="F333" s="32">
+        <f t="shared" si="5"/>
+        <v>14931.709999999995</v>
+      </c>
+      <c r="G333" t="s">
+        <v>809</v>
+      </c>
+      <c r="H333" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A334" s="31">
+        <v>45574</v>
+      </c>
+      <c r="B334" t="s">
+        <v>541</v>
+      </c>
+      <c r="C334" t="s">
+        <v>2248</v>
+      </c>
+      <c r="D334">
+        <v>221.25</v>
+      </c>
+      <c r="F334" s="32">
+        <f t="shared" si="5"/>
+        <v>14710.459999999995</v>
+      </c>
+      <c r="G334" t="s">
+        <v>809</v>
+      </c>
+      <c r="H334" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A335" s="31">
+        <v>45574</v>
+      </c>
+      <c r="B335" t="s">
+        <v>541</v>
+      </c>
+      <c r="C335" t="s">
+        <v>2249</v>
+      </c>
+      <c r="D335">
+        <v>48.75</v>
+      </c>
+      <c r="F335" s="32">
+        <f t="shared" si="5"/>
+        <v>14661.709999999995</v>
+      </c>
+      <c r="G335" t="s">
+        <v>809</v>
+      </c>
+      <c r="H335" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A336" s="31">
+        <v>45574</v>
+      </c>
+      <c r="B336" t="s">
+        <v>541</v>
+      </c>
+      <c r="C336" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D336">
+        <v>172.5</v>
+      </c>
+      <c r="F336" s="32">
+        <f t="shared" si="5"/>
+        <v>14489.209999999995</v>
+      </c>
+      <c r="G336" t="s">
+        <v>809</v>
+      </c>
+      <c r="H336" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A337" s="31">
+        <v>45574</v>
+      </c>
+      <c r="B337" t="s">
+        <v>541</v>
+      </c>
+      <c r="C337" t="s">
+        <v>2251</v>
+      </c>
+      <c r="D337">
+        <v>671.25</v>
+      </c>
+      <c r="F337" s="32">
+        <f t="shared" si="5"/>
+        <v>13817.959999999995</v>
+      </c>
+      <c r="G337" t="s">
+        <v>809</v>
+      </c>
+      <c r="H337" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A338" s="31">
+        <v>45575</v>
+      </c>
+      <c r="B338" t="s">
+        <v>541</v>
+      </c>
+      <c r="C338" t="s">
+        <v>2252</v>
+      </c>
+      <c r="D338">
+        <v>187.5</v>
+      </c>
+      <c r="F338" s="32">
+        <f t="shared" si="5"/>
+        <v>13630.459999999995</v>
+      </c>
+      <c r="G338" t="s">
+        <v>809</v>
+      </c>
+      <c r="H338" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A339" s="31">
+        <v>45575</v>
+      </c>
+      <c r="B339" t="s">
+        <v>541</v>
+      </c>
+      <c r="C339" t="s">
+        <v>2253</v>
+      </c>
+      <c r="D339">
+        <v>240</v>
+      </c>
+      <c r="F339" s="32">
+        <f t="shared" si="5"/>
+        <v>13390.459999999995</v>
+      </c>
+      <c r="G339" t="s">
+        <v>809</v>
+      </c>
+      <c r="H339" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A340" s="31">
+        <v>45575</v>
+      </c>
+      <c r="B340" t="s">
+        <v>396</v>
+      </c>
+      <c r="C340" t="s">
+        <v>828</v>
+      </c>
+      <c r="E340">
+        <v>29.2</v>
+      </c>
+      <c r="F340" s="32">
+        <f t="shared" si="5"/>
+        <v>13419.659999999996</v>
+      </c>
+      <c r="G340" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I313" xr:uid="{5956F534-76F9-4C2C-AE0C-5DBCF3D7B234}"/>
+  <autoFilter ref="A1:I323" xr:uid="{5956F534-76F9-4C2C-AE0C-5DBCF3D7B234}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -43307,22 +44275,22 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.1796875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="5"/>
-    <col min="7" max="7" width="10.453125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" style="5" customWidth="1"/>
     <col min="8" max="8" width="2.7265625" style="5" customWidth="1"/>
     <col min="9" max="9" width="9" style="5"/>
-    <col min="10" max="10" width="17.453125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="17.36328125" style="5" customWidth="1"/>
     <col min="11" max="11" width="35.1796875" style="5" customWidth="1"/>
     <col min="12" max="12" width="9" style="5" customWidth="1"/>
     <col min="13" max="13" width="22" style="5" customWidth="1"/>
     <col min="14" max="14" width="7.453125" style="5" customWidth="1"/>
     <col min="15" max="15" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.81640625" style="5" customWidth="1"/>
-    <col min="18" max="18" width="10.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -43992,25 +44960,25 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB58F2B2-604E-41D7-8D60-AEC068EC3CDA}">
-  <dimension ref="A1:AH20"/>
+  <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:J13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.81640625" style="5" customWidth="1"/>
     <col min="6" max="7" width="9" style="5"/>
-    <col min="8" max="8" width="6.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" style="5" customWidth="1"/>
     <col min="10" max="10" width="13.90625" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="26" width="9" style="5"/>
     <col min="27" max="27" width="25.1796875" style="5" customWidth="1"/>
-    <col min="28" max="28" width="32.81640625" style="5" customWidth="1"/>
+    <col min="28" max="28" width="32.7265625" style="5" customWidth="1"/>
     <col min="29" max="29" width="9" style="9"/>
     <col min="30" max="30" width="9" style="5"/>
     <col min="31" max="32" width="15.54296875" style="5" customWidth="1"/>
@@ -44095,23 +45063,23 @@
         <v>60</v>
       </c>
       <c r="D3" s="35">
-        <f t="shared" ref="D3:D14" si="0">C3*0.25</f>
+        <f t="shared" ref="D3:D21" si="0">C3*0.25</f>
         <v>15</v>
       </c>
       <c r="E3" s="35">
-        <f t="shared" ref="E3:E14" si="1">C3-D3</f>
+        <f t="shared" ref="E3:E21" si="1">C3-D3</f>
         <v>45</v>
       </c>
       <c r="F3"/>
       <c r="G3" s="37">
-        <f t="shared" ref="G3:G14" si="2">0.0169*C3</f>
+        <f t="shared" ref="G3:G21" si="2">0.0169*C3</f>
         <v>1.0139999999999998</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>2224</v>
       </c>
       <c r="J3" s="37">
-        <f t="shared" ref="J3:J14" si="3">C3-G3</f>
+        <f t="shared" ref="J3:J21" si="3">C3-G3</f>
         <v>58.985999999999997</v>
       </c>
       <c r="AG3" s="2"/>
@@ -44424,59 +45392,230 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="G15" s="37"/>
-      <c r="J15" s="37"/>
+      <c r="C15" s="35">
+        <v>895</v>
+      </c>
+      <c r="D15" s="35">
+        <f t="shared" si="0"/>
+        <v>223.75</v>
+      </c>
+      <c r="E15" s="35">
+        <f t="shared" si="1"/>
+        <v>671.25</v>
+      </c>
+      <c r="G15" s="37">
+        <f t="shared" si="2"/>
+        <v>15.125499999999999</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>2224</v>
+      </c>
+      <c r="J15" s="37">
+        <f t="shared" si="3"/>
+        <v>879.87450000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C16" s="35">
+        <v>3000</v>
+      </c>
+      <c r="D16" s="35">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="E16" s="35">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="G16" s="37">
+        <f t="shared" si="2"/>
+        <v>50.699999999999996</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>2224</v>
+      </c>
+      <c r="J16" s="37">
+        <f t="shared" si="3"/>
+        <v>2949.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="35">
+        <v>295</v>
+      </c>
+      <c r="D17" s="35">
+        <f t="shared" si="0"/>
+        <v>73.75</v>
+      </c>
+      <c r="E17" s="35">
+        <f t="shared" si="1"/>
+        <v>221.25</v>
+      </c>
+      <c r="G17" s="37">
+        <f t="shared" si="2"/>
+        <v>4.9854999999999992</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>2224</v>
+      </c>
+      <c r="J17" s="37">
+        <f t="shared" si="3"/>
+        <v>290.0145</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="C18" s="35">
+        <v>350</v>
+      </c>
+      <c r="D18" s="35">
+        <f t="shared" si="0"/>
+        <v>87.5</v>
+      </c>
+      <c r="E18" s="35">
+        <f t="shared" si="1"/>
+        <v>262.5</v>
+      </c>
+      <c r="G18" s="37">
+        <f t="shared" si="2"/>
+        <v>5.9149999999999991</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>2224</v>
+      </c>
+      <c r="J18" s="37">
+        <f t="shared" si="3"/>
+        <v>344.08499999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="35">
+        <v>230</v>
+      </c>
+      <c r="D19" s="35">
+        <f t="shared" si="0"/>
+        <v>57.5</v>
+      </c>
+      <c r="E19" s="35">
+        <f t="shared" si="1"/>
+        <v>172.5</v>
+      </c>
+      <c r="G19" s="37">
+        <f t="shared" si="2"/>
+        <v>3.8869999999999996</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>2224</v>
+      </c>
+      <c r="J19" s="37">
+        <f t="shared" si="3"/>
+        <v>226.113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="35">
+        <v>200</v>
+      </c>
+      <c r="D20" s="35">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E20" s="35">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="G20" s="37">
+        <f t="shared" si="2"/>
+        <v>3.38</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>2224</v>
+      </c>
+      <c r="J20" s="37">
+        <f t="shared" si="3"/>
+        <v>196.62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="35">
+        <v>275</v>
+      </c>
+      <c r="D21" s="35">
+        <f t="shared" si="0"/>
+        <v>68.75</v>
+      </c>
+      <c r="E21" s="35">
+        <f t="shared" si="1"/>
+        <v>206.25</v>
+      </c>
+      <c r="G21" s="37">
+        <f t="shared" si="2"/>
+        <v>4.6475</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>2224</v>
+      </c>
+      <c r="J21" s="37">
+        <f t="shared" si="3"/>
+        <v>270.35250000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="G22" s="37"/>
+      <c r="J22" s="37"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>2220</v>
       </c>
-      <c r="C18" s="37">
-        <f>SUM(C2:C17)</f>
-        <v>3770</v>
-      </c>
-      <c r="D18" s="37">
-        <f t="shared" ref="D18:E18" si="4">SUM(D2:D17)</f>
-        <v>942.5</v>
-      </c>
-      <c r="E18" s="37">
+      <c r="C23" s="37">
+        <f>SUM(C2:C21)</f>
+        <v>9015</v>
+      </c>
+      <c r="D23" s="37">
+        <f t="shared" ref="D23:E23" si="4">SUM(D2:D21)</f>
+        <v>2253.75</v>
+      </c>
+      <c r="E23" s="37">
         <f t="shared" si="4"/>
-        <v>2827.5</v>
-      </c>
-      <c r="G18" s="37">
-        <f>SUM(G2:G17)</f>
-        <v>61.727000000000004</v>
-      </c>
-      <c r="J18" s="37">
-        <f>SUM(J2:J17)</f>
-        <v>3708.2729999999992</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+        <v>6761.25</v>
+      </c>
+      <c r="G23" s="37">
+        <f>SUM(G2:G21)</f>
+        <v>150.36750000000001</v>
+      </c>
+      <c r="J23" s="37">
+        <f>SUM(J2:J21)</f>
+        <v>8864.6325000000015</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>2221</v>
       </c>
-      <c r="C19" s="5">
-        <f>COUNT(C2:C17)</f>
-        <v>13</v>
-      </c>
-      <c r="I19" s="5" t="s">
+      <c r="C24" s="5">
+        <f>COUNT(C2:C21)+1</f>
+        <v>21</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>2228</v>
       </c>
-      <c r="J19" s="37">
-        <f>E18</f>
-        <v>2827.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J20" s="39">
-        <f>J18-J19</f>
-        <v>880.77299999999923</v>
+      <c r="J24" s="37">
+        <f>E23</f>
+        <v>6761.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J25" s="39">
+        <f>J23-J24</f>
+        <v>2103.3825000000015</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:X274">
-    <sortCondition ref="E3:E274"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:X279">
+    <sortCondition ref="E3:E279"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -44667,10 +45806,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1"/>
+    <col min="1" max="1" width="11.36328125" customWidth="1"/>
     <col min="2" max="2" width="18.6328125" customWidth="1"/>
     <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="20" width="12.7265625" style="2" customWidth="1"/>
+    <col min="4" max="20" width="12.6328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
@@ -45866,11 +47005,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="5" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" style="5" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="16.7265625" style="5" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" style="5" customWidth="1"/>
     <col min="4" max="5" width="8.1796875" style="5"/>
-    <col min="6" max="6" width="11" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" style="5" customWidth="1"/>
     <col min="7" max="7" width="8.1796875" style="5"/>
     <col min="8" max="8" width="10.6328125" style="5" customWidth="1"/>
     <col min="9" max="9" width="9.1796875" style="5" bestFit="1" customWidth="1"/>
@@ -46041,14 +47180,14 @@
     <col min="1" max="2" width="9" style="5"/>
     <col min="3" max="3" width="15.26953125" style="5" customWidth="1"/>
     <col min="4" max="14" width="9" style="5"/>
-    <col min="15" max="16" width="18.81640625" style="5" customWidth="1"/>
+    <col min="15" max="16" width="18.90625" style="5" customWidth="1"/>
     <col min="17" max="19" width="9" style="5"/>
     <col min="20" max="21" width="32.1796875" style="5" customWidth="1"/>
     <col min="22" max="22" width="18.453125" style="5" customWidth="1"/>
     <col min="23" max="23" width="9" style="5"/>
-    <col min="24" max="24" width="11" style="5" customWidth="1"/>
+    <col min="24" max="24" width="11.08984375" style="5" customWidth="1"/>
     <col min="25" max="25" width="9" style="5"/>
-    <col min="26" max="26" width="10.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14.453125" style="5" customWidth="1"/>
     <col min="28" max="16384" width="9" style="5"/>
   </cols>
@@ -48939,7 +50078,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
@@ -49016,7 +50155,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -49286,7 +50425,7 @@
   <dimension ref="A3:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -49294,11 +50433,11 @@
     <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="18" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="18" width="23.6328125" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.36328125" bestFit="1" customWidth="1"/>
@@ -49309,7 +50448,7 @@
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.6328125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="15" bestFit="1" customWidth="1"/>
@@ -49319,11 +50458,11 @@
     <col min="37" max="37" width="15" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="20" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="6.90625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="45" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="6.90625" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="6.90625" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
@@ -49403,7 +50542,7 @@
     <col min="126" max="126" width="15" bestFit="1" customWidth="1"/>
     <col min="127" max="127" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="128" max="128" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="130" max="130" width="15" bestFit="1" customWidth="1"/>
     <col min="131" max="131" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="132" max="132" width="21.26953125" bestFit="1" customWidth="1"/>
@@ -49439,7 +50578,7 @@
     <col min="162" max="162" width="15" bestFit="1" customWidth="1"/>
     <col min="163" max="163" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="164" max="164" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="166" max="166" width="15" bestFit="1" customWidth="1"/>
     <col min="167" max="167" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="168" max="168" width="21.26953125" bestFit="1" customWidth="1"/>
@@ -49455,7 +50594,7 @@
     <col min="178" max="178" width="15" bestFit="1" customWidth="1"/>
     <col min="179" max="179" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="180" max="180" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="182" max="182" width="15" bestFit="1" customWidth="1"/>
     <col min="183" max="183" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="184" max="184" width="21.26953125" bestFit="1" customWidth="1"/>
@@ -49504,9 +50643,8 @@
     <col min="227" max="227" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="228" max="228" width="15" bestFit="1" customWidth="1"/>
     <col min="229" max="229" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="20" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="231" max="232" width="20" bestFit="1" customWidth="1"/>
     <col min="233" max="233" width="18.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -49544,7 +50682,7 @@
         <v>812</v>
       </c>
       <c r="B5" s="40">
-        <v>100.98</v>
+        <v>100</v>
       </c>
       <c r="C5" s="40"/>
       <c r="E5" s="34" t="s">
@@ -49569,10 +50707,10 @@
         <v>870</v>
       </c>
       <c r="F6" s="40">
-        <v>11832.340000000002</v>
+        <v>16988.68</v>
       </c>
       <c r="G6" s="40">
-        <v>780</v>
+        <v>4399.12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -49587,7 +50725,7 @@
         <v>574</v>
       </c>
       <c r="F7" s="40">
-        <v>7449.9100000000008</v>
+        <v>7479.1100000000006</v>
       </c>
       <c r="G7" s="40">
         <v>11467.09</v>
@@ -49605,10 +50743,10 @@
         <v>573</v>
       </c>
       <c r="F8" s="40">
-        <v>25789.9</v>
+        <v>30975.440000000002</v>
       </c>
       <c r="G8" s="40">
-        <v>18966.27</v>
+        <v>22585.39</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -49616,7 +50754,7 @@
         <v>808</v>
       </c>
       <c r="B9" s="40">
-        <v>7331.95</v>
+        <v>12488.289999999999</v>
       </c>
       <c r="C9" s="40"/>
     </row>
@@ -49626,7 +50764,7 @@
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="40">
-        <v>2632.5</v>
+        <v>6138.75</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -49634,7 +50772,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="40">
-        <v>7447.9500000000016</v>
+        <v>7477.1500000000015</v>
       </c>
       <c r="C11" s="40"/>
     </row>
@@ -49731,7 +50869,7 @@
         <v>929</v>
       </c>
       <c r="B22" s="40">
-        <v>0.98</v>
+        <v>1.96</v>
       </c>
       <c r="C22" s="40"/>
     </row>
@@ -49741,7 +50879,7 @@
       </c>
       <c r="B23" s="40"/>
       <c r="C23" s="40">
-        <v>231</v>
+        <v>343.87</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -49785,10 +50923,10 @@
         <v>573</v>
       </c>
       <c r="B28" s="40">
-        <v>25789.9</v>
+        <v>30975.440000000002</v>
       </c>
       <c r="C28" s="40">
-        <v>18966.270000000004</v>
+        <v>22585.390000000003</v>
       </c>
     </row>
   </sheetData>

--- a/2024/OAS 2024.xlsx
+++ b/2024/OAS 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnbar\Dropbox\OAS\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8966A7-26FF-4D69-A0B5-D4123500F4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F955EEC-36C2-4CA3-A8F7-E578EBF9102B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" firstSheet="8" activeTab="8" xr2:uid="{E6A7689A-682B-425D-92A3-B87F804748A5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" firstSheet="8" activeTab="9" xr2:uid="{E6A7689A-682B-425D-92A3-B87F804748A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="8" r:id="rId1"/>
@@ -35,8 +35,8 @@
   <calcPr calcId="191028"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId15"/>
-    <pivotCache cacheId="7" r:id="rId16"/>
-    <pivotCache cacheId="11" r:id="rId17"/>
+    <pivotCache cacheId="2" r:id="rId16"/>
+    <pivotCache cacheId="7" r:id="rId17"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4900" uniqueCount="2254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4933" uniqueCount="2263">
   <si>
     <t>Subs</t>
   </si>
@@ -6820,6 +6820,33 @@
   </si>
   <si>
     <t>Lizzie Wheeler OAS</t>
+  </si>
+  <si>
+    <t>Louise Cropper OAS</t>
+  </si>
+  <si>
+    <t>David Roberts OAS</t>
+  </si>
+  <si>
+    <t>Pauline Webber OAS</t>
+  </si>
+  <si>
+    <t>Boult Wade Tennant1285894</t>
+  </si>
+  <si>
+    <t>Jess Williams OAS</t>
+  </si>
+  <si>
+    <t>Roberta Catizone OAS</t>
+  </si>
+  <si>
+    <t>TOTAL CHARGES TO 29SEP2024</t>
+  </si>
+  <si>
+    <t>OAS trademark registration</t>
+  </si>
+  <si>
+    <t>GROSS INTEREST TO 16OCT2024</t>
   </si>
 </sst>
 </file>
@@ -7084,13 +7111,77 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45575.635887037039" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="340" xr:uid="{52AA0CD4-A3EB-4892-953B-4445B6BC29AB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45586.450793055556" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="347" xr:uid="{133830F7-3A79-4A2B-AFB2-D11D3864E8D7}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H501" sheet="Current account"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-01-01T00:00:00" maxDate="2024-10-22T00:00:00"/>
+    </cacheField>
+    <cacheField name="Type" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Description" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="101412" maxValue="101416"/>
+    </cacheField>
+    <cacheField name="Expenditure" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5" maxValue="6000"/>
+    </cacheField>
+    <cacheField name="Income" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.98" maxValue="2949.3"/>
+    </cacheField>
+    <cacheField name="Balance" numFmtId="164">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5059.6099999999997" maxValue="17759.57"/>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems containsBlank="1" count="24">
+        <s v="Subs"/>
+        <s v="Admin"/>
+        <s v="Submissions"/>
+        <s v="Website"/>
+        <s v="Donations cr"/>
+        <s v="Other income"/>
+        <s v="Bar sales"/>
+        <s v="Sales cr"/>
+        <s v="Prizes"/>
+        <s v="Honoraria"/>
+        <s v="Publicity"/>
+        <s v="Exhibition organisers fees"/>
+        <s v="Refunds"/>
+        <s v="Prof Fees"/>
+        <s v="Sales db"/>
+        <s v="AGM"/>
+        <s v="Donations db"/>
+        <s v="Venue hire"/>
+        <s v="Gifts"/>
+        <s v="Insurance"/>
+        <s v="Exhibitions db"/>
+        <s v="Other expenses"/>
+        <s v="Transfer Out"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Exhibition" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45586.475246412039" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="347" xr:uid="{52AA0CD4-A3EB-4892-953B-4445B6BC29AB}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I502" sheet="Current account"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-01-01T00:00:00" maxDate="2024-10-11T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-01-01T00:00:00" maxDate="2024-10-22T00:00:00"/>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -7154,70 +7245,6 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45575.635936921295" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="340" xr:uid="{133830F7-3A79-4A2B-AFB2-D11D3864E8D7}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H501" sheet="Current account"/>
-  </cacheSource>
-  <cacheFields count="8">
-    <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-01-01T00:00:00" maxDate="2024-10-11T00:00:00"/>
-    </cacheField>
-    <cacheField name="Type" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Description" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="101412" maxValue="101416"/>
-    </cacheField>
-    <cacheField name="Expenditure" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5" maxValue="6000"/>
-    </cacheField>
-    <cacheField name="Income" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.98" maxValue="2949.3"/>
-    </cacheField>
-    <cacheField name="Balance" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5059.6099999999997" maxValue="17759.57"/>
-    </cacheField>
-    <cacheField name="Category" numFmtId="0">
-      <sharedItems containsBlank="1" count="24">
-        <s v="Subs"/>
-        <s v="Admin"/>
-        <s v="Submissions"/>
-        <s v="Website"/>
-        <s v="Donations cr"/>
-        <s v="Other income"/>
-        <s v="Bar sales"/>
-        <s v="Sales cr"/>
-        <s v="Prizes"/>
-        <s v="Honoraria"/>
-        <s v="Publicity"/>
-        <s v="Exhibition organisers fees"/>
-        <s v="Refunds"/>
-        <s v="Prof Fees"/>
-        <s v="Sales db"/>
-        <s v="AGM"/>
-        <s v="Donations db"/>
-        <s v="Venue hire"/>
-        <s v="Gifts"/>
-        <s v="Insurance"/>
-        <s v="Exhibitions db"/>
-        <s v="Other expenses"/>
-        <s v="Transfer Out"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Exhibition" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="211">
   <r>
@@ -9123,7 +9150,3482 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="340">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="347">
+  <r>
+    <d v="2024-01-01T00:00:00"/>
+    <s v="CR"/>
+    <s v="FREEMANTLE SCHR EC FREEMANTLESCHREMP"/>
+    <m/>
+    <n v="30"/>
+    <n v="5059.6099999999997"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="E R WHEELER LIZZIEWHEELER"/>
+    <m/>
+    <n v="30"/>
+    <n v="5089.6099999999997"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="CLAIRE DRINKWATER DRINKWATER"/>
+    <m/>
+    <n v="30"/>
+    <n v="5119.6099999999997"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Williams Elaine HSBC OAS"/>
+    <m/>
+    <n v="30"/>
+    <n v="5149.6099999999997"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Bell Elizabeth"/>
+    <m/>
+    <n v="30"/>
+    <n v="5179.6099999999997"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Anuk Naumann FASTER PAYMENT"/>
+    <m/>
+    <n v="30"/>
+    <n v="5209.6099999999997"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Pretorius Diederik DIRK PRETORIUS"/>
+    <m/>
+    <n v="30"/>
+    <n v="5239.6099999999997"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="JOHN MCALOON MCALOON PA"/>
+    <m/>
+    <n v="30"/>
+    <n v="5269.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="ANGELA RADCLIFFE ms a radcliffe"/>
+    <m/>
+    <n v="30"/>
+    <n v="5299.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Clutton-Brock Elea CLUTTON-BROCK"/>
+    <m/>
+    <n v="30"/>
+    <n v="5329.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Side Richard ANNUAL SUB SSIDE"/>
+    <m/>
+    <n v="30"/>
+    <n v="5359.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Fisher Sally FISHER"/>
+    <m/>
+    <n v="30"/>
+    <n v="5389.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Thompson Marc MR M H THOMPSOM"/>
+    <m/>
+    <n v="30"/>
+    <n v="5419.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MRS WATES WATES"/>
+    <m/>
+    <n v="30"/>
+    <n v="5449.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="A KESTNER ALAN KESTNER SUBS"/>
+    <m/>
+    <n v="30"/>
+    <n v="5479.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="BEVAN A. BEVAN"/>
+    <m/>
+    <n v="30"/>
+    <n v="5509.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="L SAUNDERS MEMBERSHIP"/>
+    <m/>
+    <n v="30"/>
+    <n v="5539.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="GLOVER S &amp; C"/>
+    <m/>
+    <n v="25"/>
+    <n v="5564.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="PAKEMAN HC MRS GCQ MEMBERSHIP NEW"/>
+    <m/>
+    <n v="30"/>
+    <n v="5594.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Robinson Mary MARY ROBINSON"/>
+    <m/>
+    <n v="30"/>
+    <n v="5624.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Kidd Alan KIDD"/>
+    <m/>
+    <n v="30"/>
+    <n v="5654.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Anna Lever N140590"/>
+    <m/>
+    <n v="30"/>
+    <n v="5684.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="J COOPER FASTER PAYMENT"/>
+    <m/>
+    <n v="30"/>
+    <n v="5714.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="LESTER P R ZZ"/>
+    <m/>
+    <n v="25"/>
+    <n v="5739.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="SELHURST MM SELHURST"/>
+    <m/>
+    <n v="30"/>
+    <n v="5769.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="SELHURST MM MANDY SELHURST"/>
+    <m/>
+    <n v="30"/>
+    <n v="5799.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="BATES A M"/>
+    <m/>
+    <n v="30"/>
+    <n v="5829.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="KIRBY TESSA KIRBY T"/>
+    <m/>
+    <n v="30"/>
+    <n v="5859.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="CULLEN F SHAKESPEARE F"/>
+    <m/>
+    <n v="30"/>
+    <n v="5889.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="COLE E A"/>
+    <m/>
+    <n v="25"/>
+    <n v="5914.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="SUBSCRIPTION FENNE SKELS"/>
+    <m/>
+    <n v="30"/>
+    <n v="5944.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="HOPE A S &amp; J"/>
+    <m/>
+    <n v="30"/>
+    <n v="5974.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="ANGIE HUNT SUBS HUNT AJ"/>
+    <m/>
+    <n v="30"/>
+    <n v="6004.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="STEVE DAGGITT GREBENIK&amp;DAGGITT"/>
+    <m/>
+    <n v="30"/>
+    <n v="6034.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="OAS ROBINSON YM"/>
+    <m/>
+    <n v="30"/>
+    <n v="6064.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="WATERS S G"/>
+    <m/>
+    <n v="25"/>
+    <n v="6089.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="JAMES HAMILT"/>
+    <m/>
+    <n v="30"/>
+    <n v="6119.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="SANDH C&amp;I"/>
+    <m/>
+    <n v="25"/>
+    <n v="6144.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MARTINO FOSCHI FOSCHI&amp;DZEPAVA"/>
+    <m/>
+    <n v="30"/>
+    <n v="6174.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="JENNYFAYART"/>
+    <m/>
+    <n v="30"/>
+    <n v="6204.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="LEVELL B&amp;S"/>
+    <m/>
+    <n v="30"/>
+    <n v="6234.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="WILSON W A"/>
+    <m/>
+    <n v="30"/>
+    <n v="6264.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Laidlaw W &amp; D"/>
+    <m/>
+    <n v="30"/>
+    <n v="6294.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="TYSON N"/>
+    <m/>
+    <n v="30"/>
+    <n v="6324.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MS &amp; MR BURRELL LW &amp; JO BURRELL"/>
+    <m/>
+    <n v="30"/>
+    <n v="6354.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="DILLON A AD ANNA DILLON"/>
+    <m/>
+    <n v="30"/>
+    <n v="6384.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MRS NEWHOFER NEWHOFER"/>
+    <m/>
+    <n v="30"/>
+    <n v="6414.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MRS HEWES HEWES"/>
+    <m/>
+    <n v="30"/>
+    <n v="6444.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="KIRKMAN AJ+S KIRKMAN AJ+S"/>
+    <m/>
+    <n v="30"/>
+    <n v="6474.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MR GUASTALLA &amp; MS SUB"/>
+    <m/>
+    <n v="30"/>
+    <n v="6504.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Frank Dianne FRANK"/>
+    <m/>
+    <n v="30"/>
+    <n v="6534.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MR ROBINSON OXFORD ART SOCIETY"/>
+    <m/>
+    <n v="30"/>
+    <n v="6564.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MRS BYGOTT ANNETTE BYGOTT"/>
+    <m/>
+    <n v="30"/>
+    <n v="6594.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="FLUDRA A &amp; L CP"/>
+    <m/>
+    <n v="30"/>
+    <n v="6624.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Hinchliffe Antony HINCHLIFFE"/>
+    <m/>
+    <n v="30"/>
+    <n v="6654.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MRS FERN STRANGE"/>
+    <m/>
+    <n v="30"/>
+    <n v="6684.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="ALAN BERMAN"/>
+    <m/>
+    <n v="30"/>
+    <n v="6714.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="BASS SMB &amp; CA AUTO CHRISTINE BASS"/>
+    <m/>
+    <n v="30"/>
+    <n v="6744.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="J STROTHER"/>
+    <m/>
+    <n v="30"/>
+    <n v="6774.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="ISAACSON KM ISAACSON"/>
+    <m/>
+    <n v="30"/>
+    <n v="6804.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v=" COLLINS MA"/>
+    <m/>
+    <n v="30"/>
+    <n v="6834.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Moeran Nicola NICOLA MOERAN"/>
+    <m/>
+    <n v="30"/>
+    <n v="6864.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MORNA RHYS MORANA RHYS"/>
+    <m/>
+    <n v="30"/>
+    <n v="6894.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="RONALD DEEPWELL"/>
+    <m/>
+    <n v="30"/>
+    <n v="6924.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="LINE K VUB F LINE"/>
+    <m/>
+    <n v="30"/>
+    <n v="6954.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="COX S M"/>
+    <m/>
+    <n v="30"/>
+    <n v="6984.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="COCKBURN PB+D COCKBURN PB+D"/>
+    <m/>
+    <n v="30"/>
+    <n v="7014.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="L ROWE"/>
+    <m/>
+    <n v="30"/>
+    <n v="7044.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MS AMY F GLEES OASGLEES"/>
+    <m/>
+    <n v="30"/>
+    <n v="7074.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="GLYNNE-JONES AM AGLYNNEJONES"/>
+    <m/>
+    <n v="30"/>
+    <n v="7104.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="SAMPSON JS &amp; JM PP JOHN SAMPSON"/>
+    <m/>
+    <n v="30"/>
+    <n v="7134.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="CURBISHLEY A+D CURBISHLEY"/>
+    <m/>
+    <n v="30"/>
+    <n v="7164.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MRS SUSAN J WHEELE SJ WHEELER"/>
+    <m/>
+    <n v="30"/>
+    <n v="7194.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="J CONWAY J CONWAY"/>
+    <m/>
+    <n v="30"/>
+    <n v="7224.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="LINES EDK F LINES"/>
+    <m/>
+    <n v="30"/>
+    <n v="7254.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="K GIBBONS KAY GIBBONS"/>
+    <m/>
+    <n v="30"/>
+    <n v="7284.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="KENNER R E"/>
+    <m/>
+    <n v="30"/>
+    <n v="7314.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="BUTLER A. BUTLER"/>
+    <m/>
+    <n v="30"/>
+    <n v="7344.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="JONES D LVW F JONES"/>
+    <m/>
+    <n v="30"/>
+    <n v="7374.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="W S-SMITH SO8 1 W SKINNER-SMITH"/>
+    <m/>
+    <n v="35"/>
+    <n v="7409.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="HELEN MILTON GEAEME NOBLE"/>
+    <m/>
+    <n v="30"/>
+    <n v="7439.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="D WILLIAMS 0NS M WILLIAMS"/>
+    <m/>
+    <n v="30"/>
+    <n v="7469.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="J.P PEART S4N 1 J.P PEART"/>
+    <m/>
+    <n v="30"/>
+    <n v="7499.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="BALMER J A"/>
+    <m/>
+    <n v="30"/>
+    <n v="7529.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="HOPE B T BUS A/C BENJAMIN HOPE"/>
+    <m/>
+    <n v="30"/>
+    <n v="7559.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Bayton Mavis DR MAVIS BAYTON"/>
+    <m/>
+    <n v="30"/>
+    <n v="7589.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="R PATON BECKY PATON"/>
+    <m/>
+    <n v="30"/>
+    <n v="7619.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="DOBSON+DOOLEY S DOOLEY"/>
+    <m/>
+    <n v="30"/>
+    <n v="7649.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="GERR COL PR T/AS GERRYCOLES"/>
+    <m/>
+    <n v="30"/>
+    <n v="7679.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="YARROW J K G NO REF"/>
+    <m/>
+    <n v="30"/>
+    <n v="7709.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="SMITH RE+ML RE + ML SMITH"/>
+    <m/>
+    <n v="30"/>
+    <n v="7739.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="C MOORE CAROLINE MOORE"/>
+    <m/>
+    <n v="30"/>
+    <n v="7769.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="WALL SJC SJ WALL MEMBERSHIP"/>
+    <m/>
+    <n v="30"/>
+    <n v="7799.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="GANLY HM NO REF"/>
+    <m/>
+    <n v="30"/>
+    <n v="7829.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="SALMON G L NO REF"/>
+    <m/>
+    <n v="30"/>
+    <n v="7859.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="LAWRENCE P ATTNY P G LAWRENCE"/>
+    <m/>
+    <n v="30"/>
+    <n v="7889.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="STRANGE RDTW RAYMOND STRANGE"/>
+    <m/>
+    <n v="30"/>
+    <n v="7919.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="WELCHMAN SA ALEX HYDE"/>
+    <m/>
+    <n v="30"/>
+    <n v="7949.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="KIRKHAM EA KIRKHAM EA"/>
+    <m/>
+    <n v="30"/>
+    <n v="7979.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="C DAVIES ANNUAL SUBS"/>
+    <m/>
+    <n v="30"/>
+    <n v="8009.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="HOLLAND M FGE F HOLLAND"/>
+    <m/>
+    <n v="30"/>
+    <n v="8039.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MATHEWS J C MRS J MATHEWS"/>
+    <m/>
+    <n v="30"/>
+    <n v="8069.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="R BEVAN RICHARD BEVAN"/>
+    <m/>
+    <n v="30"/>
+    <n v="8099.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="LAWSON B BRIONY LAWSON"/>
+    <m/>
+    <n v="50"/>
+    <n v="8149.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="RICHARD FOX T/AS OAS MEMBERSHIP"/>
+    <m/>
+    <n v="30"/>
+    <n v="8179.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="SOSKIES A. SOSKIES"/>
+    <m/>
+    <n v="30"/>
+    <n v="8209.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="STOPFORD L ISI F STOPFORD"/>
+    <m/>
+    <n v="30"/>
+    <n v="8239.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="DUCKER R MY8 F DUCKER"/>
+    <m/>
+    <n v="30"/>
+    <n v="8269.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="STEPHEN J S2X F STEPHEN"/>
+    <m/>
+    <n v="30"/>
+    <n v="8299.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="R J COON"/>
+    <m/>
+    <n v="30"/>
+    <n v="8329.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="B JONES BEVERLEY JONES SUB"/>
+    <m/>
+    <n v="30"/>
+    <n v="8359.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="H F KING"/>
+    <m/>
+    <n v="30"/>
+    <n v="8389.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="LINDISFARNE JOK F LINDISFARNE"/>
+    <m/>
+    <n v="30"/>
+    <n v="8419.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MILBURN D. MILBURN"/>
+    <m/>
+    <n v="30"/>
+    <n v="8449.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="GORAYSKA B 1B7 F GORAYSKA"/>
+    <m/>
+    <n v="30"/>
+    <n v="8479.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="PENNY T WD0 F PENNY"/>
+    <m/>
+    <n v="30"/>
+    <n v="8509.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="WOOTTON A GNY F WOOTTON"/>
+    <m/>
+    <n v="30"/>
+    <n v="8539.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="R FORD RON FORD"/>
+    <m/>
+    <n v="30"/>
+    <n v="8569.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="ORT J DG0 F ORT"/>
+    <m/>
+    <n v="30"/>
+    <n v="8599.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="P J FARLEY"/>
+    <m/>
+    <n v="30"/>
+    <n v="8629.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="C H JONES"/>
+    <m/>
+    <n v="30"/>
+    <n v="8659.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="C KING CAROLINE KING OAS"/>
+    <m/>
+    <n v="30"/>
+    <n v="8689.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="P DREW"/>
+    <m/>
+    <n v="30"/>
+    <n v="8719.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="FULLJAMES P A C"/>
+    <m/>
+    <n v="30"/>
+    <n v="8749.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Somerscales John ART"/>
+    <m/>
+    <n v="30"/>
+    <n v="8779.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MRS JILLIAN R COLC J COLCHESTER"/>
+    <m/>
+    <n v="30"/>
+    <n v="8809.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="BING SHI BING SHI"/>
+    <m/>
+    <n v="30"/>
+    <n v="8839.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="WEBB DA DENNY WEBB"/>
+    <m/>
+    <n v="30"/>
+    <n v="8869.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Bicknell Maggie"/>
+    <m/>
+    <n v="30"/>
+    <n v="8899.61"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="29.08"/>
+    <n v="8928.69"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-03T00:00:00"/>
+    <s v="CR"/>
+    <s v="H WARD HELEN WARD"/>
+    <m/>
+    <n v="30"/>
+    <n v="8958.69"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-03T00:00:00"/>
+    <s v="CR"/>
+    <s v="TOMLINSON P&amp;JV/ROY PAUL TOMLINSON"/>
+    <m/>
+    <n v="30"/>
+    <n v="8988.69"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-03T00:00:00"/>
+    <s v="CR"/>
+    <s v="Frederic Chevarin FREDERIC CHEVARIN"/>
+    <m/>
+    <n v="30"/>
+    <n v="9018.69"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="CR"/>
+    <s v="Hipkiss Katherine KATE HIPKISS"/>
+    <m/>
+    <n v="30"/>
+    <n v="9048.69"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="87.15"/>
+    <n v="9135.84"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-05T00:00:00"/>
+    <s v="CR"/>
+    <s v="June Dent June Dent Membersh"/>
+    <m/>
+    <n v="30"/>
+    <n v="9165.84"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-05T00:00:00"/>
+    <s v="CR"/>
+    <s v="Smith Kirsten MARTIN A SMITH"/>
+    <m/>
+    <n v="30"/>
+    <n v="9195.84"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-05T00:00:00"/>
+    <s v="CR"/>
+    <s v="GRAY SR+C SUBSCRIPTION"/>
+    <m/>
+    <n v="30"/>
+    <n v="9225.84"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-05T00:00:00"/>
+    <s v="CR"/>
+    <s v="B GORAYSKA"/>
+    <m/>
+    <n v="30"/>
+    <n v="9255.84"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-05T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="146.15"/>
+    <n v="9401.99"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-05T00:00:00"/>
+    <s v="CR"/>
+    <s v="ISAACSON KM KASSANDRA ISAACSON"/>
+    <m/>
+    <n v="30"/>
+    <n v="9431.99"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-05T00:00:00"/>
+    <s v="CR"/>
+    <s v="V Stanway V STANWAY 2024"/>
+    <m/>
+    <n v="30"/>
+    <n v="9461.99"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-08T00:00:00"/>
+    <s v="CR"/>
+    <s v="HUGH TURNER OAS Membership"/>
+    <m/>
+    <n v="30"/>
+    <n v="9491.99"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-08T00:00:00"/>
+    <s v="CR"/>
+    <s v="MEMBERSHIP FEES BIGGS A D"/>
+    <m/>
+    <n v="30"/>
+    <n v="9521.99"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-08T00:00:00"/>
+    <s v="CR"/>
+    <s v="SPACKMAN S D C SPACKMAN"/>
+    <m/>
+    <n v="30"/>
+    <n v="9551.99"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-08T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="116.26"/>
+    <n v="9668.25"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="CR"/>
+    <s v="DOWSE &amp; BENTLEY CAMILLA DOWSE"/>
+    <m/>
+    <n v="30"/>
+    <n v="9698.25"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="RAI R Rani Rai"/>
+    <m/>
+    <n v="30"/>
+    <n v="9728.25"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="WHITEG&amp;F Frankie White"/>
+    <m/>
+    <n v="30"/>
+    <n v="9758.25"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-10T00:00:00"/>
+    <s v="CR"/>
+    <s v="R MARSDEN RONA"/>
+    <m/>
+    <n v="30"/>
+    <n v="9788.25"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-11T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="87.15"/>
+    <n v="9875.4"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-15T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="28.9"/>
+    <n v="9904.2999999999993"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-15T00:00:00"/>
+    <s v="CR"/>
+    <s v="V Shelton Vivien Shelton men"/>
+    <m/>
+    <n v="30"/>
+    <n v="9934.2999999999993"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-16T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="58.1"/>
+    <n v="9992.4"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-17T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="87.18"/>
+    <n v="10079.58"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-17T00:00:00"/>
+    <s v="CR"/>
+    <s v="SADLER CC CLAIRE C SADLER"/>
+    <m/>
+    <n v="30"/>
+    <n v="10109.58"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-18T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="58.55"/>
+    <n v="10168.129999999999"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-21T00:00:00"/>
+    <s v="DR"/>
+    <s v="TOTAL CHARGES TO 30DEC2023"/>
+    <n v="5"/>
+    <m/>
+    <n v="10163.129999999999"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-21T00:00:00"/>
+    <s v="CR"/>
+    <s v="NICOLA COONEY Subs for 2024"/>
+    <m/>
+    <n v="30"/>
+    <n v="10193.129999999999"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-22T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="57.83"/>
+    <n v="10250.959999999999"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-23T00:00:00"/>
+    <s v="CR"/>
+    <s v="SHUCKBURGH P M B PIP SHUCKURGH"/>
+    <m/>
+    <n v="30"/>
+    <n v="10280.959999999999"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-25T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="58.25"/>
+    <n v="10339.209999999999"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-26T00:00:00"/>
+    <s v="CR"/>
+    <s v="EAGLE HC HARRIET EAGLE"/>
+    <m/>
+    <n v="30"/>
+    <n v="10369.209999999999"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-26T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="203.35"/>
+    <n v="10572.56"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-27T00:00:00"/>
+    <s v="CR"/>
+    <s v="K Turner Kathy Turner Sub"/>
+    <m/>
+    <n v="30"/>
+    <n v="10602.56"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-29T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="145.25"/>
+    <n v="10747.81"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-29T00:00:00"/>
+    <s v="CR"/>
+    <s v="CROPPER J &amp; LR Louise Cropper"/>
+    <m/>
+    <n v="30"/>
+    <n v="10777.81"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-30T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="145.25"/>
+    <n v="10923.06"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-31T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="57.95"/>
+    <n v="10981.01"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-31T00:00:00"/>
+    <s v="BP"/>
+    <s v="BURDON M C Martyn Burdon"/>
+    <m/>
+    <n v="30"/>
+    <n v="11011.01"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-02-01T00:00:00"/>
+    <s v="CR"/>
+    <s v="KULABKO M M KULABKO"/>
+    <m/>
+    <n v="30"/>
+    <n v="11041.01"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-02-01T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="203.65"/>
+    <n v="11244.66"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-02-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="87.33"/>
+    <n v="11331.99"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-02-05T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="57.95"/>
+    <n v="11389.94"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-02-06T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="58.1"/>
+    <n v="11448.04"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-02-08T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="58.1"/>
+    <n v="11506.140000000001"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-02-15T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="72.819999999999993"/>
+    <n v="11578.960000000001"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-02-16T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="29.05"/>
+    <n v="11608.01"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-02-20T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="29.05"/>
+    <n v="11637.06"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-02-21T00:00:00"/>
+    <s v="DR"/>
+    <s v="TOTAL CHARGES TO 30JAN2024"/>
+    <n v="5"/>
+    <m/>
+    <n v="11632.06"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-02-22T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="58.7"/>
+    <n v="11690.76"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-02-23T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="117.19"/>
+    <n v="11807.95"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-02-26T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="29.14"/>
+    <n v="11837.09"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-02-27T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="29.35"/>
+    <n v="11866.44"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-02-29T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="220.02"/>
+    <n v="12086.460000000001"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-03-01T00:00:00"/>
+    <s v="CR"/>
+    <s v="JANE KELLY Jane Kelly oas"/>
+    <m/>
+    <n v="30"/>
+    <n v="12116.460000000001"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-03-01T00:00:00"/>
+    <s v="CR"/>
+    <s v="Ralfe Carolyn"/>
+    <m/>
+    <n v="30"/>
+    <n v="12146.460000000001"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-03-01T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="58.7"/>
+    <n v="12205.160000000002"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-03-04T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="73.27"/>
+    <n v="12278.430000000002"/>
+    <x v="2"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-03-05T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="88.05"/>
+    <n v="12366.480000000001"/>
+    <x v="2"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-03-07T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="439.89"/>
+    <n v="12806.37"/>
+    <x v="2"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-03-07T00:00:00"/>
+    <s v="CR"/>
+    <s v="H Young HELEN YOUNG"/>
+    <m/>
+    <n v="30"/>
+    <n v="12836.37"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-03-08T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="161.11000000000001"/>
+    <n v="12997.480000000001"/>
+    <x v="2"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-03-08T00:00:00"/>
+    <s v="CR"/>
+    <s v="L Stopford STOPFORD"/>
+    <m/>
+    <n v="55"/>
+    <n v="13052.480000000001"/>
+    <x v="2"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-03-11T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="131.97"/>
+    <n v="13184.45"/>
+    <x v="2"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-03-12T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="204.64"/>
+    <n v="13389.09"/>
+    <x v="2"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-03-13T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="205.45"/>
+    <n v="13594.54"/>
+    <x v="2"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-03-13T00:00:00"/>
+    <s v="CR"/>
+    <s v="SMITH RE+ML RE + ML SMITH"/>
+    <m/>
+    <n v="15"/>
+    <n v="13609.54"/>
+    <x v="2"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-03-14T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="527.54999999999995"/>
+    <n v="14137.09"/>
+    <x v="2"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-03-15T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="307.41000000000003"/>
+    <n v="14444.5"/>
+    <x v="2"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-03-15T00:00:00"/>
+    <s v="CR"/>
+    <s v="MRS S J &amp; MR M R C M CLAY ENTRY FEE"/>
+    <m/>
+    <n v="15"/>
+    <n v="14459.5"/>
+    <x v="2"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-03-15T00:00:00"/>
+    <s v="BP"/>
+    <s v="ROBERTA CATIGONE O.A.S"/>
+    <n v="309.02"/>
+    <m/>
+    <n v="14150.48"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-03-16T00:00:00"/>
+    <s v="CR"/>
+    <s v="SHERLAW JOHN SA FROM SALLY W"/>
+    <m/>
+    <n v="100"/>
+    <n v="14250.48"/>
+    <x v="4"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-03-18T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="351.29"/>
+    <n v="14601.77"/>
+    <x v="2"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-03-19T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="29.35"/>
+    <n v="14631.12"/>
+    <x v="2"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-03-21T00:00:00"/>
+    <s v="DR"/>
+    <s v="TOTAL CHARGES TO 28FEB2024"/>
+    <n v="5"/>
+    <m/>
+    <n v="14626.12"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-03-22T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments Acc MDD PID470910"/>
+    <m/>
+    <n v="0.98"/>
+    <n v="14627.1"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-03-25T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments Acc MDD PID473221"/>
+    <m/>
+    <n v="178.99"/>
+    <n v="14806.09"/>
+    <x v="6"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-03-25T00:00:00"/>
+    <s v="CR"/>
+    <s v="Split payment with above"/>
+    <m/>
+    <n v="663.59"/>
+    <n v="15469.68"/>
+    <x v="7"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-03-27T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments Acc MDD PID475037"/>
+    <m/>
+    <n v="324.42"/>
+    <n v="15794.1"/>
+    <x v="7"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-03-28T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="344.4"/>
+    <n v="16138.5"/>
+    <x v="7"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-03-28T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments Acc MDD PID476101"/>
+    <m/>
+    <n v="580.02"/>
+    <n v="16718.52"/>
+    <x v="7"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-04-03T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments Acc MDD PID480647"/>
+    <m/>
+    <n v="663.59"/>
+    <n v="17382.11"/>
+    <x v="7"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-04-03T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments Acc MDD PID481651"/>
+    <m/>
+    <n v="304.76"/>
+    <n v="17686.87"/>
+    <x v="7"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-04-04T00:00:00"/>
+    <s v="CHQ"/>
+    <n v="101415"/>
+    <n v="100"/>
+    <m/>
+    <n v="17586.87"/>
+    <x v="8"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-04-04T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UK STRIPE"/>
+    <m/>
+    <n v="172.7"/>
+    <n v="17759.57"/>
+    <x v="7"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-04-05T00:00:00"/>
+    <s v="BP"/>
+    <s v="AMANDA JEWELL OAS"/>
+    <n v="63.98"/>
+    <m/>
+    <n v="17695.59"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-04-05T00:00:00"/>
+    <s v="BP"/>
+    <s v="ROBERTA CATIGONE O.A.S"/>
+    <n v="1500"/>
+    <m/>
+    <n v="16195.59"/>
+    <x v="9"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-04-05T00:00:00"/>
+    <s v="BP"/>
+    <s v="OXFORD VISUAL ARTS OAS"/>
+    <n v="175"/>
+    <m/>
+    <n v="16020.59"/>
+    <x v="10"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-04-05T00:00:00"/>
+    <s v="BP"/>
+    <s v="CAROL OAS"/>
+    <n v="1500"/>
+    <m/>
+    <n v="14520.59"/>
+    <x v="11"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-04-08T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments Acc MDD PID486749"/>
+    <m/>
+    <n v="570.20000000000005"/>
+    <n v="15090.79"/>
+    <x v="7"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-04-09T00:00:00"/>
+    <s v="CHQ"/>
+    <n v="101413"/>
+    <n v="100"/>
+    <m/>
+    <n v="14990.79"/>
+    <x v="8"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-04-11T00:00:00"/>
+    <s v="DD"/>
+    <s v="STRIPE"/>
+    <n v="175"/>
+    <m/>
+    <n v="14815.79"/>
+    <x v="12"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-04-11T00:00:00"/>
+    <s v="CHQ"/>
+    <n v="101412"/>
+    <n v="100"/>
+    <m/>
+    <n v="14715.79"/>
+    <x v="8"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-04-18T00:00:00"/>
+    <s v="CHQ"/>
+    <n v="101416"/>
+    <n v="100"/>
+    <m/>
+    <n v="14615.79"/>
+    <x v="8"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-04-21T00:00:00"/>
+    <s v="DR"/>
+    <s v="TOTAL CHARGES TO 30MAR2024"/>
+    <n v="5"/>
+    <m/>
+    <n v="14610.79"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-04-25T00:00:00"/>
+    <s v="BP"/>
+    <s v="WENN TOWNSEND 04645"/>
+    <n v="916.6"/>
+    <m/>
+    <n v="13694.19"/>
+    <x v="13"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-04-25T00:00:00"/>
+    <s v="BP"/>
+    <s v="MAGDALEN ROAD STUD OAS"/>
+    <n v="390"/>
+    <m/>
+    <n v="13304.19"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-04-25T00:00:00"/>
+    <s v="BP"/>
+    <s v="OXINABOX 280324 / OAS"/>
+    <n v="375"/>
+    <m/>
+    <n v="12929.19"/>
+    <x v="10"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-04-29T00:00:00"/>
+    <s v="BP"/>
+    <s v="Rani Rai Oxford Art Society"/>
+    <n v="262.5"/>
+    <m/>
+    <n v="12666.69"/>
+    <x v="14"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-04-29T00:00:00"/>
+    <s v="BP"/>
+    <s v="Morna Rhys OAS"/>
+    <n v="232.5"/>
+    <m/>
+    <n v="12434.19"/>
+    <x v="14"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-04-29T00:00:00"/>
+    <s v="BP"/>
+    <s v="Helen Pakeman OAS"/>
+    <n v="131.25"/>
+    <m/>
+    <n v="12302.94"/>
+    <x v="14"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-04-29T00:00:00"/>
+    <s v="BP"/>
+    <s v="Kassandra Isaacson OAS"/>
+    <n v="187.5"/>
+    <m/>
+    <n v="12115.44"/>
+    <x v="14"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-04-29T00:00:00"/>
+    <s v="BP"/>
+    <s v="Fredrica Craig OAS"/>
+    <n v="221.25"/>
+    <m/>
+    <n v="11894.19"/>
+    <x v="14"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-04-29T00:00:00"/>
+    <s v="BP"/>
+    <s v="Camilla Dowse OAS"/>
+    <n v="221.25"/>
+    <m/>
+    <n v="11672.94"/>
+    <x v="14"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-04-29T00:00:00"/>
+    <s v="BP"/>
+    <s v="Emma Coleman Jones OAS"/>
+    <n v="247.5"/>
+    <m/>
+    <n v="11425.44"/>
+    <x v="14"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-04-29T00:00:00"/>
+    <s v="BP"/>
+    <s v="Ella Clocksin OAS"/>
+    <n v="435"/>
+    <m/>
+    <n v="10990.44"/>
+    <x v="14"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-04-29T00:00:00"/>
+    <s v="BP"/>
+    <s v="Angie Hunt OAS"/>
+    <n v="318.75"/>
+    <m/>
+    <n v="10671.69"/>
+    <x v="14"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-04-29T00:00:00"/>
+    <s v="BP"/>
+    <s v="Patricia Hyland OAS"/>
+    <n v="285"/>
+    <m/>
+    <n v="10386.69"/>
+    <x v="14"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-05-06T00:00:00"/>
+    <s v="BP"/>
+    <s v="Annie Wootton OAS"/>
+    <n v="90"/>
+    <m/>
+    <n v="10296.69"/>
+    <x v="14"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-05-07T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="29.05"/>
+    <n v="10325.74"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-05-08T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="58.1"/>
+    <n v="10383.84"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-05-09T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="29.05"/>
+    <n v="10412.89"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-05-21T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="29.05"/>
+    <n v="10441.939999999999"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-05-21T00:00:00"/>
+    <s v="CHG"/>
+    <s v="TOTAL CHARGES TO 29APR2024"/>
+    <n v="6.6"/>
+    <m/>
+    <n v="10435.339999999998"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-06-03T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="29.05"/>
+    <n v="10464.389999999998"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-06-07T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="29.05"/>
+    <n v="10493.439999999997"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-06-11T00:00:00"/>
+    <s v="BP"/>
+    <s v="David Barron OAS"/>
+    <n v="156.19999999999999"/>
+    <m/>
+    <n v="10337.239999999996"/>
+    <x v="15"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-06-11T00:00:00"/>
+    <s v="DD"/>
+    <s v="STRIPE"/>
+    <n v="30"/>
+    <m/>
+    <n v="10307.239999999996"/>
+    <x v="12"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-06-12T00:00:00"/>
+    <s v="BP"/>
+    <s v="Emma Davis OAS"/>
+    <n v="30"/>
+    <m/>
+    <n v="10277.239999999996"/>
+    <x v="12"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-06-19T00:00:00"/>
+    <s v="BP"/>
+    <s v="Webscape Gardener WG516"/>
+    <n v="172.5"/>
+    <m/>
+    <n v="10104.739999999996"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-06-21T00:00:00"/>
+    <s v="CHG"/>
+    <s v="TOTAL CHARGES TO 30MAY2024"/>
+    <n v="5"/>
+    <m/>
+    <n v="10099.739999999996"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-04T00:00:00"/>
+    <s v="BP"/>
+    <s v="Wendy Newhofer OAS"/>
+    <n v="50"/>
+    <m/>
+    <n v="10049.739999999996"/>
+    <x v="16"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-04T00:00:00"/>
+    <s v="BP"/>
+    <s v="Oxford University 78531"/>
+    <n v="400"/>
+    <m/>
+    <n v="9649.7399999999961"/>
+    <x v="16"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-11T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="29.05"/>
+    <n v="9678.7899999999954"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-11T00:00:00"/>
+    <s v="CHQ"/>
+    <n v="101414"/>
+    <n v="100"/>
+    <m/>
+    <n v="9578.7899999999954"/>
+    <x v="8"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-07-21T00:00:00"/>
+    <s v="CHG"/>
+    <s v="TOTAL CHARGES TO 29JUN2024"/>
+    <n v="5"/>
+    <m/>
+    <n v="9573.7899999999954"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-25T00:00:00"/>
+    <s v="BP"/>
+    <s v="St Johns College 5001686"/>
+    <n v="1261.68"/>
+    <m/>
+    <n v="8312.1099999999951"/>
+    <x v="17"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-08-13T00:00:00"/>
+    <s v="CR"/>
+    <s v="Pumphrey CatherineOPEN 2024"/>
+    <m/>
+    <n v="18"/>
+    <n v="8330.1099999999951"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-08-13T00:00:00"/>
+    <s v="CR"/>
+    <s v="C Morgan cms missed payment"/>
+    <m/>
+    <n v="18"/>
+    <n v="8348.1099999999951"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-08-13T00:00:00"/>
+    <s v="CR"/>
+    <s v="SHOCK KA MRS/ CA OPEN 2024"/>
+    <m/>
+    <n v="18"/>
+    <n v="8366.1099999999951"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-08-14T00:00:00"/>
+    <s v="CR"/>
+    <s v="H Ward Open 2024"/>
+    <m/>
+    <n v="15"/>
+    <n v="8381.1099999999951"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-08-14T00:00:00"/>
+    <s v="CR"/>
+    <s v="VAINKER PS &amp; SJ OPEN 2024"/>
+    <m/>
+    <n v="15"/>
+    <n v="8396.1099999999951"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-08-14T00:00:00"/>
+    <s v="CR"/>
+    <s v="Frank Dianne OPEN 2024"/>
+    <m/>
+    <n v="15"/>
+    <n v="8411.1099999999951"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-08-15T00:00:00"/>
+    <s v="CR"/>
+    <s v="HARVEY C OPEN2024"/>
+    <m/>
+    <n v="18"/>
+    <n v="8429.1099999999951"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-08-15T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="335.97"/>
+    <n v="8765.0799999999945"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-08-16T00:00:00"/>
+    <s v="CR"/>
+    <s v="ZYBINA K EXHIBITION FEE"/>
+    <m/>
+    <n v="18"/>
+    <n v="8783.0799999999945"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-08-16T00:00:00"/>
+    <s v="CR"/>
+    <s v="Fifteen2 Ltd Open 2024"/>
+    <m/>
+    <n v="18"/>
+    <n v="8801.0799999999945"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-08-16T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="296.17"/>
+    <n v="9097.2499999999945"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-08-16T00:00:00"/>
+    <s v="BP"/>
+    <s v="Amanda Jewell OAS"/>
+    <n v="18.5"/>
+    <m/>
+    <n v="9078.7499999999945"/>
+    <x v="18"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-19T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="240.57"/>
+    <n v="9319.3199999999943"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-08-20T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="49.83"/>
+    <n v="9369.1499999999942"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-08-21T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="87.98"/>
+    <n v="9457.1299999999937"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-08-21T00:00:00"/>
+    <s v="CHG"/>
+    <s v="TOTAL CHARGES TO 30JUL2024"/>
+    <n v="5.4"/>
+    <m/>
+    <n v="9451.7299999999941"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-22T00:00:00"/>
+    <s v="BP"/>
+    <s v="Marsh Commercial 532120783"/>
+    <n v="614.34"/>
+    <m/>
+    <n v="8837.389999999994"/>
+    <x v="19"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-22T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="299.2"/>
+    <n v="9136.5899999999947"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-08-23T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="137.88"/>
+    <n v="9274.4699999999939"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-08-27T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="158.57"/>
+    <n v="9433.0399999999936"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-08-28T00:00:00"/>
+    <s v="CR"/>
+    <s v="Danielle Berryman Open 2024 USN:1900"/>
+    <m/>
+    <n v="18"/>
+    <n v="9451.0399999999936"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-08-28T00:00:00"/>
+    <s v="CR"/>
+    <s v="C Landell-Mills open24"/>
+    <m/>
+    <n v="15"/>
+    <n v="9466.0399999999936"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-08-28T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="217.27"/>
+    <n v="9683.309999999994"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-08-29T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="188.03"/>
+    <n v="9871.3399999999947"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-08-30T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="674.79"/>
+    <n v="10546.129999999994"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="L Madajova Open 2024"/>
+    <m/>
+    <n v="18"/>
+    <n v="10564.129999999994"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="304.95999999999998"/>
+    <n v="10869.089999999993"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-03T00:00:00"/>
+    <s v="BP"/>
+    <s v="GRIFFITHS R Open 2024"/>
+    <m/>
+    <n v="18"/>
+    <n v="10887.089999999993"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-03T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="381.29"/>
+    <n v="11268.379999999994"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-04T00:00:00"/>
+    <s v="BP"/>
+    <s v="Kall Kwik Oxford 006746"/>
+    <n v="223"/>
+    <m/>
+    <n v="11045.379999999994"/>
+    <x v="10"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-04T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="111.28"/>
+    <n v="11156.659999999994"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-05T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="826.84"/>
+    <n v="11983.499999999995"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-05T00:00:00"/>
+    <s v="CR"/>
+    <s v="GARRATT N+I DU OPEN 2024"/>
+    <m/>
+    <n v="18"/>
+    <n v="12001.499999999995"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-06T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="246.01"/>
+    <n v="12247.509999999995"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-07T00:00:00"/>
+    <s v="CR"/>
+    <s v="VELYCHENKO A OPEN 2024"/>
+    <m/>
+    <n v="6"/>
+    <n v="12253.509999999995"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-08T00:00:00"/>
+    <s v="CR"/>
+    <s v="Nye Yolande OPEN2024"/>
+    <m/>
+    <n v="21"/>
+    <n v="12274.509999999995"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-09T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="234.64"/>
+    <n v="12509.149999999994"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-10T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="340.42"/>
+    <n v="12849.569999999994"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-11T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="466"/>
+    <n v="13315.569999999994"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-11T00:00:00"/>
+    <s v="CR"/>
+    <s v="EMMA DAVIS T/AS EXTRA MEMBER ENTRY"/>
+    <m/>
+    <n v="15"/>
+    <n v="13330.569999999994"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-12T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="2097.8000000000002"/>
+    <n v="15428.369999999995"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-13T00:00:00"/>
+    <s v="DD"/>
+    <s v="STRIPE"/>
+    <n v="108"/>
+    <m/>
+    <n v="15320.369999999995"/>
+    <x v="12"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-13T00:00:00"/>
+    <s v="CR"/>
+    <s v="KNOWLAND M OPEN 2024"/>
+    <m/>
+    <n v="30"/>
+    <n v="15350.369999999995"/>
+    <x v="2"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-18T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments AccMDD PID716439"/>
+    <m/>
+    <n v="0.98"/>
+    <n v="15351.349999999995"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-19T00:00:00"/>
+    <s v="BP"/>
+    <s v="Kall Kwik Oxford 006746"/>
+    <n v="66"/>
+    <m/>
+    <n v="15285.349999999995"/>
+    <x v="20"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-19T00:00:00"/>
+    <s v="BP"/>
+    <s v="Kall Kwik Oxford 006746"/>
+    <n v="165"/>
+    <m/>
+    <n v="15120.349999999995"/>
+    <x v="20"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-20T00:00:00"/>
+    <s v="CR"/>
+    <s v="WHITEHOUSE F PBM 1FIONA WHITEHOUSE"/>
+    <m/>
+    <n v="90"/>
+    <n v="15210.349999999995"/>
+    <x v="7"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-21T00:00:00"/>
+    <s v="CHG"/>
+    <s v="TOTAL CHARGES TO 30AUG2024"/>
+    <n v="5"/>
+    <m/>
+    <n v="15205.349999999995"/>
+    <x v="21"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-23T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments AccMDD PID724802"/>
+    <m/>
+    <n v="116.57"/>
+    <n v="15321.919999999995"/>
+    <x v="6"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-23T00:00:00"/>
+    <m/>
+    <s v="SumUp payment split"/>
+    <m/>
+    <n v="1558.21"/>
+    <n v="16880.129999999994"/>
+    <x v="7"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-25T00:00:00"/>
+    <s v="TFR"/>
+    <s v="403535 41336827 INTERNET TRANSFER"/>
+    <n v="6000"/>
+    <m/>
+    <n v="10880.129999999994"/>
+    <x v="22"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-25T00:00:00"/>
+    <s v="BP"/>
+    <s v="Corina LacurezeunuOAS"/>
+    <n v="18"/>
+    <m/>
+    <n v="10862.129999999994"/>
+    <x v="12"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-25T00:00:00"/>
+    <s v="BP"/>
+    <s v="Helen Ward OSS"/>
+    <n v="118.95"/>
+    <m/>
+    <n v="10743.179999999993"/>
+    <x v="18"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-25T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments AccMDD PID727979"/>
+    <m/>
+    <n v="457.14"/>
+    <n v="11200.319999999992"/>
+    <x v="7"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-26T00:00:00"/>
+    <s v="BP"/>
+    <s v="OASA OAS"/>
+    <n v="650"/>
+    <m/>
+    <n v="10550.319999999992"/>
+    <x v="16"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-27T00:00:00"/>
+    <s v="BP"/>
+    <s v="David Barron OAS"/>
+    <n v="200"/>
+    <m/>
+    <n v="10350.319999999992"/>
+    <x v="8"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-27T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments AccMDD PID731586"/>
+    <m/>
+    <n v="294.93"/>
+    <n v="10645.249999999993"/>
+    <x v="7"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-30T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="344.55"/>
+    <n v="10989.799999999992"/>
+    <x v="7"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-09-30T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments AccMDD PID736355"/>
+    <m/>
+    <n v="742.24"/>
+    <n v="11732.039999999992"/>
+    <x v="7"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <s v="BP"/>
+    <s v="Martyn Burdon OAS prize"/>
+    <n v="100"/>
+    <m/>
+    <n v="11632.039999999992"/>
+    <x v="8"/>
+    <s v="Members"/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments AccMDD PID737882"/>
+    <m/>
+    <n v="221.2"/>
+    <n v="11853.239999999993"/>
+    <x v="7"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-03T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments AccMDD PID741362"/>
+    <m/>
+    <n v="879.87"/>
+    <n v="12733.109999999993"/>
+    <x v="7"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-04T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments AccMDD PID743225"/>
+    <m/>
+    <n v="2949.3"/>
+    <n v="15682.409999999993"/>
+    <x v="7"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-07T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments AccMDD PID748134"/>
+    <m/>
+    <n v="1327.17"/>
+    <n v="17009.579999999994"/>
+    <x v="7"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-08T00:00:00"/>
+    <s v="BP"/>
+    <s v="Vivian Shelton OAS"/>
+    <n v="112.87"/>
+    <m/>
+    <n v="16896.709999999995"/>
+    <x v="20"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Mrs C E Hopton OAS"/>
+    <n v="45"/>
+    <m/>
+    <n v="16851.709999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Miranda Miller OAS"/>
+    <n v="60"/>
+    <m/>
+    <n v="16791.709999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Anna Kolos OAS"/>
+    <n v="262.5"/>
+    <m/>
+    <n v="16529.209999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Peter Collins OAS"/>
+    <n v="67.5"/>
+    <m/>
+    <n v="16461.709999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Melinda Kenneway OAS"/>
+    <n v="896.25"/>
+    <m/>
+    <n v="15565.459999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Claire Drinkwater OAS"/>
+    <n v="93.75"/>
+    <m/>
+    <n v="15471.709999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="John Day OAS"/>
+    <n v="108.75"/>
+    <m/>
+    <n v="15362.959999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Hannah Farncombe OAS"/>
+    <n v="168.75"/>
+    <m/>
+    <n v="15194.209999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Harriet Calfo OAS"/>
+    <n v="262.5"/>
+    <m/>
+    <n v="14931.709999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="June Dent OAS"/>
+    <n v="221.25"/>
+    <m/>
+    <n v="14710.459999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Gerry Coles PrintsOAS"/>
+    <n v="48.75"/>
+    <m/>
+    <n v="14661.709999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Eirian Griffiths OAS"/>
+    <n v="172.5"/>
+    <m/>
+    <n v="14489.209999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Rod Craig OAS"/>
+    <n v="671.25"/>
+    <m/>
+    <n v="13817.959999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-10T00:00:00"/>
+    <s v="BP"/>
+    <s v="Tereza Horacek OAS"/>
+    <n v="187.5"/>
+    <m/>
+    <n v="13630.459999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-10T00:00:00"/>
+    <s v="BP"/>
+    <s v="Lizzie Wheeler OAS"/>
+    <n v="240"/>
+    <m/>
+    <n v="13390.459999999995"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-10T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="29.2"/>
+    <n v="13419.659999999996"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-10T00:00:00"/>
+    <s v="BP"/>
+    <s v="Louise Cropper OAS"/>
+    <n v="326.25"/>
+    <m/>
+    <n v="13093.409999999996"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-10T00:00:00"/>
+    <s v="BP"/>
+    <s v="David Roberts OAS"/>
+    <n v="225"/>
+    <m/>
+    <n v="12868.409999999996"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-10T00:00:00"/>
+    <s v="BP"/>
+    <s v="Pauline Webber OAS"/>
+    <n v="150"/>
+    <m/>
+    <n v="12718.409999999996"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-14T00:00:00"/>
+    <s v="BP"/>
+    <s v="Boult Wade Tennant1285894"/>
+    <n v="302"/>
+    <m/>
+    <n v="12416.409999999996"/>
+    <x v="21"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-15T00:00:00"/>
+    <s v="BP"/>
+    <s v="Jess Williams OAS"/>
+    <n v="206.25"/>
+    <m/>
+    <n v="12210.159999999996"/>
+    <x v="14"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-18T00:00:00"/>
+    <s v="BP"/>
+    <s v="Roberta Catizone OAS"/>
+    <n v="1518"/>
+    <m/>
+    <n v="10692.159999999996"/>
+    <x v="9"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-10-21T00:00:00"/>
+    <s v="CHG"/>
+    <s v="TOTAL CHARGES TO 29SEP2024"/>
+    <n v="5"/>
+    <m/>
+    <n v="10687.159999999996"/>
+    <x v="21"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="23"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="347">
   <r>
     <d v="2024-01-01T00:00:00"/>
     <s v="CR"/>
@@ -11519,7 +15021,7 @@
     <m/>
     <n v="16195.59"/>
     <x v="9"/>
-    <x v="0"/>
+    <x v="1"/>
     <s v="Payment to web manager"/>
   </r>
   <r>
@@ -12854,3408 +16356,79 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="23"/>
-    <x v="0"/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="340">
-  <r>
-    <d v="2024-01-01T00:00:00"/>
-    <s v="CR"/>
-    <s v="FREEMANTLE SCHR EC FREEMANTLESCHREMP"/>
-    <m/>
-    <n v="30"/>
-    <n v="5059.6099999999997"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="E R WHEELER LIZZIEWHEELER"/>
-    <m/>
-    <n v="30"/>
-    <n v="5089.6099999999997"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="CLAIRE DRINKWATER DRINKWATER"/>
-    <m/>
-    <n v="30"/>
-    <n v="5119.6099999999997"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Williams Elaine HSBC OAS"/>
-    <m/>
-    <n v="30"/>
-    <n v="5149.6099999999997"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Bell Elizabeth"/>
-    <m/>
-    <n v="30"/>
-    <n v="5179.6099999999997"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Anuk Naumann FASTER PAYMENT"/>
-    <m/>
-    <n v="30"/>
-    <n v="5209.6099999999997"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Pretorius Diederik DIRK PRETORIUS"/>
-    <m/>
-    <n v="30"/>
-    <n v="5239.6099999999997"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="JOHN MCALOON MCALOON PA"/>
-    <m/>
-    <n v="30"/>
-    <n v="5269.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="ANGELA RADCLIFFE ms a radcliffe"/>
-    <m/>
-    <n v="30"/>
-    <n v="5299.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Clutton-Brock Elea CLUTTON-BROCK"/>
-    <m/>
-    <n v="30"/>
-    <n v="5329.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Side Richard ANNUAL SUB SSIDE"/>
-    <m/>
-    <n v="30"/>
-    <n v="5359.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Fisher Sally FISHER"/>
-    <m/>
-    <n v="30"/>
-    <n v="5389.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Thompson Marc MR M H THOMPSOM"/>
-    <m/>
-    <n v="30"/>
-    <n v="5419.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MRS WATES WATES"/>
-    <m/>
-    <n v="30"/>
-    <n v="5449.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="A KESTNER ALAN KESTNER SUBS"/>
-    <m/>
-    <n v="30"/>
-    <n v="5479.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="BEVAN A. BEVAN"/>
-    <m/>
-    <n v="30"/>
-    <n v="5509.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="L SAUNDERS MEMBERSHIP"/>
-    <m/>
-    <n v="30"/>
-    <n v="5539.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="GLOVER S &amp; C"/>
-    <m/>
-    <n v="25"/>
-    <n v="5564.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="PAKEMAN HC MRS GCQ MEMBERSHIP NEW"/>
-    <m/>
-    <n v="30"/>
-    <n v="5594.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Robinson Mary MARY ROBINSON"/>
-    <m/>
-    <n v="30"/>
-    <n v="5624.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Kidd Alan KIDD"/>
-    <m/>
-    <n v="30"/>
-    <n v="5654.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Anna Lever N140590"/>
-    <m/>
-    <n v="30"/>
-    <n v="5684.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="J COOPER FASTER PAYMENT"/>
-    <m/>
-    <n v="30"/>
-    <n v="5714.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="LESTER P R ZZ"/>
-    <m/>
-    <n v="25"/>
-    <n v="5739.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="SELHURST MM SELHURST"/>
-    <m/>
-    <n v="30"/>
-    <n v="5769.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="SELHURST MM MANDY SELHURST"/>
-    <m/>
-    <n v="30"/>
-    <n v="5799.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="BATES A M"/>
-    <m/>
-    <n v="30"/>
-    <n v="5829.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="KIRBY TESSA KIRBY T"/>
-    <m/>
-    <n v="30"/>
-    <n v="5859.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="CULLEN F SHAKESPEARE F"/>
-    <m/>
-    <n v="30"/>
-    <n v="5889.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="COLE E A"/>
-    <m/>
-    <n v="25"/>
-    <n v="5914.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="SUBSCRIPTION FENNE SKELS"/>
-    <m/>
-    <n v="30"/>
-    <n v="5944.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="HOPE A S &amp; J"/>
-    <m/>
-    <n v="30"/>
-    <n v="5974.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="ANGIE HUNT SUBS HUNT AJ"/>
-    <m/>
-    <n v="30"/>
-    <n v="6004.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="STEVE DAGGITT GREBENIK&amp;DAGGITT"/>
-    <m/>
-    <n v="30"/>
-    <n v="6034.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="OAS ROBINSON YM"/>
-    <m/>
-    <n v="30"/>
-    <n v="6064.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="WATERS S G"/>
-    <m/>
-    <n v="25"/>
-    <n v="6089.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="JAMES HAMILT"/>
-    <m/>
-    <n v="30"/>
-    <n v="6119.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="SANDH C&amp;I"/>
-    <m/>
-    <n v="25"/>
-    <n v="6144.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MARTINO FOSCHI FOSCHI&amp;DZEPAVA"/>
-    <m/>
-    <n v="30"/>
-    <n v="6174.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="JENNYFAYART"/>
-    <m/>
-    <n v="30"/>
-    <n v="6204.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="LEVELL B&amp;S"/>
-    <m/>
-    <n v="30"/>
-    <n v="6234.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="WILSON W A"/>
-    <m/>
-    <n v="30"/>
-    <n v="6264.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Laidlaw W &amp; D"/>
-    <m/>
-    <n v="30"/>
-    <n v="6294.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="TYSON N"/>
-    <m/>
-    <n v="30"/>
-    <n v="6324.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MS &amp; MR BURRELL LW &amp; JO BURRELL"/>
-    <m/>
-    <n v="30"/>
-    <n v="6354.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="DILLON A AD ANNA DILLON"/>
-    <m/>
-    <n v="30"/>
-    <n v="6384.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MRS NEWHOFER NEWHOFER"/>
-    <m/>
-    <n v="30"/>
-    <n v="6414.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MRS HEWES HEWES"/>
-    <m/>
-    <n v="30"/>
-    <n v="6444.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="KIRKMAN AJ+S KIRKMAN AJ+S"/>
-    <m/>
-    <n v="30"/>
-    <n v="6474.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MR GUASTALLA &amp; MS SUB"/>
-    <m/>
-    <n v="30"/>
-    <n v="6504.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Frank Dianne FRANK"/>
-    <m/>
-    <n v="30"/>
-    <n v="6534.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MR ROBINSON OXFORD ART SOCIETY"/>
-    <m/>
-    <n v="30"/>
-    <n v="6564.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MRS BYGOTT ANNETTE BYGOTT"/>
-    <m/>
-    <n v="30"/>
-    <n v="6594.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="FLUDRA A &amp; L CP"/>
-    <m/>
-    <n v="30"/>
-    <n v="6624.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Hinchliffe Antony HINCHLIFFE"/>
-    <m/>
-    <n v="30"/>
-    <n v="6654.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MRS FERN STRANGE"/>
-    <m/>
-    <n v="30"/>
-    <n v="6684.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="ALAN BERMAN"/>
-    <m/>
-    <n v="30"/>
-    <n v="6714.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="BASS SMB &amp; CA AUTO CHRISTINE BASS"/>
-    <m/>
-    <n v="30"/>
-    <n v="6744.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="J STROTHER"/>
-    <m/>
-    <n v="30"/>
-    <n v="6774.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="ISAACSON KM ISAACSON"/>
-    <m/>
-    <n v="30"/>
-    <n v="6804.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v=" COLLINS MA"/>
-    <m/>
-    <n v="30"/>
-    <n v="6834.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Moeran Nicola NICOLA MOERAN"/>
-    <m/>
-    <n v="30"/>
-    <n v="6864.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MORNA RHYS MORANA RHYS"/>
-    <m/>
-    <n v="30"/>
-    <n v="6894.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="RONALD DEEPWELL"/>
-    <m/>
-    <n v="30"/>
-    <n v="6924.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="LINE K VUB F LINE"/>
-    <m/>
-    <n v="30"/>
-    <n v="6954.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="COX S M"/>
-    <m/>
-    <n v="30"/>
-    <n v="6984.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="COCKBURN PB+D COCKBURN PB+D"/>
-    <m/>
-    <n v="30"/>
-    <n v="7014.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="L ROWE"/>
-    <m/>
-    <n v="30"/>
-    <n v="7044.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MS AMY F GLEES OASGLEES"/>
-    <m/>
-    <n v="30"/>
-    <n v="7074.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="GLYNNE-JONES AM AGLYNNEJONES"/>
-    <m/>
-    <n v="30"/>
-    <n v="7104.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="SAMPSON JS &amp; JM PP JOHN SAMPSON"/>
-    <m/>
-    <n v="30"/>
-    <n v="7134.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="CURBISHLEY A+D CURBISHLEY"/>
-    <m/>
-    <n v="30"/>
-    <n v="7164.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MRS SUSAN J WHEELE SJ WHEELER"/>
-    <m/>
-    <n v="30"/>
-    <n v="7194.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="J CONWAY J CONWAY"/>
-    <m/>
-    <n v="30"/>
-    <n v="7224.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="LINES EDK F LINES"/>
-    <m/>
-    <n v="30"/>
-    <n v="7254.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="K GIBBONS KAY GIBBONS"/>
-    <m/>
-    <n v="30"/>
-    <n v="7284.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="KENNER R E"/>
-    <m/>
-    <n v="30"/>
-    <n v="7314.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="BUTLER A. BUTLER"/>
-    <m/>
-    <n v="30"/>
-    <n v="7344.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="JONES D LVW F JONES"/>
-    <m/>
-    <n v="30"/>
-    <n v="7374.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="W S-SMITH SO8 1 W SKINNER-SMITH"/>
-    <m/>
-    <n v="35"/>
-    <n v="7409.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="HELEN MILTON GEAEME NOBLE"/>
-    <m/>
-    <n v="30"/>
-    <n v="7439.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="D WILLIAMS 0NS M WILLIAMS"/>
-    <m/>
-    <n v="30"/>
-    <n v="7469.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="J.P PEART S4N 1 J.P PEART"/>
-    <m/>
-    <n v="30"/>
-    <n v="7499.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="BALMER J A"/>
-    <m/>
-    <n v="30"/>
-    <n v="7529.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="HOPE B T BUS A/C BENJAMIN HOPE"/>
-    <m/>
-    <n v="30"/>
-    <n v="7559.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Bayton Mavis DR MAVIS BAYTON"/>
-    <m/>
-    <n v="30"/>
-    <n v="7589.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="R PATON BECKY PATON"/>
-    <m/>
-    <n v="30"/>
-    <n v="7619.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="DOBSON+DOOLEY S DOOLEY"/>
-    <m/>
-    <n v="30"/>
-    <n v="7649.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="GERR COL PR T/AS GERRYCOLES"/>
-    <m/>
-    <n v="30"/>
-    <n v="7679.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="YARROW J K G NO REF"/>
-    <m/>
-    <n v="30"/>
-    <n v="7709.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="SMITH RE+ML RE + ML SMITH"/>
-    <m/>
-    <n v="30"/>
-    <n v="7739.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="C MOORE CAROLINE MOORE"/>
-    <m/>
-    <n v="30"/>
-    <n v="7769.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="WALL SJC SJ WALL MEMBERSHIP"/>
-    <m/>
-    <n v="30"/>
-    <n v="7799.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="GANLY HM NO REF"/>
-    <m/>
-    <n v="30"/>
-    <n v="7829.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="SALMON G L NO REF"/>
-    <m/>
-    <n v="30"/>
-    <n v="7859.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="LAWRENCE P ATTNY P G LAWRENCE"/>
-    <m/>
-    <n v="30"/>
-    <n v="7889.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="STRANGE RDTW RAYMOND STRANGE"/>
-    <m/>
-    <n v="30"/>
-    <n v="7919.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="WELCHMAN SA ALEX HYDE"/>
-    <m/>
-    <n v="30"/>
-    <n v="7949.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="KIRKHAM EA KIRKHAM EA"/>
-    <m/>
-    <n v="30"/>
-    <n v="7979.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="C DAVIES ANNUAL SUBS"/>
-    <m/>
-    <n v="30"/>
-    <n v="8009.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="HOLLAND M FGE F HOLLAND"/>
-    <m/>
-    <n v="30"/>
-    <n v="8039.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MATHEWS J C MRS J MATHEWS"/>
-    <m/>
-    <n v="30"/>
-    <n v="8069.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="R BEVAN RICHARD BEVAN"/>
-    <m/>
-    <n v="30"/>
-    <n v="8099.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="LAWSON B BRIONY LAWSON"/>
-    <m/>
-    <n v="50"/>
-    <n v="8149.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="RICHARD FOX T/AS OAS MEMBERSHIP"/>
-    <m/>
-    <n v="30"/>
-    <n v="8179.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="SOSKIES A. SOSKIES"/>
-    <m/>
-    <n v="30"/>
-    <n v="8209.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="STOPFORD L ISI F STOPFORD"/>
-    <m/>
-    <n v="30"/>
-    <n v="8239.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="DUCKER R MY8 F DUCKER"/>
-    <m/>
-    <n v="30"/>
-    <n v="8269.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="STEPHEN J S2X F STEPHEN"/>
-    <m/>
-    <n v="30"/>
-    <n v="8299.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="R J COON"/>
-    <m/>
-    <n v="30"/>
-    <n v="8329.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="B JONES BEVERLEY JONES SUB"/>
-    <m/>
-    <n v="30"/>
-    <n v="8359.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="H F KING"/>
-    <m/>
-    <n v="30"/>
-    <n v="8389.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="LINDISFARNE JOK F LINDISFARNE"/>
-    <m/>
-    <n v="30"/>
-    <n v="8419.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MILBURN D. MILBURN"/>
-    <m/>
-    <n v="30"/>
-    <n v="8449.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="GORAYSKA B 1B7 F GORAYSKA"/>
-    <m/>
-    <n v="30"/>
-    <n v="8479.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="PENNY T WD0 F PENNY"/>
-    <m/>
-    <n v="30"/>
-    <n v="8509.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="WOOTTON A GNY F WOOTTON"/>
-    <m/>
-    <n v="30"/>
-    <n v="8539.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="R FORD RON FORD"/>
-    <m/>
-    <n v="30"/>
-    <n v="8569.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="ORT J DG0 F ORT"/>
-    <m/>
-    <n v="30"/>
-    <n v="8599.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="P J FARLEY"/>
-    <m/>
-    <n v="30"/>
-    <n v="8629.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="C H JONES"/>
-    <m/>
-    <n v="30"/>
-    <n v="8659.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="C KING CAROLINE KING OAS"/>
-    <m/>
-    <n v="30"/>
-    <n v="8689.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="P DREW"/>
-    <m/>
-    <n v="30"/>
-    <n v="8719.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="FULLJAMES P A C"/>
-    <m/>
-    <n v="30"/>
-    <n v="8749.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Somerscales John ART"/>
-    <m/>
-    <n v="30"/>
-    <n v="8779.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MRS JILLIAN R COLC J COLCHESTER"/>
-    <m/>
-    <n v="30"/>
-    <n v="8809.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="BING SHI BING SHI"/>
-    <m/>
-    <n v="30"/>
-    <n v="8839.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="WEBB DA DENNY WEBB"/>
-    <m/>
-    <n v="30"/>
-    <n v="8869.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Bicknell Maggie"/>
-    <m/>
-    <n v="30"/>
-    <n v="8899.61"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="29.08"/>
-    <n v="8928.69"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-03T00:00:00"/>
-    <s v="CR"/>
-    <s v="H WARD HELEN WARD"/>
-    <m/>
-    <n v="30"/>
-    <n v="8958.69"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-03T00:00:00"/>
-    <s v="CR"/>
-    <s v="TOMLINSON P&amp;JV/ROY PAUL TOMLINSON"/>
-    <m/>
-    <n v="30"/>
-    <n v="8988.69"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-03T00:00:00"/>
-    <s v="CR"/>
-    <s v="Frederic Chevarin FREDERIC CHEVARIN"/>
-    <m/>
-    <n v="30"/>
-    <n v="9018.69"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-04T00:00:00"/>
-    <s v="CR"/>
-    <s v="Hipkiss Katherine KATE HIPKISS"/>
-    <m/>
-    <n v="30"/>
-    <n v="9048.69"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-04T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="87.15"/>
-    <n v="9135.84"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-05T00:00:00"/>
-    <s v="CR"/>
-    <s v="June Dent June Dent Membersh"/>
-    <m/>
-    <n v="30"/>
-    <n v="9165.84"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-05T00:00:00"/>
-    <s v="CR"/>
-    <s v="Smith Kirsten MARTIN A SMITH"/>
-    <m/>
-    <n v="30"/>
-    <n v="9195.84"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-05T00:00:00"/>
-    <s v="CR"/>
-    <s v="GRAY SR+C SUBSCRIPTION"/>
-    <m/>
-    <n v="30"/>
-    <n v="9225.84"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-05T00:00:00"/>
-    <s v="CR"/>
-    <s v="B GORAYSKA"/>
-    <m/>
-    <n v="30"/>
-    <n v="9255.84"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-05T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="146.15"/>
-    <n v="9401.99"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-05T00:00:00"/>
-    <s v="CR"/>
-    <s v="ISAACSON KM KASSANDRA ISAACSON"/>
-    <m/>
-    <n v="30"/>
-    <n v="9431.99"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-05T00:00:00"/>
-    <s v="CR"/>
-    <s v="V Stanway V STANWAY 2024"/>
-    <m/>
-    <n v="30"/>
-    <n v="9461.99"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-08T00:00:00"/>
-    <s v="CR"/>
-    <s v="HUGH TURNER OAS Membership"/>
-    <m/>
-    <n v="30"/>
-    <n v="9491.99"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-08T00:00:00"/>
-    <s v="CR"/>
-    <s v="MEMBERSHIP FEES BIGGS A D"/>
-    <m/>
-    <n v="30"/>
-    <n v="9521.99"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-08T00:00:00"/>
-    <s v="CR"/>
-    <s v="SPACKMAN S D C SPACKMAN"/>
-    <m/>
-    <n v="30"/>
-    <n v="9551.99"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-08T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="116.26"/>
-    <n v="9668.25"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-09T00:00:00"/>
-    <s v="CR"/>
-    <s v="DOWSE &amp; BENTLEY CAMILLA DOWSE"/>
-    <m/>
-    <n v="30"/>
-    <n v="9698.25"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-09T00:00:00"/>
-    <s v="BP"/>
-    <s v="RAI R Rani Rai"/>
-    <m/>
-    <n v="30"/>
-    <n v="9728.25"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-09T00:00:00"/>
-    <s v="BP"/>
-    <s v="WHITEG&amp;F Frankie White"/>
-    <m/>
-    <n v="30"/>
-    <n v="9758.25"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-10T00:00:00"/>
-    <s v="CR"/>
-    <s v="R MARSDEN RONA"/>
-    <m/>
-    <n v="30"/>
-    <n v="9788.25"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-11T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="87.15"/>
-    <n v="9875.4"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-15T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="28.9"/>
-    <n v="9904.2999999999993"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-15T00:00:00"/>
-    <s v="CR"/>
-    <s v="V Shelton Vivien Shelton men"/>
-    <m/>
-    <n v="30"/>
-    <n v="9934.2999999999993"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-16T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="58.1"/>
-    <n v="9992.4"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-17T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="87.18"/>
-    <n v="10079.58"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-17T00:00:00"/>
-    <s v="CR"/>
-    <s v="SADLER CC CLAIRE C SADLER"/>
-    <m/>
-    <n v="30"/>
-    <n v="10109.58"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-18T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="58.55"/>
-    <n v="10168.129999999999"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-21T00:00:00"/>
-    <s v="DR"/>
-    <s v="TOTAL CHARGES TO 30DEC2023"/>
-    <n v="5"/>
-    <m/>
-    <n v="10163.129999999999"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-21T00:00:00"/>
-    <s v="CR"/>
-    <s v="NICOLA COONEY Subs for 2024"/>
-    <m/>
-    <n v="30"/>
-    <n v="10193.129999999999"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-22T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="57.83"/>
-    <n v="10250.959999999999"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-23T00:00:00"/>
-    <s v="CR"/>
-    <s v="SHUCKBURGH P M B PIP SHUCKURGH"/>
-    <m/>
-    <n v="30"/>
-    <n v="10280.959999999999"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-25T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="58.25"/>
-    <n v="10339.209999999999"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-26T00:00:00"/>
-    <s v="CR"/>
-    <s v="EAGLE HC HARRIET EAGLE"/>
-    <m/>
-    <n v="30"/>
-    <n v="10369.209999999999"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-26T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="203.35"/>
-    <n v="10572.56"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-27T00:00:00"/>
-    <s v="CR"/>
-    <s v="K Turner Kathy Turner Sub"/>
-    <m/>
-    <n v="30"/>
-    <n v="10602.56"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-29T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="145.25"/>
-    <n v="10747.81"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-29T00:00:00"/>
-    <s v="CR"/>
-    <s v="CROPPER J &amp; LR Louise Cropper"/>
-    <m/>
-    <n v="30"/>
-    <n v="10777.81"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-30T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="145.25"/>
-    <n v="10923.06"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-31T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="57.95"/>
-    <n v="10981.01"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-31T00:00:00"/>
-    <s v="BP"/>
-    <s v="BURDON M C Martyn Burdon"/>
-    <m/>
-    <n v="30"/>
-    <n v="11011.01"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-02-01T00:00:00"/>
-    <s v="CR"/>
-    <s v="KULABKO M M KULABKO"/>
-    <m/>
-    <n v="30"/>
-    <n v="11041.01"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-02-01T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="203.65"/>
-    <n v="11244.66"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-02-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="87.33"/>
-    <n v="11331.99"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-02-05T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="57.95"/>
-    <n v="11389.94"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-02-06T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="58.1"/>
-    <n v="11448.04"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-02-08T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="58.1"/>
-    <n v="11506.140000000001"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-02-15T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="72.819999999999993"/>
-    <n v="11578.960000000001"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-02-16T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="29.05"/>
-    <n v="11608.01"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-02-20T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="29.05"/>
-    <n v="11637.06"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-02-21T00:00:00"/>
-    <s v="DR"/>
-    <s v="TOTAL CHARGES TO 30JAN2024"/>
-    <n v="5"/>
-    <m/>
-    <n v="11632.06"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-02-22T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="58.7"/>
-    <n v="11690.76"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-02-23T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="117.19"/>
-    <n v="11807.95"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-02-26T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="29.14"/>
-    <n v="11837.09"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-02-27T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="29.35"/>
-    <n v="11866.44"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-02-29T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="220.02"/>
-    <n v="12086.460000000001"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-03-01T00:00:00"/>
-    <s v="CR"/>
-    <s v="JANE KELLY Jane Kelly oas"/>
-    <m/>
-    <n v="30"/>
-    <n v="12116.460000000001"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-03-01T00:00:00"/>
-    <s v="CR"/>
-    <s v="Ralfe Carolyn"/>
-    <m/>
-    <n v="30"/>
-    <n v="12146.460000000001"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-03-01T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="58.7"/>
-    <n v="12205.160000000002"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-03-04T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="73.27"/>
-    <n v="12278.430000000002"/>
-    <x v="2"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-03-05T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="88.05"/>
-    <n v="12366.480000000001"/>
-    <x v="2"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-03-07T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="439.89"/>
-    <n v="12806.37"/>
-    <x v="2"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-03-07T00:00:00"/>
-    <s v="CR"/>
-    <s v="H Young HELEN YOUNG"/>
-    <m/>
-    <n v="30"/>
-    <n v="12836.37"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-03-08T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="161.11000000000001"/>
-    <n v="12997.480000000001"/>
-    <x v="2"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-03-08T00:00:00"/>
-    <s v="CR"/>
-    <s v="L Stopford STOPFORD"/>
-    <m/>
-    <n v="55"/>
-    <n v="13052.480000000001"/>
-    <x v="2"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-03-11T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="131.97"/>
-    <n v="13184.45"/>
-    <x v="2"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-03-12T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="204.64"/>
-    <n v="13389.09"/>
-    <x v="2"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-03-13T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="205.45"/>
-    <n v="13594.54"/>
-    <x v="2"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-03-13T00:00:00"/>
-    <s v="CR"/>
-    <s v="SMITH RE+ML RE + ML SMITH"/>
-    <m/>
-    <n v="15"/>
-    <n v="13609.54"/>
-    <x v="2"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-03-14T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="527.54999999999995"/>
-    <n v="14137.09"/>
-    <x v="2"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-03-15T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="307.41000000000003"/>
-    <n v="14444.5"/>
-    <x v="2"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-03-15T00:00:00"/>
-    <s v="CR"/>
-    <s v="MRS S J &amp; MR M R C M CLAY ENTRY FEE"/>
-    <m/>
-    <n v="15"/>
-    <n v="14459.5"/>
-    <x v="2"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-03-15T00:00:00"/>
-    <s v="BP"/>
-    <s v="ROBERTA CATIGONE O.A.S"/>
-    <n v="309.02"/>
-    <m/>
-    <n v="14150.48"/>
-    <x v="3"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-03-16T00:00:00"/>
-    <s v="CR"/>
-    <s v="SHERLAW JOHN SA FROM SALLY W"/>
-    <m/>
-    <n v="100"/>
-    <n v="14250.48"/>
-    <x v="4"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-03-18T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="351.29"/>
-    <n v="14601.77"/>
-    <x v="2"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-03-19T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="29.35"/>
-    <n v="14631.12"/>
-    <x v="2"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-03-21T00:00:00"/>
-    <s v="DR"/>
-    <s v="TOTAL CHARGES TO 28FEB2024"/>
-    <n v="5"/>
-    <m/>
-    <n v="14626.12"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-03-22T00:00:00"/>
-    <s v="CR"/>
-    <s v="SumUp Payments Acc MDD PID470910"/>
-    <m/>
-    <n v="0.98"/>
-    <n v="14627.1"/>
-    <x v="5"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-03-25T00:00:00"/>
-    <s v="CR"/>
-    <s v="SumUp Payments Acc MDD PID473221"/>
-    <m/>
-    <n v="178.99"/>
-    <n v="14806.09"/>
-    <x v="6"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-03-25T00:00:00"/>
-    <s v="CR"/>
-    <s v="Split payment with above"/>
-    <m/>
-    <n v="663.59"/>
-    <n v="15469.68"/>
-    <x v="7"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-03-27T00:00:00"/>
-    <s v="CR"/>
-    <s v="SumUp Payments Acc MDD PID475037"/>
-    <m/>
-    <n v="324.42"/>
-    <n v="15794.1"/>
-    <x v="7"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-03-28T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="344.4"/>
-    <n v="16138.5"/>
-    <x v="7"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-03-28T00:00:00"/>
-    <s v="CR"/>
-    <s v="SumUp Payments Acc MDD PID476101"/>
-    <m/>
-    <n v="580.02"/>
-    <n v="16718.52"/>
-    <x v="7"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-04-03T00:00:00"/>
-    <s v="CR"/>
-    <s v="SumUp Payments Acc MDD PID480647"/>
-    <m/>
-    <n v="663.59"/>
-    <n v="17382.11"/>
-    <x v="7"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-04-03T00:00:00"/>
-    <s v="CR"/>
-    <s v="SumUp Payments Acc MDD PID481651"/>
-    <m/>
-    <n v="304.76"/>
-    <n v="17686.87"/>
-    <x v="7"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-04-04T00:00:00"/>
-    <s v="CHQ"/>
-    <n v="101415"/>
-    <n v="100"/>
-    <m/>
-    <n v="17586.87"/>
-    <x v="8"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-04-04T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UK STRIPE"/>
-    <m/>
-    <n v="172.7"/>
-    <n v="17759.57"/>
-    <x v="7"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-04-05T00:00:00"/>
-    <s v="BP"/>
-    <s v="AMANDA JEWELL OAS"/>
-    <n v="63.98"/>
-    <m/>
-    <n v="17695.59"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-04-05T00:00:00"/>
-    <s v="BP"/>
-    <s v="ROBERTA CATIGONE O.A.S"/>
-    <n v="1500"/>
-    <m/>
-    <n v="16195.59"/>
-    <x v="9"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-04-05T00:00:00"/>
-    <s v="BP"/>
-    <s v="OXFORD VISUAL ARTS OAS"/>
-    <n v="175"/>
-    <m/>
-    <n v="16020.59"/>
-    <x v="10"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-04-05T00:00:00"/>
-    <s v="BP"/>
-    <s v="CAROL OAS"/>
-    <n v="1500"/>
-    <m/>
-    <n v="14520.59"/>
-    <x v="11"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-04-08T00:00:00"/>
-    <s v="CR"/>
-    <s v="SumUp Payments Acc MDD PID486749"/>
-    <m/>
-    <n v="570.20000000000005"/>
-    <n v="15090.79"/>
-    <x v="7"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-04-09T00:00:00"/>
-    <s v="CHQ"/>
-    <n v="101413"/>
-    <n v="100"/>
-    <m/>
-    <n v="14990.79"/>
-    <x v="8"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-04-11T00:00:00"/>
-    <s v="DD"/>
-    <s v="STRIPE"/>
-    <n v="175"/>
-    <m/>
-    <n v="14815.79"/>
-    <x v="12"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-04-11T00:00:00"/>
-    <s v="CHQ"/>
-    <n v="101412"/>
-    <n v="100"/>
-    <m/>
-    <n v="14715.79"/>
-    <x v="8"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-04-18T00:00:00"/>
-    <s v="CHQ"/>
-    <n v="101416"/>
-    <n v="100"/>
-    <m/>
-    <n v="14615.79"/>
-    <x v="8"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-04-21T00:00:00"/>
-    <s v="DR"/>
-    <s v="TOTAL CHARGES TO 30MAR2024"/>
-    <n v="5"/>
-    <m/>
-    <n v="14610.79"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-04-25T00:00:00"/>
-    <s v="BP"/>
-    <s v="WENN TOWNSEND 04645"/>
-    <n v="916.6"/>
-    <m/>
-    <n v="13694.19"/>
-    <x v="13"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-04-25T00:00:00"/>
-    <s v="BP"/>
-    <s v="MAGDALEN ROAD STUD OAS"/>
-    <n v="390"/>
-    <m/>
-    <n v="13304.19"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-04-25T00:00:00"/>
-    <s v="BP"/>
-    <s v="OXINABOX 280324 / OAS"/>
-    <n v="375"/>
-    <m/>
-    <n v="12929.19"/>
-    <x v="10"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-04-29T00:00:00"/>
-    <s v="BP"/>
-    <s v="Rani Rai Oxford Art Society"/>
-    <n v="262.5"/>
-    <m/>
-    <n v="12666.69"/>
-    <x v="14"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-04-29T00:00:00"/>
-    <s v="BP"/>
-    <s v="Morna Rhys OAS"/>
-    <n v="232.5"/>
-    <m/>
-    <n v="12434.19"/>
-    <x v="14"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-04-29T00:00:00"/>
-    <s v="BP"/>
-    <s v="Helen Pakeman OAS"/>
-    <n v="131.25"/>
-    <m/>
-    <n v="12302.94"/>
-    <x v="14"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-04-29T00:00:00"/>
-    <s v="BP"/>
-    <s v="Kassandra Isaacson OAS"/>
-    <n v="187.5"/>
-    <m/>
-    <n v="12115.44"/>
-    <x v="14"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-04-29T00:00:00"/>
-    <s v="BP"/>
-    <s v="Fredrica Craig OAS"/>
-    <n v="221.25"/>
-    <m/>
-    <n v="11894.19"/>
-    <x v="14"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-04-29T00:00:00"/>
-    <s v="BP"/>
-    <s v="Camilla Dowse OAS"/>
-    <n v="221.25"/>
-    <m/>
-    <n v="11672.94"/>
-    <x v="14"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-04-29T00:00:00"/>
-    <s v="BP"/>
-    <s v="Emma Coleman Jones OAS"/>
-    <n v="247.5"/>
-    <m/>
-    <n v="11425.44"/>
-    <x v="14"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-04-29T00:00:00"/>
-    <s v="BP"/>
-    <s v="Ella Clocksin OAS"/>
-    <n v="435"/>
-    <m/>
-    <n v="10990.44"/>
-    <x v="14"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-04-29T00:00:00"/>
-    <s v="BP"/>
-    <s v="Angie Hunt OAS"/>
-    <n v="318.75"/>
-    <m/>
-    <n v="10671.69"/>
-    <x v="14"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-04-29T00:00:00"/>
-    <s v="BP"/>
-    <s v="Patricia Hyland OAS"/>
-    <n v="285"/>
-    <m/>
-    <n v="10386.69"/>
-    <x v="14"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-05-06T00:00:00"/>
-    <s v="BP"/>
-    <s v="Annie Wootton OAS"/>
-    <n v="90"/>
-    <m/>
-    <n v="10296.69"/>
-    <x v="14"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-05-07T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="29.05"/>
-    <n v="10325.74"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-05-08T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="58.1"/>
-    <n v="10383.84"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-05-09T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="29.05"/>
-    <n v="10412.89"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-05-21T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="29.05"/>
-    <n v="10441.939999999999"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-05-21T00:00:00"/>
-    <s v="CHG"/>
-    <s v="TOTAL CHARGES TO 29APR2024"/>
-    <n v="6.6"/>
-    <m/>
-    <n v="10435.339999999998"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-06-03T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="29.05"/>
-    <n v="10464.389999999998"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-06-07T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="29.05"/>
-    <n v="10493.439999999997"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-06-11T00:00:00"/>
-    <s v="BP"/>
-    <s v="David Barron OAS"/>
-    <n v="156.19999999999999"/>
-    <m/>
-    <n v="10337.239999999996"/>
-    <x v="15"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-06-11T00:00:00"/>
-    <s v="DD"/>
-    <s v="STRIPE"/>
-    <n v="30"/>
-    <m/>
-    <n v="10307.239999999996"/>
-    <x v="12"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-06-12T00:00:00"/>
-    <s v="BP"/>
-    <s v="Emma Davis OAS"/>
-    <n v="30"/>
-    <m/>
-    <n v="10277.239999999996"/>
-    <x v="12"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-06-19T00:00:00"/>
-    <s v="BP"/>
-    <s v="Webscape Gardener WG516"/>
-    <n v="172.5"/>
-    <m/>
-    <n v="10104.739999999996"/>
-    <x v="3"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-06-21T00:00:00"/>
-    <s v="CHG"/>
-    <s v="TOTAL CHARGES TO 30MAY2024"/>
-    <n v="5"/>
-    <m/>
-    <n v="10099.739999999996"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-07-04T00:00:00"/>
-    <s v="BP"/>
-    <s v="Wendy Newhofer OAS"/>
-    <n v="50"/>
-    <m/>
-    <n v="10049.739999999996"/>
-    <x v="16"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-07-04T00:00:00"/>
-    <s v="BP"/>
-    <s v="Oxford University 78531"/>
-    <n v="400"/>
-    <m/>
-    <n v="9649.7399999999961"/>
-    <x v="16"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-07-11T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="29.05"/>
-    <n v="9678.7899999999954"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-07-11T00:00:00"/>
-    <s v="CHQ"/>
-    <n v="101414"/>
-    <n v="100"/>
-    <m/>
-    <n v="9578.7899999999954"/>
-    <x v="8"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-07-21T00:00:00"/>
-    <s v="CHG"/>
-    <s v="TOTAL CHARGES TO 29JUN2024"/>
-    <n v="5"/>
-    <m/>
-    <n v="9573.7899999999954"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-07-25T00:00:00"/>
-    <s v="BP"/>
-    <s v="St Johns College 5001686"/>
-    <n v="1261.68"/>
-    <m/>
-    <n v="8312.1099999999951"/>
-    <x v="17"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-08-13T00:00:00"/>
-    <s v="CR"/>
-    <s v="Pumphrey CatherineOPEN 2024"/>
-    <m/>
-    <n v="18"/>
-    <n v="8330.1099999999951"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-08-13T00:00:00"/>
-    <s v="CR"/>
-    <s v="C Morgan cms missed payment"/>
-    <m/>
-    <n v="18"/>
-    <n v="8348.1099999999951"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-08-13T00:00:00"/>
-    <s v="CR"/>
-    <s v="SHOCK KA MRS/ CA OPEN 2024"/>
-    <m/>
-    <n v="18"/>
-    <n v="8366.1099999999951"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-08-14T00:00:00"/>
-    <s v="CR"/>
-    <s v="H Ward Open 2024"/>
-    <m/>
-    <n v="15"/>
-    <n v="8381.1099999999951"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-08-14T00:00:00"/>
-    <s v="CR"/>
-    <s v="VAINKER PS &amp; SJ OPEN 2024"/>
-    <m/>
-    <n v="15"/>
-    <n v="8396.1099999999951"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-08-14T00:00:00"/>
-    <s v="CR"/>
-    <s v="Frank Dianne OPEN 2024"/>
-    <m/>
-    <n v="15"/>
-    <n v="8411.1099999999951"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-08-15T00:00:00"/>
-    <s v="CR"/>
-    <s v="HARVEY C OPEN2024"/>
-    <m/>
-    <n v="18"/>
-    <n v="8429.1099999999951"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-08-15T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="335.97"/>
-    <n v="8765.0799999999945"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-08-16T00:00:00"/>
-    <s v="CR"/>
-    <s v="ZYBINA K EXHIBITION FEE"/>
-    <m/>
-    <n v="18"/>
-    <n v="8783.0799999999945"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-08-16T00:00:00"/>
-    <s v="CR"/>
-    <s v="Fifteen2 Ltd Open 2024"/>
-    <m/>
-    <n v="18"/>
-    <n v="8801.0799999999945"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-08-16T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="296.17"/>
-    <n v="9097.2499999999945"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-08-16T00:00:00"/>
-    <s v="BP"/>
-    <s v="Amanda Jewell OAS"/>
-    <n v="18.5"/>
-    <m/>
-    <n v="9078.7499999999945"/>
-    <x v="18"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-08-19T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="240.57"/>
-    <n v="9319.3199999999943"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-08-20T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="49.83"/>
-    <n v="9369.1499999999942"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-08-21T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="87.98"/>
-    <n v="9457.1299999999937"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-08-21T00:00:00"/>
-    <s v="CHG"/>
-    <s v="TOTAL CHARGES TO 30JUL2024"/>
-    <n v="5.4"/>
-    <m/>
-    <n v="9451.7299999999941"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-08-22T00:00:00"/>
-    <s v="BP"/>
-    <s v="Marsh Commercial 532120783"/>
-    <n v="614.34"/>
-    <m/>
-    <n v="8837.389999999994"/>
-    <x v="19"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-08-22T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="299.2"/>
-    <n v="9136.5899999999947"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-08-23T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="137.88"/>
-    <n v="9274.4699999999939"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-08-27T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="158.57"/>
-    <n v="9433.0399999999936"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-08-28T00:00:00"/>
-    <s v="CR"/>
-    <s v="Danielle Berryman Open 2024 USN:1900"/>
-    <m/>
-    <n v="18"/>
-    <n v="9451.0399999999936"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-08-28T00:00:00"/>
-    <s v="CR"/>
-    <s v="C Landell-Mills open24"/>
-    <m/>
-    <n v="15"/>
-    <n v="9466.0399999999936"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-08-28T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="217.27"/>
-    <n v="9683.309999999994"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-08-29T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="188.03"/>
-    <n v="9871.3399999999947"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-08-30T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="674.79"/>
-    <n v="10546.129999999994"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-09-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="L Madajova Open 2024"/>
-    <m/>
-    <n v="18"/>
-    <n v="10564.129999999994"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-09-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="304.95999999999998"/>
-    <n v="10869.089999999993"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-09-03T00:00:00"/>
-    <s v="BP"/>
-    <s v="GRIFFITHS R Open 2024"/>
-    <m/>
-    <n v="18"/>
-    <n v="10887.089999999993"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-09-03T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="381.29"/>
-    <n v="11268.379999999994"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-09-04T00:00:00"/>
-    <s v="BP"/>
-    <s v="Kall Kwik Oxford 006746"/>
-    <n v="223"/>
-    <m/>
-    <n v="11045.379999999994"/>
-    <x v="10"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-09-04T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="111.28"/>
-    <n v="11156.659999999994"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-09-05T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="826.84"/>
-    <n v="11983.499999999995"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-09-05T00:00:00"/>
-    <s v="CR"/>
-    <s v="GARRATT N+I DU OPEN 2024"/>
-    <m/>
-    <n v="18"/>
-    <n v="12001.499999999995"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-09-06T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="246.01"/>
-    <n v="12247.509999999995"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-09-07T00:00:00"/>
-    <s v="CR"/>
-    <s v="VELYCHENKO A OPEN 2024"/>
-    <m/>
-    <n v="6"/>
-    <n v="12253.509999999995"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-09-08T00:00:00"/>
-    <s v="CR"/>
-    <s v="Nye Yolande OPEN2024"/>
-    <m/>
-    <n v="21"/>
-    <n v="12274.509999999995"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-09-09T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="234.64"/>
-    <n v="12509.149999999994"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-09-10T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="340.42"/>
-    <n v="12849.569999999994"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-09-11T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="466"/>
-    <n v="13315.569999999994"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-09-11T00:00:00"/>
-    <s v="CR"/>
-    <s v="EMMA DAVIS T/AS EXTRA MEMBER ENTRY"/>
-    <m/>
-    <n v="15"/>
-    <n v="13330.569999999994"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-09-12T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="2097.8000000000002"/>
-    <n v="15428.369999999995"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-09-13T00:00:00"/>
-    <s v="DD"/>
-    <s v="STRIPE"/>
-    <n v="108"/>
-    <m/>
-    <n v="15320.369999999995"/>
-    <x v="12"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-09-13T00:00:00"/>
-    <s v="CR"/>
-    <s v="KNOWLAND M OPEN 2024"/>
-    <m/>
-    <n v="30"/>
-    <n v="15350.369999999995"/>
-    <x v="2"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-09-18T00:00:00"/>
-    <s v="CR"/>
-    <s v="SumUp Payments AccMDD PID716439"/>
-    <m/>
-    <n v="0.98"/>
-    <n v="15351.349999999995"/>
-    <x v="5"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-09-19T00:00:00"/>
-    <s v="BP"/>
-    <s v="Kall Kwik Oxford 006746"/>
-    <n v="66"/>
-    <m/>
-    <n v="15285.349999999995"/>
-    <x v="20"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-09-19T00:00:00"/>
-    <s v="BP"/>
-    <s v="Kall Kwik Oxford 006746"/>
-    <n v="165"/>
-    <m/>
-    <n v="15120.349999999995"/>
-    <x v="20"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-09-20T00:00:00"/>
-    <s v="CR"/>
-    <s v="WHITEHOUSE F PBM 1FIONA WHITEHOUSE"/>
-    <m/>
-    <n v="90"/>
-    <n v="15210.349999999995"/>
-    <x v="7"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-09-21T00:00:00"/>
-    <s v="CHG"/>
-    <s v="TOTAL CHARGES TO 30AUG2024"/>
-    <n v="5"/>
-    <m/>
-    <n v="15205.349999999995"/>
-    <x v="21"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-09-23T00:00:00"/>
-    <s v="CR"/>
-    <s v="SumUp Payments AccMDD PID724802"/>
-    <m/>
-    <n v="116.57"/>
-    <n v="15321.919999999995"/>
-    <x v="6"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-09-23T00:00:00"/>
-    <m/>
-    <s v="SumUp payment split"/>
-    <m/>
-    <n v="1558.21"/>
-    <n v="16880.129999999994"/>
-    <x v="7"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-09-25T00:00:00"/>
-    <s v="TFR"/>
-    <s v="403535 41336827 INTERNET TRANSFER"/>
-    <n v="6000"/>
-    <m/>
-    <n v="10880.129999999994"/>
-    <x v="22"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-09-25T00:00:00"/>
-    <s v="BP"/>
-    <s v="Corina LacurezeunuOAS"/>
-    <n v="18"/>
-    <m/>
-    <n v="10862.129999999994"/>
-    <x v="12"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-09-25T00:00:00"/>
-    <s v="BP"/>
-    <s v="Helen Ward OSS"/>
-    <n v="118.95"/>
-    <m/>
-    <n v="10743.179999999993"/>
-    <x v="18"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-09-25T00:00:00"/>
-    <s v="CR"/>
-    <s v="SumUp Payments AccMDD PID727979"/>
-    <m/>
-    <n v="457.14"/>
-    <n v="11200.319999999992"/>
-    <x v="7"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-09-26T00:00:00"/>
-    <s v="BP"/>
-    <s v="OASA OAS"/>
-    <n v="650"/>
-    <m/>
-    <n v="10550.319999999992"/>
-    <x v="16"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-09-27T00:00:00"/>
-    <s v="BP"/>
-    <s v="David Barron OAS"/>
-    <n v="200"/>
-    <m/>
-    <n v="10350.319999999992"/>
-    <x v="8"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-09-27T00:00:00"/>
-    <s v="CR"/>
-    <s v="SumUp Payments AccMDD PID731586"/>
-    <m/>
-    <n v="294.93"/>
-    <n v="10645.249999999993"/>
-    <x v="7"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-09-30T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="344.55"/>
-    <n v="10989.799999999992"/>
-    <x v="7"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-09-30T00:00:00"/>
-    <s v="CR"/>
-    <s v="SumUp Payments AccMDD PID736355"/>
-    <m/>
-    <n v="742.24"/>
-    <n v="11732.039999999992"/>
-    <x v="7"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-10-01T00:00:00"/>
-    <s v="BP"/>
-    <s v="Martyn Burdon OAS prize"/>
-    <n v="100"/>
-    <m/>
-    <n v="11632.039999999992"/>
-    <x v="8"/>
-    <s v="Members"/>
-  </r>
-  <r>
-    <d v="2024-10-01T00:00:00"/>
-    <s v="CR"/>
-    <s v="SumUp Payments AccMDD PID737882"/>
-    <m/>
-    <n v="221.2"/>
-    <n v="11853.239999999993"/>
-    <x v="7"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-10-03T00:00:00"/>
-    <s v="CR"/>
-    <s v="SumUp Payments AccMDD PID741362"/>
-    <m/>
-    <n v="879.87"/>
-    <n v="12733.109999999993"/>
-    <x v="7"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-10-04T00:00:00"/>
-    <s v="CR"/>
-    <s v="SumUp Payments AccMDD PID743225"/>
-    <m/>
-    <n v="2949.3"/>
-    <n v="15682.409999999993"/>
-    <x v="7"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-10-07T00:00:00"/>
-    <s v="CR"/>
-    <s v="SumUp Payments AccMDD PID748134"/>
-    <m/>
-    <n v="1327.17"/>
-    <n v="17009.579999999994"/>
-    <x v="7"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-10-08T00:00:00"/>
-    <s v="BP"/>
-    <s v="Vivian Shelton OAS"/>
-    <n v="112.87"/>
-    <m/>
-    <n v="16896.709999999995"/>
-    <x v="20"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-10-09T00:00:00"/>
-    <s v="BP"/>
-    <s v="Mrs C E Hopton OAS"/>
-    <n v="45"/>
-    <m/>
-    <n v="16851.709999999995"/>
-    <x v="14"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-10-09T00:00:00"/>
-    <s v="BP"/>
-    <s v="Miranda Miller OAS"/>
-    <n v="60"/>
-    <m/>
-    <n v="16791.709999999995"/>
-    <x v="14"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-10-09T00:00:00"/>
-    <s v="BP"/>
-    <s v="Anna Kolos OAS"/>
-    <n v="262.5"/>
-    <m/>
-    <n v="16529.209999999995"/>
-    <x v="14"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-10-09T00:00:00"/>
-    <s v="BP"/>
-    <s v="Peter Collins OAS"/>
-    <n v="67.5"/>
-    <m/>
-    <n v="16461.709999999995"/>
-    <x v="14"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-10-09T00:00:00"/>
-    <s v="BP"/>
-    <s v="Melinda Kenneway OAS"/>
-    <n v="896.25"/>
-    <m/>
-    <n v="15565.459999999995"/>
-    <x v="14"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-10-09T00:00:00"/>
-    <s v="BP"/>
-    <s v="Claire Drinkwater OAS"/>
-    <n v="93.75"/>
-    <m/>
-    <n v="15471.709999999995"/>
-    <x v="14"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-10-09T00:00:00"/>
-    <s v="BP"/>
-    <s v="John Day OAS"/>
-    <n v="108.75"/>
-    <m/>
-    <n v="15362.959999999995"/>
-    <x v="14"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-10-09T00:00:00"/>
-    <s v="BP"/>
-    <s v="Hannah Farncombe OAS"/>
-    <n v="168.75"/>
-    <m/>
-    <n v="15194.209999999995"/>
-    <x v="14"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-10-09T00:00:00"/>
-    <s v="BP"/>
-    <s v="Harriet Calfo OAS"/>
-    <n v="262.5"/>
-    <m/>
-    <n v="14931.709999999995"/>
-    <x v="14"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-10-09T00:00:00"/>
-    <s v="BP"/>
-    <s v="June Dent OAS"/>
-    <n v="221.25"/>
-    <m/>
-    <n v="14710.459999999995"/>
-    <x v="14"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-10-09T00:00:00"/>
-    <s v="BP"/>
-    <s v="Gerry Coles PrintsOAS"/>
-    <n v="48.75"/>
-    <m/>
-    <n v="14661.709999999995"/>
-    <x v="14"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-10-09T00:00:00"/>
-    <s v="BP"/>
-    <s v="Eirian Griffiths OAS"/>
-    <n v="172.5"/>
-    <m/>
-    <n v="14489.209999999995"/>
-    <x v="14"/>
-    <s v="Open"/>
-  </r>
-  <r>
-    <d v="2024-10-09T00:00:00"/>
-    <s v="BP"/>
-    <s v="Rod Craig OAS"/>
-    <n v="671.25"/>
-    <m/>
-    <n v="13817.959999999995"/>
-    <x v="14"/>
-    <s v="Open"/>
-  </r>
-  <r>
     <d v="2024-10-10T00:00:00"/>
     <s v="BP"/>
-    <s v="Tereza Horacek OAS"/>
-    <n v="187.5"/>
-    <m/>
-    <n v="13630.459999999995"/>
+    <s v="Louise Cropper OAS"/>
+    <n v="326.25"/>
+    <m/>
+    <n v="13093.409999999996"/>
     <x v="14"/>
-    <s v="Open"/>
+    <x v="2"/>
+    <m/>
   </r>
   <r>
     <d v="2024-10-10T00:00:00"/>
     <s v="BP"/>
-    <s v="Lizzie Wheeler OAS"/>
-    <n v="240"/>
-    <m/>
-    <n v="13390.459999999995"/>
+    <s v="David Roberts OAS"/>
+    <n v="225"/>
+    <m/>
+    <n v="12868.409999999996"/>
     <x v="14"/>
-    <s v="Open"/>
+    <x v="2"/>
+    <m/>
   </r>
   <r>
     <d v="2024-10-10T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="29.2"/>
-    <n v="13419.659999999996"/>
+    <s v="BP"/>
+    <s v="Pauline Webber OAS"/>
+    <n v="150"/>
+    <m/>
+    <n v="12718.409999999996"/>
+    <x v="14"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-14T00:00:00"/>
+    <s v="BP"/>
+    <s v="Boult Wade Tennant1285894"/>
+    <n v="302"/>
+    <m/>
+    <n v="12416.409999999996"/>
+    <x v="21"/>
+    <x v="0"/>
+    <s v="OAS trademark registration"/>
+  </r>
+  <r>
+    <d v="2024-10-15T00:00:00"/>
+    <s v="BP"/>
+    <s v="Jess Williams OAS"/>
+    <n v="206.25"/>
+    <m/>
+    <n v="12210.159999999996"/>
+    <x v="14"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-18T00:00:00"/>
+    <s v="BP"/>
+    <s v="Roberta Catizone OAS"/>
+    <n v="1518"/>
+    <m/>
+    <n v="10692.159999999996"/>
+    <x v="9"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-21T00:00:00"/>
+    <s v="CHG"/>
+    <s v="TOTAL CHARGES TO 29SEP2024"/>
+    <n v="5"/>
+    <m/>
+    <n v="10687.159999999996"/>
+    <x v="21"/>
     <x v="0"/>
     <m/>
   </r>
@@ -16267,6 +16440,7 @@
     <m/>
     <m/>
     <x v="23"/>
+    <x v="0"/>
     <m/>
   </r>
 </pivotCacheRecords>
@@ -16344,7 +16518,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE04C0F0-9A61-4F80-8276-3D04382D746D}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE04C0F0-9A61-4F80-8276-3D04382D746D}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="15" showAll="0"/>
@@ -16558,7 +16732,7 @@
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88CC6FF2-D2D5-4EC7-9086-AAE36B3B0E13}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A3:C15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="15" showAll="0"/>
     <pivotField showAll="0"/>
@@ -16608,7 +16782,7 @@
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="11">
+  <rowItems count="12">
     <i>
       <x v="2"/>
     </i>
@@ -16635,6 +16809,9 @@
     </i>
     <i>
       <x v="16"/>
+    </i>
+    <i>
+      <x v="20"/>
     </i>
     <i>
       <x v="22"/>
@@ -16675,7 +16852,7 @@
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FE7C9AF-75EF-4873-8F1B-0F70A39EEC38}" name="PivotTable5" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A19:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A19:C29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="15" showAll="0"/>
     <pivotField showAll="0"/>
@@ -16725,7 +16902,7 @@
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="10">
     <i>
       <x v="7"/>
     </i>
@@ -16746,6 +16923,9 @@
     </i>
     <i>
       <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
     </i>
     <i>
       <x v="22"/>
@@ -18148,10 +18328,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FA1291-B9CE-4F7D-8600-2336ADED0E75}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -18267,22 +18447,31 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>2207</v>
-      </c>
-      <c r="B13" s="40">
-        <v>178.99</v>
-      </c>
-      <c r="C13" s="40"/>
+        <v>2212</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40">
+        <v>1500</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B14" s="40">
+        <v>178.99</v>
+      </c>
+      <c r="C14" s="40"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
         <v>573</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B15" s="40">
         <v>6507.65</v>
       </c>
-      <c r="C14" s="40">
-        <v>6719.18</v>
+      <c r="C15" s="40">
+        <v>8219.18</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -18395,7 +18584,7 @@
       </c>
       <c r="B24" s="40"/>
       <c r="C24" s="40">
-        <v>3506.25</v>
+        <v>4413.75</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -18418,22 +18607,31 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
-        <v>2207</v>
-      </c>
-      <c r="B27" s="40">
-        <v>116.57</v>
-      </c>
-      <c r="C27" s="40"/>
+        <v>2212</v>
+      </c>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40">
+        <v>1518</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B28" s="40">
+        <v>116.57</v>
+      </c>
+      <c r="C28" s="40"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
         <v>573</v>
       </c>
-      <c r="B28" s="40">
+      <c r="B29" s="40">
         <v>16988.68</v>
       </c>
-      <c r="C28" s="40">
-        <v>4399.12</v>
+      <c r="C29" s="40">
+        <v>6824.62</v>
       </c>
     </row>
   </sheetData>
@@ -18443,10 +18641,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5956F534-76F9-4C2C-AE0C-5DBCF3D7B234}">
-  <dimension ref="A1:I340"/>
+  <dimension ref="A1:I347"/>
   <sheetViews>
-    <sheetView topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="H340" sqref="H340"/>
+    <sheetView topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="H219" sqref="H219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -23144,6 +23342,9 @@
       <c r="G219" t="s">
         <v>2212</v>
       </c>
+      <c r="H219" t="s">
+        <v>869</v>
+      </c>
       <c r="I219" t="s">
         <v>865</v>
       </c>
@@ -25643,7 +25844,7 @@
         <v>60</v>
       </c>
       <c r="F326" s="32">
-        <f t="shared" ref="F326:F340" si="5">F325+E326-D326</f>
+        <f t="shared" ref="F326:F347" si="5">F325+E326-D326</f>
         <v>16791.709999999995</v>
       </c>
       <c r="G326" t="s">
@@ -25893,7 +26094,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="31">
         <v>45574</v>
       </c>
@@ -25917,7 +26118,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="31">
         <v>45575</v>
       </c>
@@ -25941,7 +26142,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="31">
         <v>45575</v>
       </c>
@@ -25965,7 +26166,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="31">
         <v>45575</v>
       </c>
@@ -25984,6 +26185,171 @@
       </c>
       <c r="G340" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A341" s="31">
+        <v>45575</v>
+      </c>
+      <c r="B341" t="s">
+        <v>541</v>
+      </c>
+      <c r="C341" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D341">
+        <v>326.25</v>
+      </c>
+      <c r="F341" s="32">
+        <f t="shared" si="5"/>
+        <v>13093.409999999996</v>
+      </c>
+      <c r="G341" t="s">
+        <v>809</v>
+      </c>
+      <c r="H341" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A342" s="31">
+        <v>45575</v>
+      </c>
+      <c r="B342" t="s">
+        <v>541</v>
+      </c>
+      <c r="C342" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D342">
+        <v>225</v>
+      </c>
+      <c r="F342" s="32">
+        <f t="shared" si="5"/>
+        <v>12868.409999999996</v>
+      </c>
+      <c r="G342" t="s">
+        <v>809</v>
+      </c>
+      <c r="H342" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A343" s="31">
+        <v>45575</v>
+      </c>
+      <c r="B343" t="s">
+        <v>541</v>
+      </c>
+      <c r="C343" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D343">
+        <v>150</v>
+      </c>
+      <c r="F343" s="32">
+        <f t="shared" si="5"/>
+        <v>12718.409999999996</v>
+      </c>
+      <c r="G343" t="s">
+        <v>809</v>
+      </c>
+      <c r="H343" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A344" s="31">
+        <v>45579</v>
+      </c>
+      <c r="B344" t="s">
+        <v>541</v>
+      </c>
+      <c r="C344" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D344">
+        <v>302</v>
+      </c>
+      <c r="F344" s="32">
+        <f t="shared" si="5"/>
+        <v>12416.409999999996</v>
+      </c>
+      <c r="G344" t="s">
+        <v>930</v>
+      </c>
+      <c r="I344" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A345" s="31">
+        <v>45580</v>
+      </c>
+      <c r="B345" t="s">
+        <v>541</v>
+      </c>
+      <c r="C345" t="s">
+        <v>2258</v>
+      </c>
+      <c r="D345">
+        <v>206.25</v>
+      </c>
+      <c r="F345" s="32">
+        <f t="shared" si="5"/>
+        <v>12210.159999999996</v>
+      </c>
+      <c r="G345" t="s">
+        <v>809</v>
+      </c>
+      <c r="H345" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A346" s="31">
+        <v>45583</v>
+      </c>
+      <c r="B346" t="s">
+        <v>541</v>
+      </c>
+      <c r="C346" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D346">
+        <v>1518</v>
+      </c>
+      <c r="F346" s="32">
+        <f t="shared" si="5"/>
+        <v>10692.159999999996</v>
+      </c>
+      <c r="G346" t="s">
+        <v>2212</v>
+      </c>
+      <c r="H346" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A347" s="31">
+        <v>45586</v>
+      </c>
+      <c r="B347" t="s">
+        <v>829</v>
+      </c>
+      <c r="C347" t="s">
+        <v>2260</v>
+      </c>
+      <c r="D347">
+        <v>5</v>
+      </c>
+      <c r="F347" s="32">
+        <f t="shared" si="5"/>
+        <v>10687.159999999996</v>
+      </c>
+      <c r="G347" t="s">
+        <v>930</v>
       </c>
     </row>
   </sheetData>
@@ -25996,7 +26362,7 @@
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$53</xm:f>
           </x14:formula1>
-          <xm:sqref>G1:G1048576</xm:sqref>
+          <xm:sqref>G1:G1048576 H355</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -50152,10 +50518,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A8BED0-6F25-4951-9707-565F124E30A4}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -50228,7 +50594,7 @@
         <v>26.91</v>
       </c>
       <c r="F4" s="35">
-        <f t="shared" ref="F4:F12" si="0">F3+E4-D4</f>
+        <f t="shared" ref="F4:F13" si="0">F3+E4-D4</f>
         <v>16385.72</v>
       </c>
       <c r="G4" t="s">
@@ -50401,6 +50767,27 @@
       </c>
       <c r="G12" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
+        <v>45582</v>
+      </c>
+      <c r="B13" t="s">
+        <v>825</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2262</v>
+      </c>
+      <c r="E13">
+        <v>33.44</v>
+      </c>
+      <c r="F13" s="35">
+        <f t="shared" si="0"/>
+        <v>22605.579999999998</v>
+      </c>
+      <c r="G13" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -50424,7 +50811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEAEDB9-0FE6-48E6-8096-45942EADC73F}">
   <dimension ref="A3:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -50663,8 +51050,7 @@
       <c r="A4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40">
+      <c r="C4">
         <v>495.98</v>
       </c>
       <c r="E4" s="33" t="s">
@@ -50681,10 +51067,9 @@
       <c r="A5" s="34" t="s">
         <v>812</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5">
         <v>100</v>
       </c>
-      <c r="C5" s="40"/>
       <c r="E5" s="34" t="s">
         <v>869</v>
       </c>
@@ -50692,15 +51077,14 @@
         <v>6507.65</v>
       </c>
       <c r="G5" s="40">
-        <v>6719.18</v>
+        <v>8219.18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40">
+      <c r="C6">
         <v>800</v>
       </c>
       <c r="E6" s="34" t="s">
@@ -50710,15 +51094,14 @@
         <v>16988.68</v>
       </c>
       <c r="G6" s="40">
-        <v>4399.12</v>
+        <v>6824.62</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40">
+      <c r="C7">
         <v>916.6</v>
       </c>
       <c r="E7" s="34" t="s">
@@ -50728,15 +51111,14 @@
         <v>7479.1100000000006</v>
       </c>
       <c r="G7" s="40">
-        <v>11467.09</v>
+        <v>10274.09</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40">
+      <c r="C8">
         <v>361</v>
       </c>
       <c r="E8" s="34" t="s">
@@ -50746,42 +51128,38 @@
         <v>30975.440000000002</v>
       </c>
       <c r="G8" s="40">
-        <v>22585.39</v>
+        <v>25317.89</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>808</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9">
         <v>12488.289999999999</v>
       </c>
-      <c r="C9" s="40"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>809</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40">
-        <v>6138.75</v>
+      <c r="C10">
+        <v>7046.25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11">
         <v>7477.1500000000015</v>
       </c>
-      <c r="C11" s="40"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40">
+      <c r="C12">
         <v>481.52</v>
       </c>
     </row>
@@ -50789,8 +51167,7 @@
       <c r="A13" s="34" t="s">
         <v>810</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40">
+      <c r="C13">
         <v>1100</v>
       </c>
     </row>
@@ -50798,24 +51175,20 @@
       <c r="A14" s="34" t="s">
         <v>574</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="40">
+      <c r="B15">
         <v>10612.48</v>
       </c>
-      <c r="C15" s="40"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40">
+      <c r="C16">
         <v>773</v>
       </c>
     </row>
@@ -50823,8 +51196,7 @@
       <c r="A17" s="34" t="s">
         <v>864</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40">
+      <c r="C17">
         <v>1500</v>
       </c>
     </row>
@@ -50832,8 +51204,7 @@
       <c r="A18" s="34" t="s">
         <v>861</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40">
+      <c r="C18">
         <v>156.19999999999999</v>
       </c>
     </row>
@@ -50841,8 +51212,7 @@
       <c r="A19" s="34" t="s">
         <v>862</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40">
+      <c r="C19">
         <v>137.44999999999999</v>
       </c>
     </row>
@@ -50850,8 +51220,7 @@
       <c r="A20" s="34" t="s">
         <v>858</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40">
+      <c r="C20">
         <v>614.34</v>
       </c>
     </row>
@@ -50859,8 +51228,7 @@
       <c r="A21" s="34" t="s">
         <v>863</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40">
+      <c r="C21">
         <v>1261.68</v>
       </c>
     </row>
@@ -50868,17 +51236,15 @@
       <c r="A22" s="34" t="s">
         <v>929</v>
       </c>
-      <c r="B22" s="40">
+      <c r="B22">
         <v>1.96</v>
       </c>
-      <c r="C22" s="40"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>811</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40">
+      <c r="C23">
         <v>343.87</v>
       </c>
     </row>
@@ -50886,35 +51252,31 @@
       <c r="A24" s="34" t="s">
         <v>2212</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40">
-        <v>1500</v>
+      <c r="C24">
+        <v>3018</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
         <v>930</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40">
-        <v>5</v>
+      <c r="C25">
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
         <v>2207</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26">
         <v>295.56</v>
       </c>
-      <c r="C26" s="40"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40">
+      <c r="C27">
         <v>6000</v>
       </c>
     </row>
@@ -50922,11 +51284,11 @@
       <c r="A28" s="34" t="s">
         <v>573</v>
       </c>
-      <c r="B28" s="40">
+      <c r="B28">
         <v>30975.440000000002</v>
       </c>
-      <c r="C28" s="40">
-        <v>22585.390000000003</v>
+      <c r="C28">
+        <v>25317.890000000003</v>
       </c>
     </row>
   </sheetData>

--- a/2024/OAS 2024.xlsx
+++ b/2024/OAS 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnbar\Dropbox\OAS\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DCDE6D-7747-4E53-A273-54DDC2A67267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20B0482-4DBF-461D-97F5-07A2DC60C893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" firstSheet="1" activeTab="4" xr2:uid="{E6A7689A-682B-425D-92A3-B87F804748A5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" firstSheet="6" activeTab="10" xr2:uid="{E6A7689A-682B-425D-92A3-B87F804748A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="8" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8929" uniqueCount="3667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9019" uniqueCount="3692">
   <si>
     <t>Subs</t>
   </si>
@@ -11059,6 +11059,81 @@
   </si>
   <si>
     <t>Web manager</t>
+  </si>
+  <si>
+    <t>CASH IN AT 403534</t>
+  </si>
+  <si>
+    <t>Rebecca Payton OAS</t>
+  </si>
+  <si>
+    <t>Drinks at committee meeting</t>
+  </si>
+  <si>
+    <t>GROSS INTEREST TO 16NOV2024</t>
+  </si>
+  <si>
+    <t>TOTAL CHARGES TO 30OCT2024</t>
+  </si>
+  <si>
+    <t>Jill Harraway OAS refund</t>
+  </si>
+  <si>
+    <t>A HARTLEY</t>
+  </si>
+  <si>
+    <t>Deborah Digby OAS</t>
+  </si>
+  <si>
+    <t>Ruth Swain OAS refund</t>
+  </si>
+  <si>
+    <t>KNOWLAND M MARY KNOWLAND</t>
+  </si>
+  <si>
+    <t>M Robinson Marie Robinson</t>
+  </si>
+  <si>
+    <t>Day John JOHN DAY</t>
+  </si>
+  <si>
+    <t>C Landell-Mills CATHY LANDELL MILL</t>
+  </si>
+  <si>
+    <t>Vickery H M J Hannah Vickery</t>
+  </si>
+  <si>
+    <t>DURRANT N Nicola Durrant</t>
+  </si>
+  <si>
+    <t>Subs 2025</t>
+  </si>
+  <si>
+    <t>GROSS INTEREST TO 16DEC2024</t>
+  </si>
+  <si>
+    <t>JOBLING SA SALLY JOBLING</t>
+  </si>
+  <si>
+    <t>KIRBY T Tessa Kirby</t>
+  </si>
+  <si>
+    <t>WARWICK LC LIN WARWICK</t>
+  </si>
+  <si>
+    <t>Jamieson Kay KAY JAMIESON</t>
+  </si>
+  <si>
+    <t>H L LAWSON JOHNSTOH LAWSON JOHNSTON</t>
+  </si>
+  <si>
+    <t>C Moore Caroline MOORE</t>
+  </si>
+  <si>
+    <t>A Kestner ALAN KESTNER SUBS</t>
+  </si>
+  <si>
+    <t>Olding Alexandra ALEXANDRA BUCKLE</t>
   </si>
 </sst>
 </file>
@@ -11290,13 +11365,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45594.654152430558" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="352" xr:uid="{52AA0CD4-A3EB-4892-953B-4445B6BC29AB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45603.577918055555" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="353" xr:uid="{52AA0CD4-A3EB-4892-953B-4445B6BC29AB}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I502" sheet="Current account"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-01-01T00:00:00" maxDate="2024-10-30T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-01-01T00:00:00" maxDate="2024-11-08T00:00:00"/>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -11362,13 +11437,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45594.654244444442" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="352" xr:uid="{133830F7-3A79-4A2B-AFB2-D11D3864E8D7}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45638.733556944448" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="362" xr:uid="{133830F7-3A79-4A2B-AFB2-D11D3864E8D7}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H501" sheet="Current account"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-01-01T00:00:00" maxDate="2024-10-30T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-01-01T00:00:00" maxDate="2024-12-13T00:00:00"/>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -11427,7 +11502,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="352">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="353">
   <r>
     <d v="2024-01-01T00:00:00"/>
     <s v="CR"/>
@@ -15290,6 +15365,17 @@
     <m/>
   </r>
   <r>
+    <d v="2024-11-07T00:00:00"/>
+    <s v="CR"/>
+    <s v="CASH IN AT 403534"/>
+    <m/>
+    <n v="163.69999999999999"/>
+    <n v="7842.109999999996"/>
+    <x v="6"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
     <m/>
     <m/>
     <m/>
@@ -15304,7 +15390,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="352">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="362">
   <r>
     <d v="2024-01-01T00:00:00"/>
     <s v="CR"/>
@@ -18816,6 +18902,106 @@
     <s v="Open"/>
   </r>
   <r>
+    <d v="2024-11-07T00:00:00"/>
+    <s v="CR"/>
+    <s v="CASH IN AT 403534"/>
+    <m/>
+    <n v="163.69999999999999"/>
+    <n v="7842.109999999996"/>
+    <x v="6"/>
+    <s v="Open"/>
+  </r>
+  <r>
+    <d v="2024-11-07T00:00:00"/>
+    <s v="BP"/>
+    <s v="Rebecca Payton OAS"/>
+    <n v="12"/>
+    <m/>
+    <n v="7830.109999999996"/>
+    <x v="21"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-20T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="29.2"/>
+    <n v="7859.3099999999959"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-21T00:00:00"/>
+    <s v="CHG"/>
+    <s v="TOTAL CHARGES TO 30OCT2024"/>
+    <n v="5"/>
+    <m/>
+    <n v="7854.3099999999959"/>
+    <x v="21"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-29T00:00:00"/>
+    <s v="BP"/>
+    <s v="Jill Harraway OAS refund"/>
+    <n v="30"/>
+    <m/>
+    <n v="7824.3099999999959"/>
+    <x v="12"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="A HARTLEY"/>
+    <m/>
+    <n v="30"/>
+    <n v="7854.3099999999959"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-06T00:00:00"/>
+    <s v="BP"/>
+    <s v="Deborah Digby OAS"/>
+    <n v="750"/>
+    <m/>
+    <n v="7104.3099999999959"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-09T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="29.2"/>
+    <n v="7133.5099999999957"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-11T00:00:00"/>
+    <s v="BP"/>
+    <s v="Rebecca Payton OAS"/>
+    <n v="123.25"/>
+    <m/>
+    <n v="7010.2599999999957"/>
+    <x v="21"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-12T00:00:00"/>
+    <s v="BP"/>
+    <s v="Ruth Swain OAS refund"/>
+    <n v="30"/>
+    <m/>
+    <n v="6980.2599999999957"/>
+    <x v="12"/>
+    <m/>
+  </r>
+  <r>
     <m/>
     <m/>
     <m/>
@@ -18829,6 +19015,71 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A5C2633A-7AD5-4920-9B01-65373321B481}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E4:G8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField numFmtId="15" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Expenditure" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE04C0F0-9A61-4F80-8276-3D04382D746D}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -18977,190 +19228,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A5C2633A-7AD5-4920-9B01-65373321B481}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E4:G8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField numFmtId="15" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Expenditure" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FE7C9AF-75EF-4873-8F1B-0F70A39EEC38}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A19:C30" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField numFmtId="15" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="26">
-        <item x="1"/>
-        <item x="15"/>
-        <item x="4"/>
-        <item x="16"/>
-        <item x="11"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="8"/>
-        <item x="13"/>
-        <item x="10"/>
-        <item x="12"/>
-        <item x="7"/>
-        <item x="14"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="17"/>
-        <item x="23"/>
-        <item x="5"/>
-        <item x="20"/>
-        <item m="1" x="24"/>
-        <item x="21"/>
-        <item x="6"/>
-        <item x="22"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="7" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Expenditure" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88CC6FF2-D2D5-4EC7-9086-AAE36B3B0E13}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
@@ -19264,6 +19332,124 @@
   </colItems>
   <pageFields count="1">
     <pageField fld="7" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Expenditure" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FE7C9AF-75EF-4873-8F1B-0F70A39EEC38}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A19:C30" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField numFmtId="15" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="26">
+        <item x="1"/>
+        <item x="15"/>
+        <item x="4"/>
+        <item x="16"/>
+        <item x="11"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="8"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="17"/>
+        <item x="23"/>
+        <item x="5"/>
+        <item x="20"/>
+        <item m="1" x="24"/>
+        <item x="21"/>
+        <item x="6"/>
+        <item x="22"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="7" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="2">
     <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
@@ -20581,8 +20767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FA1291-B9CE-4F7D-8600-2336ADED0E75}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -20851,7 +21037,7 @@
         <v>2123</v>
       </c>
       <c r="B28">
-        <v>116.57</v>
+        <v>280.27</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -20867,7 +21053,7 @@
         <v>513</v>
       </c>
       <c r="B30">
-        <v>17077.43</v>
+        <v>17241.13</v>
       </c>
       <c r="C30">
         <v>9922.1200000000008</v>
@@ -20880,11 +21066,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5956F534-76F9-4C2C-AE0C-5DBCF3D7B234}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I352"/>
+  <dimension ref="A1:I379"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H353" sqref="H353"/>
+    <sheetView tabSelected="1" topLeftCell="A357" workbookViewId="0">
+      <selection activeCell="G379" sqref="G379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -20925,7 +21110,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="28">
         <v>45292</v>
       </c>
@@ -20945,7 +21130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>45293</v>
       </c>
@@ -20966,7 +21151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>45293</v>
       </c>
@@ -20987,7 +21172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>45293</v>
       </c>
@@ -21008,7 +21193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>45293</v>
       </c>
@@ -21029,7 +21214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>45293</v>
       </c>
@@ -21050,7 +21235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>45293</v>
       </c>
@@ -21071,7 +21256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>45293</v>
       </c>
@@ -21092,7 +21277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>45293</v>
       </c>
@@ -21113,7 +21298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>45293</v>
       </c>
@@ -21134,7 +21319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>45293</v>
       </c>
@@ -21155,7 +21340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>45293</v>
       </c>
@@ -21176,7 +21361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>45293</v>
       </c>
@@ -21197,7 +21382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>45293</v>
       </c>
@@ -21218,7 +21403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>45293</v>
       </c>
@@ -21239,7 +21424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>45293</v>
       </c>
@@ -21260,7 +21445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>45293</v>
       </c>
@@ -21281,7 +21466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>45293</v>
       </c>
@@ -21302,7 +21487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>45293</v>
       </c>
@@ -21323,7 +21508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>45293</v>
       </c>
@@ -21344,7 +21529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>45293</v>
       </c>
@@ -21365,7 +21550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>45293</v>
       </c>
@@ -21386,7 +21571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>45293</v>
       </c>
@@ -21407,7 +21592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>45293</v>
       </c>
@@ -21428,7 +21613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>45293</v>
       </c>
@@ -21449,7 +21634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>45293</v>
       </c>
@@ -21470,7 +21655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="28">
         <v>45293</v>
       </c>
@@ -21491,7 +21676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>45293</v>
       </c>
@@ -21512,7 +21697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="28">
         <v>45293</v>
       </c>
@@ -21533,7 +21718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
         <v>45293</v>
       </c>
@@ -21554,7 +21739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="28">
         <v>45293</v>
       </c>
@@ -21575,7 +21760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="28">
         <v>45293</v>
       </c>
@@ -21596,7 +21781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="28">
         <v>45293</v>
       </c>
@@ -21617,7 +21802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="28">
         <v>45293</v>
       </c>
@@ -21638,7 +21823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="28">
         <v>45293</v>
       </c>
@@ -21659,7 +21844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
         <v>45293</v>
       </c>
@@ -21680,7 +21865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="28">
         <v>45293</v>
       </c>
@@ -21701,7 +21886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="28">
         <v>45293</v>
       </c>
@@ -21722,7 +21907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="28">
         <v>45293</v>
       </c>
@@ -21743,7 +21928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="28">
         <v>45293</v>
       </c>
@@ -21764,7 +21949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="28">
         <v>45293</v>
       </c>
@@ -21785,7 +21970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="28">
         <v>45293</v>
       </c>
@@ -21806,7 +21991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="28">
         <v>45293</v>
       </c>
@@ -21827,7 +22012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="28">
         <v>45293</v>
       </c>
@@ -21848,7 +22033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="28">
         <v>45293</v>
       </c>
@@ -21869,7 +22054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="28">
         <v>45293</v>
       </c>
@@ -21890,7 +22075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="28">
         <v>45293</v>
       </c>
@@ -21911,7 +22096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="28">
         <v>45293</v>
       </c>
@@ -21932,7 +22117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="28">
         <v>45293</v>
       </c>
@@ -21953,7 +22138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="28">
         <v>45293</v>
       </c>
@@ -21974,7 +22159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="28">
         <v>45293</v>
       </c>
@@ -21995,7 +22180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="28">
         <v>45293</v>
       </c>
@@ -22016,7 +22201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="28">
         <v>45293</v>
       </c>
@@ -22037,7 +22222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="28">
         <v>45293</v>
       </c>
@@ -22058,7 +22243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="28">
         <v>45293</v>
       </c>
@@ -22079,7 +22264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="28">
         <v>45293</v>
       </c>
@@ -22100,7 +22285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="28">
         <v>45293</v>
       </c>
@@ -22121,7 +22306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
         <v>45293</v>
       </c>
@@ -22142,7 +22327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="28">
         <v>45293</v>
       </c>
@@ -22163,7 +22348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="28">
         <v>45293</v>
       </c>
@@ -22184,7 +22369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="28">
         <v>45293</v>
       </c>
@@ -22205,7 +22390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="28">
         <v>45293</v>
       </c>
@@ -22226,7 +22411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="28">
         <v>45293</v>
       </c>
@@ -22247,7 +22432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="28">
         <v>45293</v>
       </c>
@@ -22268,7 +22453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="28">
         <v>45293</v>
       </c>
@@ -22289,7 +22474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="28">
         <v>45293</v>
       </c>
@@ -22310,7 +22495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="28">
         <v>45293</v>
       </c>
@@ -22331,7 +22516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="28">
         <v>45293</v>
       </c>
@@ -22352,7 +22537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="28">
         <v>45293</v>
       </c>
@@ -22373,7 +22558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="28">
         <v>45293</v>
       </c>
@@ -22394,7 +22579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="28">
         <v>45293</v>
       </c>
@@ -22415,7 +22600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="28">
         <v>45293</v>
       </c>
@@ -22436,7 +22621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="28">
         <v>45293</v>
       </c>
@@ -22457,7 +22642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="28">
         <v>45293</v>
       </c>
@@ -22478,7 +22663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="28">
         <v>45293</v>
       </c>
@@ -22499,7 +22684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="28">
         <v>45293</v>
       </c>
@@ -22520,7 +22705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="28">
         <v>45293</v>
       </c>
@@ -22541,7 +22726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="28">
         <v>45293</v>
       </c>
@@ -22562,7 +22747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="28">
         <v>45293</v>
       </c>
@@ -22583,7 +22768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="28">
         <v>45293</v>
       </c>
@@ -22604,7 +22789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="28">
         <v>45293</v>
       </c>
@@ -22625,7 +22810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="28">
         <v>45293</v>
       </c>
@@ -22646,7 +22831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="28">
         <v>45293</v>
       </c>
@@ -22667,7 +22852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="28">
         <v>45293</v>
       </c>
@@ -22688,7 +22873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="28">
         <v>45293</v>
       </c>
@@ -22709,7 +22894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="28">
         <v>45293</v>
       </c>
@@ -22730,7 +22915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="28">
         <v>45293</v>
       </c>
@@ -22751,7 +22936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="28">
         <v>45293</v>
       </c>
@@ -22772,7 +22957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="28">
         <v>45293</v>
       </c>
@@ -22793,7 +22978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="28">
         <v>45293</v>
       </c>
@@ -22814,7 +22999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="28">
         <v>45293</v>
       </c>
@@ -22835,7 +23020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="28">
         <v>45293</v>
       </c>
@@ -22856,7 +23041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="28">
         <v>45293</v>
       </c>
@@ -22877,7 +23062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="28">
         <v>45293</v>
       </c>
@@ -22898,7 +23083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="28">
         <v>45293</v>
       </c>
@@ -22919,7 +23104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="28">
         <v>45293</v>
       </c>
@@ -22940,7 +23125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="28">
         <v>45293</v>
       </c>
@@ -22961,7 +23146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="28">
         <v>45293</v>
       </c>
@@ -22982,7 +23167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="28">
         <v>45293</v>
       </c>
@@ -23003,7 +23188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="28">
         <v>45293</v>
       </c>
@@ -23024,7 +23209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="28">
         <v>45293</v>
       </c>
@@ -23045,7 +23230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="28">
         <v>45293</v>
       </c>
@@ -23066,7 +23251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="28">
         <v>45293</v>
       </c>
@@ -23087,7 +23272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="28">
         <v>45293</v>
       </c>
@@ -23108,7 +23293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="28">
         <v>45293</v>
       </c>
@@ -23129,7 +23314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="28">
         <v>45293</v>
       </c>
@@ -23150,7 +23335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="28">
         <v>45293</v>
       </c>
@@ -23171,7 +23356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="28">
         <v>45293</v>
       </c>
@@ -23192,7 +23377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="28">
         <v>45293</v>
       </c>
@@ -23213,7 +23398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="28">
         <v>45293</v>
       </c>
@@ -23234,7 +23419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="28">
         <v>45293</v>
       </c>
@@ -23255,7 +23440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="28">
         <v>45293</v>
       </c>
@@ -23276,7 +23461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="28">
         <v>45293</v>
       </c>
@@ -23297,7 +23482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="28">
         <v>45293</v>
       </c>
@@ -23318,7 +23503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="28">
         <v>45293</v>
       </c>
@@ -23339,7 +23524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="28">
         <v>45293</v>
       </c>
@@ -23360,7 +23545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="28">
         <v>45293</v>
       </c>
@@ -23381,7 +23566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="28">
         <v>45293</v>
       </c>
@@ -23402,7 +23587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="28">
         <v>45293</v>
       </c>
@@ -23423,7 +23608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="28">
         <v>45293</v>
       </c>
@@ -23444,7 +23629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="28">
         <v>45293</v>
       </c>
@@ -23465,7 +23650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="28">
         <v>45293</v>
       </c>
@@ -23486,7 +23671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="28">
         <v>45293</v>
       </c>
@@ -23507,7 +23692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="28">
         <v>45293</v>
       </c>
@@ -23528,7 +23713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="28">
         <v>45293</v>
       </c>
@@ -23549,7 +23734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="28">
         <v>45293</v>
       </c>
@@ -23570,7 +23755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="28">
         <v>45293</v>
       </c>
@@ -23591,7 +23776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="28">
         <v>45293</v>
       </c>
@@ -23612,7 +23797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="28">
         <v>45293</v>
       </c>
@@ -23633,7 +23818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="28">
         <v>45293</v>
       </c>
@@ -23654,7 +23839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="28">
         <v>45294</v>
       </c>
@@ -23675,7 +23860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="28">
         <v>45294</v>
       </c>
@@ -23696,7 +23881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="28">
         <v>45294</v>
       </c>
@@ -23717,7 +23902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="28">
         <v>45295</v>
       </c>
@@ -23738,7 +23923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="28">
         <v>45295</v>
       </c>
@@ -23759,7 +23944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="28">
         <v>45296</v>
       </c>
@@ -23780,7 +23965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="28">
         <v>45296</v>
       </c>
@@ -23801,7 +23986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="28">
         <v>45296</v>
       </c>
@@ -23822,7 +24007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="28">
         <v>45296</v>
       </c>
@@ -23843,7 +24028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="28">
         <v>45296</v>
       </c>
@@ -23864,7 +24049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="28">
         <v>45296</v>
       </c>
@@ -23885,7 +24070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="28">
         <v>45296</v>
       </c>
@@ -23906,7 +24091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="28">
         <v>45299</v>
       </c>
@@ -23927,7 +24112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="28">
         <v>45299</v>
       </c>
@@ -23948,7 +24133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="28">
         <v>45299</v>
       </c>
@@ -23969,7 +24154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="28">
         <v>45299</v>
       </c>
@@ -23990,7 +24175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="28">
         <v>45300</v>
       </c>
@@ -24011,7 +24196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="28">
         <v>45300</v>
       </c>
@@ -24032,7 +24217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="28">
         <v>45300</v>
       </c>
@@ -24053,7 +24238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="28">
         <v>45301</v>
       </c>
@@ -24074,7 +24259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="28">
         <v>45302</v>
       </c>
@@ -24095,7 +24280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="28">
         <v>45306</v>
       </c>
@@ -24116,7 +24301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="28">
         <v>45306</v>
       </c>
@@ -24137,7 +24322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="28">
         <v>45307</v>
       </c>
@@ -24158,7 +24343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="28">
         <v>45308</v>
       </c>
@@ -24179,7 +24364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="28">
         <v>45308</v>
       </c>
@@ -24200,7 +24385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="28">
         <v>45309</v>
       </c>
@@ -24221,7 +24406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="28">
         <v>45312</v>
       </c>
@@ -24242,7 +24427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="28">
         <v>45312</v>
       </c>
@@ -24263,7 +24448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="28">
         <v>45313</v>
       </c>
@@ -24284,7 +24469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="28">
         <v>45314</v>
       </c>
@@ -24305,7 +24490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="28">
         <v>45316</v>
       </c>
@@ -24326,7 +24511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="28">
         <v>45317</v>
       </c>
@@ -24347,7 +24532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="28">
         <v>45317</v>
       </c>
@@ -24368,7 +24553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="28">
         <v>45318</v>
       </c>
@@ -24389,7 +24574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="28">
         <v>45320</v>
       </c>
@@ -24410,7 +24595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="28">
         <v>45320</v>
       </c>
@@ -24431,7 +24616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="28">
         <v>45321</v>
       </c>
@@ -24452,7 +24637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="28">
         <v>45322</v>
       </c>
@@ -24473,7 +24658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="28">
         <v>45322</v>
       </c>
@@ -24494,7 +24679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="28">
         <v>45323</v>
       </c>
@@ -24515,7 +24700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="28">
         <v>45323</v>
       </c>
@@ -24536,7 +24721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="28">
         <v>45324</v>
       </c>
@@ -24557,7 +24742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="28">
         <v>45327</v>
       </c>
@@ -24578,7 +24763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="28">
         <v>45328</v>
       </c>
@@ -24599,7 +24784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="28">
         <v>45330</v>
       </c>
@@ -24620,7 +24805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="28">
         <v>45337</v>
       </c>
@@ -24641,7 +24826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="28">
         <v>45338</v>
       </c>
@@ -24662,7 +24847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="28">
         <v>45342</v>
       </c>
@@ -24683,7 +24868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="28">
         <v>45343</v>
       </c>
@@ -24704,7 +24889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="28">
         <v>45344</v>
       </c>
@@ -24725,7 +24910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="28">
         <v>45345</v>
       </c>
@@ -24746,7 +24931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="28">
         <v>45348</v>
       </c>
@@ -24767,7 +24952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="28">
         <v>45349</v>
       </c>
@@ -24788,7 +24973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="28">
         <v>45351</v>
       </c>
@@ -24809,7 +24994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="28">
         <v>45352</v>
       </c>
@@ -24830,7 +25015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="28">
         <v>45352</v>
       </c>
@@ -24851,7 +25036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="28">
         <v>45352</v>
       </c>
@@ -24944,7 +25129,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="28">
         <v>45358</v>
       </c>
@@ -25181,7 +25366,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="28">
         <v>45366</v>
       </c>
@@ -25205,7 +25390,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="28">
         <v>45367</v>
       </c>
@@ -25280,7 +25465,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="28">
         <v>45372</v>
       </c>
@@ -25301,7 +25486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="28">
         <v>45373</v>
       </c>
@@ -25322,7 +25507,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="28">
         <v>45376</v>
       </c>
@@ -25346,7 +25531,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="28">
         <v>45376</v>
       </c>
@@ -25370,7 +25555,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="28">
         <v>45378</v>
       </c>
@@ -25394,7 +25579,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="28">
         <v>45379</v>
       </c>
@@ -25418,7 +25603,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="28">
         <v>45379</v>
       </c>
@@ -25442,7 +25627,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="28">
         <v>45385</v>
       </c>
@@ -25466,7 +25651,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="28">
         <v>45385</v>
       </c>
@@ -25490,7 +25675,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="28">
         <v>45386</v>
       </c>
@@ -25514,7 +25699,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="28">
         <v>45386</v>
       </c>
@@ -25538,7 +25723,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="28">
         <v>45387</v>
       </c>
@@ -25562,7 +25747,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="28">
         <v>45387</v>
       </c>
@@ -25589,7 +25774,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="28">
         <v>45387</v>
       </c>
@@ -25613,7 +25798,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="28">
         <v>45387</v>
       </c>
@@ -25637,7 +25822,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="28">
         <v>45390</v>
       </c>
@@ -25661,7 +25846,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="28">
         <v>45391</v>
       </c>
@@ -25685,7 +25870,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="28">
         <v>45393</v>
       </c>
@@ -25712,7 +25897,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="28">
         <v>45393</v>
       </c>
@@ -25736,7 +25921,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="28">
         <v>45400</v>
       </c>
@@ -25760,7 +25945,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="28">
         <v>45403</v>
       </c>
@@ -25781,7 +25966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="28">
         <v>45407</v>
       </c>
@@ -25802,7 +25987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="28">
         <v>45407</v>
       </c>
@@ -25826,7 +26011,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="28">
         <v>45407</v>
       </c>
@@ -25850,7 +26035,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="28">
         <v>45411</v>
       </c>
@@ -25874,7 +26059,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="28">
         <v>45411</v>
       </c>
@@ -25898,7 +26083,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="28">
         <v>45411</v>
       </c>
@@ -25922,7 +26107,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="28">
         <v>45411</v>
       </c>
@@ -25946,7 +26131,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="28">
         <v>45411</v>
       </c>
@@ -25970,7 +26155,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="28">
         <v>45411</v>
       </c>
@@ -25994,7 +26179,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="28">
         <v>45411</v>
       </c>
@@ -26018,7 +26203,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="28">
         <v>45411</v>
       </c>
@@ -26042,7 +26227,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="28">
         <v>45411</v>
       </c>
@@ -26066,7 +26251,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="28">
         <v>45411</v>
       </c>
@@ -26090,7 +26275,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="28">
         <v>45418</v>
       </c>
@@ -26114,7 +26299,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="28">
         <v>45419</v>
       </c>
@@ -26135,7 +26320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="28">
         <v>45420</v>
       </c>
@@ -26156,7 +26341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="28">
         <v>45421</v>
       </c>
@@ -26177,7 +26362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="28">
         <v>45433</v>
       </c>
@@ -26198,7 +26383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="28">
         <v>45433</v>
       </c>
@@ -26219,7 +26404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="28">
         <v>45446</v>
       </c>
@@ -26240,7 +26425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="28">
         <v>45450</v>
       </c>
@@ -26261,7 +26446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="28">
         <v>45454</v>
       </c>
@@ -26285,7 +26470,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="28">
         <v>45454</v>
       </c>
@@ -26306,7 +26491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="28">
         <v>45455</v>
       </c>
@@ -26327,7 +26512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="28">
         <v>45462</v>
       </c>
@@ -26348,7 +26533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="28">
         <v>45464</v>
       </c>
@@ -26369,7 +26554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="28">
         <v>45477</v>
       </c>
@@ -26390,7 +26575,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="28">
         <v>45477</v>
       </c>
@@ -26411,7 +26596,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="28">
         <v>45484</v>
       </c>
@@ -26432,7 +26617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="28">
         <v>45484</v>
       </c>
@@ -26456,7 +26641,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="28">
         <v>45494</v>
       </c>
@@ -26477,7 +26662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="28">
         <v>45498</v>
       </c>
@@ -26768,7 +26953,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="28">
         <v>45520</v>
       </c>
@@ -26864,7 +27049,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="28">
         <v>45525</v>
       </c>
@@ -26885,7 +27070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="28">
         <v>45526</v>
       </c>
@@ -27194,7 +27379,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="28">
         <v>45539</v>
       </c>
@@ -27482,7 +27667,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="28">
         <v>45548</v>
       </c>
@@ -27530,7 +27715,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="28">
         <v>45553</v>
       </c>
@@ -27551,7 +27736,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="28">
         <v>45554</v>
       </c>
@@ -27575,7 +27760,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="28">
         <v>45554</v>
       </c>
@@ -27599,7 +27784,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="28">
         <v>45555</v>
       </c>
@@ -27623,7 +27808,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="28">
         <v>45556</v>
       </c>
@@ -27644,7 +27829,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="28">
         <v>45558</v>
       </c>
@@ -27668,7 +27853,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="28">
         <v>45558</v>
       </c>
@@ -27689,7 +27874,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="28">
         <v>45560</v>
       </c>
@@ -27710,7 +27895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="28">
         <v>45560</v>
       </c>
@@ -27734,7 +27919,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="28">
         <v>45560</v>
       </c>
@@ -27755,7 +27940,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="28">
         <v>45560</v>
       </c>
@@ -27779,7 +27964,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="28">
         <v>45561</v>
       </c>
@@ -27800,7 +27985,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="28">
         <v>45562</v>
       </c>
@@ -27827,7 +28012,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="28">
         <v>45562</v>
       </c>
@@ -27851,7 +28036,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="28">
         <v>45565</v>
       </c>
@@ -27875,7 +28060,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="28">
         <v>45565</v>
       </c>
@@ -27899,7 +28084,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="28">
         <v>45566</v>
       </c>
@@ -27926,7 +28111,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="28">
         <v>45566</v>
       </c>
@@ -27950,7 +28135,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="28">
         <v>45568</v>
       </c>
@@ -27974,7 +28159,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="28">
         <v>45569</v>
       </c>
@@ -27998,7 +28183,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="28">
         <v>45572</v>
       </c>
@@ -28022,7 +28207,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="28">
         <v>45573</v>
       </c>
@@ -28046,7 +28231,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="28">
         <v>45574</v>
       </c>
@@ -28070,7 +28255,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="28">
         <v>45574</v>
       </c>
@@ -28084,7 +28269,7 @@
         <v>60</v>
       </c>
       <c r="F326" s="29">
-        <f t="shared" ref="F326:F352" si="5">F325+E326-D326</f>
+        <f t="shared" ref="F326:F379" si="5">F325+E326-D326</f>
         <v>16791.709999999995</v>
       </c>
       <c r="G326" t="s">
@@ -28094,7 +28279,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="28">
         <v>45574</v>
       </c>
@@ -28118,7 +28303,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="28">
         <v>45574</v>
       </c>
@@ -28142,7 +28327,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="28">
         <v>45574</v>
       </c>
@@ -28166,7 +28351,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="28">
         <v>45574</v>
       </c>
@@ -28190,7 +28375,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="28">
         <v>45574</v>
       </c>
@@ -28214,7 +28399,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="28">
         <v>45574</v>
       </c>
@@ -28238,7 +28423,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="28">
         <v>45574</v>
       </c>
@@ -28262,7 +28447,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="28">
         <v>45574</v>
       </c>
@@ -28286,7 +28471,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="28">
         <v>45574</v>
       </c>
@@ -28310,7 +28495,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="28">
         <v>45574</v>
       </c>
@@ -28334,7 +28519,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="28">
         <v>45574</v>
       </c>
@@ -28358,7 +28543,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="28">
         <v>45575</v>
       </c>
@@ -28382,7 +28567,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="28">
         <v>45575</v>
       </c>
@@ -28406,7 +28591,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="28">
         <v>45575</v>
       </c>
@@ -28427,7 +28612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="28">
         <v>45575</v>
       </c>
@@ -28451,7 +28636,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="28">
         <v>45575</v>
       </c>
@@ -28475,7 +28660,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="28">
         <v>45575</v>
       </c>
@@ -28499,7 +28684,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="28">
         <v>45579</v>
       </c>
@@ -28523,7 +28708,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="28">
         <v>45580</v>
       </c>
@@ -28547,7 +28732,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="28">
         <v>45583</v>
       </c>
@@ -28571,7 +28756,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="28">
         <v>45586</v>
       </c>
@@ -28592,7 +28777,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="28">
         <v>45587</v>
       </c>
@@ -28619,7 +28804,7 @@
         <v>3658</v>
       </c>
     </row>
-    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="28">
         <v>45589</v>
       </c>
@@ -28643,7 +28828,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="28">
         <v>45592</v>
       </c>
@@ -28667,7 +28852,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="28">
         <v>45594</v>
       </c>
@@ -28694,7 +28879,7 @@
         <v>3658</v>
       </c>
     </row>
-    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="28">
         <v>45594</v>
       </c>
@@ -28718,14 +28903,581 @@
         <v>804</v>
       </c>
     </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A353" s="28">
+        <v>45603</v>
+      </c>
+      <c r="B353" t="s">
+        <v>339</v>
+      </c>
+      <c r="C353" t="s">
+        <v>3667</v>
+      </c>
+      <c r="E353">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="F353" s="29">
+        <f t="shared" si="5"/>
+        <v>7842.109999999996</v>
+      </c>
+      <c r="G353" t="s">
+        <v>2123</v>
+      </c>
+      <c r="H353" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A354" s="28">
+        <v>45603</v>
+      </c>
+      <c r="B354" t="s">
+        <v>484</v>
+      </c>
+      <c r="C354" t="s">
+        <v>3668</v>
+      </c>
+      <c r="D354">
+        <v>12</v>
+      </c>
+      <c r="F354" s="29">
+        <f t="shared" si="5"/>
+        <v>7830.109999999996</v>
+      </c>
+      <c r="G354" t="s">
+        <v>862</v>
+      </c>
+      <c r="I354" t="s">
+        <v>3669</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A355" s="28">
+        <v>45616</v>
+      </c>
+      <c r="B355" t="s">
+        <v>339</v>
+      </c>
+      <c r="C355" t="s">
+        <v>762</v>
+      </c>
+      <c r="E355">
+        <v>29.2</v>
+      </c>
+      <c r="F355" s="29">
+        <f t="shared" si="5"/>
+        <v>7859.3099999999959</v>
+      </c>
+      <c r="G355" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A356" s="28">
+        <v>45617</v>
+      </c>
+      <c r="B356" t="s">
+        <v>763</v>
+      </c>
+      <c r="C356" t="s">
+        <v>3671</v>
+      </c>
+      <c r="D356">
+        <v>5</v>
+      </c>
+      <c r="F356" s="29">
+        <f t="shared" si="5"/>
+        <v>7854.3099999999959</v>
+      </c>
+      <c r="G356" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A357" s="28">
+        <v>45625</v>
+      </c>
+      <c r="B357" t="s">
+        <v>484</v>
+      </c>
+      <c r="C357" t="s">
+        <v>3672</v>
+      </c>
+      <c r="D357">
+        <v>30</v>
+      </c>
+      <c r="F357" s="29">
+        <f t="shared" si="5"/>
+        <v>7824.3099999999959</v>
+      </c>
+      <c r="G357" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A358" s="28">
+        <v>45628</v>
+      </c>
+      <c r="B358" t="s">
+        <v>339</v>
+      </c>
+      <c r="C358" t="s">
+        <v>3673</v>
+      </c>
+      <c r="E358">
+        <v>30</v>
+      </c>
+      <c r="F358" s="29">
+        <f t="shared" si="5"/>
+        <v>7854.3099999999959</v>
+      </c>
+      <c r="G358" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A359" s="28">
+        <v>45632</v>
+      </c>
+      <c r="B359" t="s">
+        <v>484</v>
+      </c>
+      <c r="C359" t="s">
+        <v>3674</v>
+      </c>
+      <c r="D359">
+        <v>750</v>
+      </c>
+      <c r="F359" s="29">
+        <f t="shared" si="5"/>
+        <v>7104.3099999999959</v>
+      </c>
+      <c r="G359" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A360" s="28">
+        <v>45635</v>
+      </c>
+      <c r="B360" t="s">
+        <v>339</v>
+      </c>
+      <c r="C360" t="s">
+        <v>762</v>
+      </c>
+      <c r="E360">
+        <v>29.2</v>
+      </c>
+      <c r="F360" s="29">
+        <f t="shared" si="5"/>
+        <v>7133.5099999999957</v>
+      </c>
+      <c r="G360" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A361" s="28">
+        <v>45637</v>
+      </c>
+      <c r="B361" t="s">
+        <v>484</v>
+      </c>
+      <c r="C361" t="s">
+        <v>3668</v>
+      </c>
+      <c r="D361">
+        <v>123.25</v>
+      </c>
+      <c r="F361" s="29">
+        <f t="shared" si="5"/>
+        <v>7010.2599999999957</v>
+      </c>
+      <c r="G361" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A362" s="28">
+        <v>45638</v>
+      </c>
+      <c r="B362" t="s">
+        <v>484</v>
+      </c>
+      <c r="C362" t="s">
+        <v>3675</v>
+      </c>
+      <c r="D362">
+        <v>30</v>
+      </c>
+      <c r="F362" s="29">
+        <f t="shared" si="5"/>
+        <v>6980.2599999999957</v>
+      </c>
+      <c r="G362" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A363" s="28">
+        <v>45643</v>
+      </c>
+      <c r="B363" t="s">
+        <v>339</v>
+      </c>
+      <c r="C363" t="s">
+        <v>3687</v>
+      </c>
+      <c r="E363">
+        <v>30</v>
+      </c>
+      <c r="F363" s="29">
+        <f t="shared" si="5"/>
+        <v>7010.2599999999957</v>
+      </c>
+      <c r="G363" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A364" s="28">
+        <v>45643</v>
+      </c>
+      <c r="B364" t="s">
+        <v>339</v>
+      </c>
+      <c r="C364" t="s">
+        <v>3688</v>
+      </c>
+      <c r="E364">
+        <v>30</v>
+      </c>
+      <c r="F364" s="29">
+        <f t="shared" si="5"/>
+        <v>7040.2599999999957</v>
+      </c>
+      <c r="G364" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A365" s="28">
+        <v>45643</v>
+      </c>
+      <c r="B365" t="s">
+        <v>339</v>
+      </c>
+      <c r="C365" t="s">
+        <v>3689</v>
+      </c>
+      <c r="E365">
+        <v>30</v>
+      </c>
+      <c r="F365" s="29">
+        <f t="shared" si="5"/>
+        <v>7070.2599999999957</v>
+      </c>
+      <c r="G365" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A366" s="28">
+        <v>45643</v>
+      </c>
+      <c r="B366" t="s">
+        <v>339</v>
+      </c>
+      <c r="C366" t="s">
+        <v>3690</v>
+      </c>
+      <c r="E366">
+        <v>30</v>
+      </c>
+      <c r="F366" s="29">
+        <f t="shared" si="5"/>
+        <v>7100.2599999999957</v>
+      </c>
+      <c r="G366" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A367" s="28">
+        <v>45643</v>
+      </c>
+      <c r="B367" t="s">
+        <v>339</v>
+      </c>
+      <c r="C367" t="s">
+        <v>3691</v>
+      </c>
+      <c r="E367">
+        <v>30</v>
+      </c>
+      <c r="F367" s="29">
+        <f t="shared" si="5"/>
+        <v>7130.2599999999957</v>
+      </c>
+      <c r="G367" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A368" s="28">
+        <v>45643</v>
+      </c>
+      <c r="B368" t="s">
+        <v>339</v>
+      </c>
+      <c r="C368" t="s">
+        <v>3676</v>
+      </c>
+      <c r="E368">
+        <v>30</v>
+      </c>
+      <c r="F368" s="29">
+        <f t="shared" si="5"/>
+        <v>7160.2599999999957</v>
+      </c>
+      <c r="G368" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A369" s="28">
+        <v>45643</v>
+      </c>
+      <c r="B369" t="s">
+        <v>339</v>
+      </c>
+      <c r="C369" t="s">
+        <v>3677</v>
+      </c>
+      <c r="E369">
+        <v>30</v>
+      </c>
+      <c r="F369" s="29">
+        <f t="shared" si="5"/>
+        <v>7190.2599999999957</v>
+      </c>
+      <c r="G369" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A370" s="28">
+        <v>45643</v>
+      </c>
+      <c r="B370" t="s">
+        <v>339</v>
+      </c>
+      <c r="C370" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E370">
+        <v>30</v>
+      </c>
+      <c r="F370" s="29">
+        <f t="shared" si="5"/>
+        <v>7220.2599999999957</v>
+      </c>
+      <c r="G370" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A371" s="28">
+        <v>45643</v>
+      </c>
+      <c r="B371" t="s">
+        <v>339</v>
+      </c>
+      <c r="C371" t="s">
+        <v>3679</v>
+      </c>
+      <c r="E371">
+        <v>30</v>
+      </c>
+      <c r="F371" s="29">
+        <f t="shared" si="5"/>
+        <v>7250.2599999999957</v>
+      </c>
+      <c r="G371" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A372" s="28">
+        <v>45643</v>
+      </c>
+      <c r="B372" t="s">
+        <v>484</v>
+      </c>
+      <c r="C372" t="s">
+        <v>3680</v>
+      </c>
+      <c r="E372">
+        <v>30</v>
+      </c>
+      <c r="F372" s="29">
+        <f t="shared" si="5"/>
+        <v>7280.2599999999957</v>
+      </c>
+      <c r="G372" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A373" s="28">
+        <v>45643</v>
+      </c>
+      <c r="B373" t="s">
+        <v>339</v>
+      </c>
+      <c r="C373" t="s">
+        <v>493</v>
+      </c>
+      <c r="E373">
+        <v>30</v>
+      </c>
+      <c r="F373" s="29">
+        <f t="shared" si="5"/>
+        <v>7310.2599999999957</v>
+      </c>
+      <c r="G373" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A374" s="28">
+        <v>45643</v>
+      </c>
+      <c r="B374" t="s">
+        <v>339</v>
+      </c>
+      <c r="C374" t="s">
+        <v>502</v>
+      </c>
+      <c r="E374">
+        <v>30</v>
+      </c>
+      <c r="F374" s="29">
+        <f t="shared" si="5"/>
+        <v>7340.2599999999957</v>
+      </c>
+      <c r="G374" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A375" s="28">
+        <v>45643</v>
+      </c>
+      <c r="B375" t="s">
+        <v>484</v>
+      </c>
+      <c r="C375" t="s">
+        <v>3681</v>
+      </c>
+      <c r="E375">
+        <v>30</v>
+      </c>
+      <c r="F375" s="29">
+        <f t="shared" si="5"/>
+        <v>7370.2599999999957</v>
+      </c>
+      <c r="G375" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A376" s="28">
+        <v>45644</v>
+      </c>
+      <c r="B376" t="s">
+        <v>339</v>
+      </c>
+      <c r="C376" t="s">
+        <v>3684</v>
+      </c>
+      <c r="E376">
+        <v>30</v>
+      </c>
+      <c r="F376" s="29">
+        <f t="shared" si="5"/>
+        <v>7400.2599999999957</v>
+      </c>
+      <c r="G376" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A377" s="28">
+        <v>45644</v>
+      </c>
+      <c r="B377" t="s">
+        <v>484</v>
+      </c>
+      <c r="C377" t="s">
+        <v>3685</v>
+      </c>
+      <c r="E377">
+        <v>30</v>
+      </c>
+      <c r="F377" s="29">
+        <f t="shared" si="5"/>
+        <v>7430.2599999999957</v>
+      </c>
+      <c r="G377" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A378" s="28">
+        <v>45644</v>
+      </c>
+      <c r="B378" t="s">
+        <v>339</v>
+      </c>
+      <c r="C378" t="s">
+        <v>3686</v>
+      </c>
+      <c r="E378">
+        <v>30</v>
+      </c>
+      <c r="F378" s="29">
+        <f t="shared" si="5"/>
+        <v>7460.2599999999957</v>
+      </c>
+      <c r="G378" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A379" s="28">
+        <v>45644</v>
+      </c>
+      <c r="B379" t="s">
+        <v>339</v>
+      </c>
+      <c r="C379" t="s">
+        <v>867</v>
+      </c>
+      <c r="E379">
+        <v>30</v>
+      </c>
+      <c r="F379" s="29">
+        <f t="shared" si="5"/>
+        <v>7490.2599999999957</v>
+      </c>
+      <c r="G379" t="s">
+        <v>3682</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I352" xr:uid="{5956F534-76F9-4C2C-AE0C-5DBCF3D7B234}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Submissions"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I352" xr:uid="{5956F534-76F9-4C2C-AE0C-5DBCF3D7B234}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -28734,7 +29486,7 @@
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$53</xm:f>
           </x14:formula1>
-          <xm:sqref>G1:G1048576 H355</xm:sqref>
+          <xm:sqref>H355 G1:G1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -56182,10 +56934,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0167813-1C3C-42CC-A5D8-7CCC1B587009}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -56340,6 +57092,11 @@
     <row r="28" spans="1:1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>3659</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>3682</v>
       </c>
     </row>
   </sheetData>
@@ -56394,7 +57151,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -56564,7 +57321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D64849-DAC0-4101-B9D5-A90CC0C93067}">
   <dimension ref="A1:W243"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+    <sheetView zoomScale="110" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -58040,8 +58797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FE514B-3795-4629-A000-D0748981309D}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection sqref="A1:C55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -60349,8 +61106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8B129E-9577-4975-84CD-7D397D3BC1CE}">
   <dimension ref="A1:P247"/>
   <sheetViews>
-    <sheetView topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="A247" sqref="A247"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -70741,10 +71498,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A8BED0-6F25-4951-9707-565F124E30A4}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -70817,7 +71574,7 @@
         <v>26.91</v>
       </c>
       <c r="F4" s="32">
-        <f t="shared" ref="F4:F13" si="0">F3+E4-D4</f>
+        <f t="shared" ref="F4:F15" si="0">F3+E4-D4</f>
         <v>16385.72</v>
       </c>
       <c r="G4" t="s">
@@ -71010,6 +71767,48 @@
         <v>22605.579999999998</v>
       </c>
       <c r="G13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="28">
+        <v>45613</v>
+      </c>
+      <c r="B14" t="s">
+        <v>759</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3670</v>
+      </c>
+      <c r="E14">
+        <v>36.28</v>
+      </c>
+      <c r="F14" s="32">
+        <f t="shared" si="0"/>
+        <v>22641.859999999997</v>
+      </c>
+      <c r="G14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
+        <v>45643</v>
+      </c>
+      <c r="B15" t="s">
+        <v>759</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3683</v>
+      </c>
+      <c r="E15">
+        <v>34.99</v>
+      </c>
+      <c r="F15" s="32">
+        <f t="shared" si="0"/>
+        <v>22676.85</v>
+      </c>
+      <c r="G15" t="s">
         <v>96</v>
       </c>
     </row>
@@ -71274,7 +72073,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>495.98</v>
+        <v>1245.98</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>512</v>
@@ -71314,7 +72113,7 @@
         <v>804</v>
       </c>
       <c r="F6">
-        <v>17077.43</v>
+        <v>17241.13</v>
       </c>
       <c r="G6">
         <v>9922.119999999999</v>
@@ -71342,13 +72141,13 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>361</v>
+        <v>421</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>513</v>
       </c>
       <c r="F8">
-        <v>31064.190000000002</v>
+        <v>31227.89</v>
       </c>
       <c r="G8">
         <v>28415.39</v>
@@ -71375,7 +72174,7 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>7477.1500000000015</v>
+        <v>7565.5500000000011</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -71476,7 +72275,7 @@
         <v>862</v>
       </c>
       <c r="C24">
-        <v>312</v>
+        <v>452.25</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -71484,7 +72283,7 @@
         <v>2123</v>
       </c>
       <c r="B25">
-        <v>295.56</v>
+        <v>459.26</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -71508,10 +72307,10 @@
         <v>513</v>
       </c>
       <c r="B28">
-        <v>31064.190000000002</v>
+        <v>31316.289999999997</v>
       </c>
       <c r="C28">
-        <v>28415.39</v>
+        <v>29365.64</v>
       </c>
     </row>
   </sheetData>
